--- a/REGULAR/CTO/JORGE, CAROLINA.xlsx
+++ b/REGULAR/CTO/JORGE, CAROLINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="807" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="482">
   <si>
     <t>PERIOD</t>
   </si>
@@ -2198,8 +2198,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K619" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K619"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K620"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -2528,12 +2528,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K619"/>
+  <dimension ref="A2:K620"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <pane ySplit="3690" topLeftCell="A559" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="F567" sqref="F567"/>
+      <selection pane="bottomLeft" activeCell="K562" sqref="K562"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2700,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.159999999999968</v>
+        <v>86.409999999999968</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2710,7 +2710,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>230.875</v>
+        <v>232.125</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6208,7 +6208,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.159999999999968</v>
+        <v>86.409999999999968</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -6218,7 +6218,7 @@
       <c r="H171" s="39"/>
       <c r="I171" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>230.875</v>
+        <v>232.125</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
@@ -15011,16 +15011,16 @@
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>44713</v>
+        <v>45047</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>83</v>
+        <v>479</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
       </c>
       <c r="D562" s="39">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="E562" s="9"/>
       <c r="F562" s="20"/>
@@ -15031,85 +15031,91 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="20" t="s">
-        <v>78</v>
+      <c r="K562" s="50">
+        <v>44701</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40"/>
+      <c r="A563" s="40">
+        <v>44713</v>
+      </c>
       <c r="B563" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C563" s="13"/>
+        <v>83</v>
+      </c>
+      <c r="C563" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D563" s="39">
-        <v>8.7000000000000022E-2</v>
+        <v>3</v>
       </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G563" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20"/>
+      <c r="K563" s="20" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40">
-        <v>44743</v>
-      </c>
+      <c r="A564" s="40"/>
       <c r="B564" s="20" t="s">
-        <v>84</v>
-      </c>
-      <c r="C564" s="13">
-        <v>1.25</v>
-      </c>
+        <v>226</v>
+      </c>
+      <c r="C564" s="13"/>
       <c r="D564" s="39">
-        <v>2</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G564" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20" t="s">
-        <v>79</v>
-      </c>
+      <c r="K564" s="20"/>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A565" s="40"/>
+      <c r="A565" s="40">
+        <v>44743</v>
+      </c>
       <c r="B565" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C565" s="13"/>
+        <v>84</v>
+      </c>
+      <c r="C565" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D565" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
-      <c r="G565" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G565" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H565" s="39"/>
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>53</v>
+        <v>83</v>
       </c>
       <c r="C566" s="13"/>
-      <c r="D566" s="39"/>
+      <c r="D566" s="39">
+        <v>3</v>
+      </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
       <c r="G566" s="13" t="str">
@@ -15119,19 +15125,17 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="49">
-        <v>44778</v>
+      <c r="K566" s="20" t="s">
+        <v>80</v>
       </c>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40"/>
       <c r="B567" s="20" t="s">
-        <v>481</v>
+        <v>53</v>
       </c>
       <c r="C567" s="13"/>
-      <c r="D567" s="39">
-        <v>9.6000000000000002E-2</v>
-      </c>
+      <c r="D567" s="39"/>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
       <c r="G567" s="13" t="str">
@@ -15141,44 +15145,42 @@
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="49"/>
+      <c r="K567" s="49">
+        <v>44778</v>
+      </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A568" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C568" s="13">
-        <v>1.25</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C568" s="13"/>
       <c r="D568" s="39">
-        <v>6.7000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
-      <c r="G568" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G568" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="20"/>
+      <c r="K568" s="49"/>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40">
-        <v>44805</v>
+        <v>44774</v>
       </c>
       <c r="B569" s="20" t="s">
-        <v>479</v>
+        <v>160</v>
       </c>
       <c r="C569" s="13">
         <v>1.25</v>
       </c>
       <c r="D569" s="39">
-        <v>1</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
@@ -15189,130 +15191,132 @@
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="49">
-        <v>44833</v>
-      </c>
+      <c r="K569" s="20"/>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40"/>
+      <c r="A570" s="40">
+        <v>44805</v>
+      </c>
       <c r="B570" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C570" s="13"/>
+        <v>479</v>
+      </c>
+      <c r="C570" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D570" s="39">
-        <v>0.40600000000000003</v>
+        <v>1</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G570" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="49"/>
+      <c r="K570" s="49">
+        <v>44833</v>
+      </c>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40">
-        <v>44835</v>
-      </c>
+      <c r="A571" s="40"/>
       <c r="B571" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C571" s="13">
-        <v>1.25</v>
-      </c>
+        <v>480</v>
+      </c>
+      <c r="C571" s="13"/>
       <c r="D571" s="39">
-        <v>1</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G571" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="49">
-        <v>44841</v>
-      </c>
+      <c r="K571" s="49"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A572" s="40"/>
+      <c r="A572" s="40">
+        <v>44835</v>
+      </c>
       <c r="B572" s="20" t="s">
-        <v>251</v>
-      </c>
-      <c r="C572" s="13"/>
+        <v>479</v>
+      </c>
+      <c r="C572" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D572" s="39">
-        <v>0.219</v>
+        <v>1</v>
       </c>
       <c r="E572" s="9"/>
       <c r="F572" s="20"/>
-      <c r="G572" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G572" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H572" s="39"/>
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
-      <c r="K572" s="49"/>
+      <c r="K572" s="49">
+        <v>44841</v>
+      </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A573" s="40">
-        <v>44866</v>
-      </c>
+      <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C573" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D573" s="39"/>
+        <v>251</v>
+      </c>
+      <c r="C573" s="13"/>
+      <c r="D573" s="39">
+        <v>0.219</v>
+      </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
-      <c r="G573" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G573" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H573" s="39"/>
       <c r="I573" s="9"/>
       <c r="J573" s="11"/>
-      <c r="K573" s="49">
-        <v>44897</v>
-      </c>
+      <c r="K573" s="49"/>
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A574" s="40"/>
+      <c r="A574" s="40">
+        <v>44866</v>
+      </c>
       <c r="B574" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C574" s="13"/>
-      <c r="D574" s="39">
-        <v>1</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C574" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D574" s="39"/>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
-      <c r="G574" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G574" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H574" s="39"/>
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
       <c r="K574" s="49">
-        <v>44883</v>
+        <v>44897</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>168</v>
+        <v>479</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39">
-        <v>2.9000000000000012E-2</v>
+        <v>1</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
@@ -15323,64 +15327,64 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49"/>
+      <c r="K575" s="49">
+        <v>44883</v>
+      </c>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A576" s="40"/>
       <c r="B576" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C576" s="13">
-        <v>1.25</v>
-      </c>
+        <v>168</v>
+      </c>
+      <c r="C576" s="13"/>
       <c r="D576" s="39">
-        <v>2</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G576" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="20" t="s">
-        <v>86</v>
-      </c>
+      <c r="K576" s="49"/>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40"/>
+      <c r="A577" s="40">
+        <v>44896</v>
+      </c>
       <c r="B577" s="20" t="s">
-        <v>476</v>
-      </c>
-      <c r="C577" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C577" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D577" s="39">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G577" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
       <c r="K577" s="20" t="s">
-        <v>477</v>
+        <v>86</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39">
-        <v>4.2000000000000003E-2</v>
+        <v>3</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
@@ -15391,15 +15395,19 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20"/>
+      <c r="K578" s="20" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B579" s="20"/>
+      <c r="A579" s="40"/>
+      <c r="B579" s="20" t="s">
+        <v>478</v>
+      </c>
       <c r="C579" s="13"/>
-      <c r="D579" s="39"/>
+      <c r="D579" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
       <c r="G579" s="13" t="str">
@@ -15412,19 +15420,17 @@
       <c r="K579" s="20"/>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="40">
-        <v>44927</v>
+      <c r="A580" s="48" t="s">
+        <v>87</v>
       </c>
       <c r="B580" s="20"/>
-      <c r="C580" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="C580" s="13"/>
       <c r="D580" s="39"/>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
-      <c r="G580" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G580" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
@@ -15433,11 +15439,9 @@
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B581" s="20" t="s">
-        <v>60</v>
-      </c>
+        <v>44927</v>
+      </c>
+      <c r="B581" s="20"/>
       <c r="C581" s="13">
         <v>1.25</v>
       </c>
@@ -15448,20 +15452,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H581" s="39">
-        <v>1</v>
-      </c>
+      <c r="H581" s="39"/>
       <c r="I581" s="9"/>
       <c r="J581" s="11"/>
-      <c r="K581" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B582" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B582" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C582" s="13">
         <v>1.25</v>
       </c>
@@ -15472,14 +15474,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H582" s="39"/>
+      <c r="H582" s="39">
+        <v>1</v>
+      </c>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="20"/>
+      <c r="K582" s="49">
+        <v>44967</v>
+      </c>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>45017</v>
+        <v>44986</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13">
@@ -15499,7 +15505,7 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45047</v>
+        <v>45017</v>
       </c>
       <c r="B584" s="20"/>
       <c r="C584" s="13">
@@ -15519,7 +15525,7 @@
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45078</v>
+        <v>45047</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13">
@@ -15539,31 +15545,31 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B586" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C586" s="13"/>
+        <v>45078</v>
+      </c>
+      <c r="B586" s="20"/>
+      <c r="C586" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D586" s="39"/>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G586" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="49">
-        <v>45114</v>
-      </c>
+      <c r="K586" s="20"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45139</v>
-      </c>
-      <c r="B587" s="20"/>
+        <v>45108</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>103</v>
+      </c>
       <c r="C587" s="13"/>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
@@ -15575,11 +15581,13 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="49">
+        <v>45114</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B588" s="20"/>
       <c r="C588" s="13"/>
@@ -15597,7 +15605,7 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45200</v>
+        <v>45170</v>
       </c>
       <c r="B589" s="20"/>
       <c r="C589" s="13"/>
@@ -15615,7 +15623,7 @@
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45231</v>
+        <v>45200</v>
       </c>
       <c r="B590" s="20"/>
       <c r="C590" s="13"/>
@@ -15633,7 +15641,7 @@
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B591" s="20"/>
       <c r="C591" s="13"/>
@@ -15651,7 +15659,7 @@
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45292</v>
+        <v>45261</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15669,7 +15677,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45323</v>
+        <v>45292</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15687,7 +15695,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45352</v>
+        <v>45323</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15705,7 +15713,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45383</v>
+        <v>45352</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15723,7 +15731,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45413</v>
+        <v>45383</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15741,7 +15749,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45444</v>
+        <v>45413</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15759,7 +15767,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45474</v>
+        <v>45444</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15777,7 +15785,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45505</v>
+        <v>45474</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15795,7 +15803,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45536</v>
+        <v>45505</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15813,7 +15821,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45566</v>
+        <v>45536</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15831,7 +15839,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45597</v>
+        <v>45566</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15849,7 +15857,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45627</v>
+        <v>45597</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15867,7 +15875,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45658</v>
+        <v>45627</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15885,7 +15893,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45689</v>
+        <v>45658</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15903,7 +15911,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45717</v>
+        <v>45689</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15921,7 +15929,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45748</v>
+        <v>45717</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15939,7 +15947,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45778</v>
+        <v>45748</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15957,7 +15965,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45809</v>
+        <v>45778</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15975,7 +15983,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45839</v>
+        <v>45809</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -15993,7 +16001,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45870</v>
+        <v>45839</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16011,7 +16019,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45901</v>
+        <v>45870</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16029,7 +16037,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45931</v>
+        <v>45901</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16047,7 +16055,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45962</v>
+        <v>45931</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16065,7 +16073,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45992</v>
+        <v>45962</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16082,7 +16090,9 @@
       <c r="K615" s="20"/>
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A616" s="40"/>
+      <c r="A616" s="40">
+        <v>45992</v>
+      </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
       <c r="D616" s="39"/>
@@ -16130,20 +16140,36 @@
       <c r="K618" s="20"/>
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A619" s="41"/>
-      <c r="B619" s="15"/>
-      <c r="C619" s="42"/>
-      <c r="D619" s="43"/>
+      <c r="A619" s="40"/>
+      <c r="B619" s="20"/>
+      <c r="C619" s="13"/>
+      <c r="D619" s="39"/>
       <c r="E619" s="9"/>
-      <c r="F619" s="15"/>
-      <c r="G619" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H619" s="43"/>
+      <c r="F619" s="20"/>
+      <c r="G619" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H619" s="39"/>
       <c r="I619" s="9"/>
-      <c r="J619" s="12"/>
-      <c r="K619" s="15"/>
+      <c r="J619" s="11"/>
+      <c r="K619" s="20"/>
+    </row>
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A620" s="41"/>
+      <c r="B620" s="15"/>
+      <c r="C620" s="42"/>
+      <c r="D620" s="43"/>
+      <c r="E620" s="9"/>
+      <c r="F620" s="15"/>
+      <c r="G620" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="43"/>
+      <c r="I620" s="9"/>
+      <c r="J620" s="12"/>
+      <c r="K620" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16319,7 +16345,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>317.03499999999997</v>
+        <v>318.53499999999997</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/JORGE, CAROLINA.xlsx
+++ b/REGULAR/CTO/JORGE, CAROLINA.xlsx
@@ -5,7 +5,7 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DESKTOP-JHL336T\Users\ASUS\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="808" uniqueCount="482">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="813" uniqueCount="483">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1489,6 +1489,9 @@
   </si>
   <si>
     <t>UT(0-0-46)</t>
+  </si>
+  <si>
+    <t>UT(0-0-21)</t>
   </si>
 </sst>
 </file>
@@ -2198,8 +2201,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K620" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K620"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K622" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K622"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -2528,12 +2531,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K620"/>
+  <dimension ref="A2:K622"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A559" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A577" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="K562" sqref="K562"/>
+      <selection pane="bottomLeft" activeCell="K591" sqref="K591"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2700,7 +2703,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.409999999999968</v>
+        <v>88.980999999999995</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2710,7 +2713,7 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.125</v>
+        <v>234.875</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
@@ -6208,7 +6211,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>86.409999999999968</v>
+        <v>88.980999999999995</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -6218,7 +6221,7 @@
       <c r="H171" s="39"/>
       <c r="I171" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>232.125</v>
+        <v>234.875</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
@@ -14967,11 +14970,15 @@
       <c r="A560" s="40">
         <v>44621</v>
       </c>
-      <c r="B560" s="20"/>
+      <c r="B560" s="20" t="s">
+        <v>479</v>
+      </c>
       <c r="C560" s="13">
         <v>1.25</v>
       </c>
-      <c r="D560" s="39"/>
+      <c r="D560" s="39">
+        <v>1</v>
+      </c>
       <c r="E560" s="9"/>
       <c r="F560" s="20"/>
       <c r="G560" s="13">
@@ -14981,40 +14988,36 @@
       <c r="H560" s="39"/>
       <c r="I560" s="9"/>
       <c r="J560" s="11"/>
-      <c r="K560" s="20"/>
+      <c r="K560" s="49">
+        <v>44651</v>
+      </c>
     </row>
     <row r="561" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A561" s="40">
-        <v>44652</v>
-      </c>
+      <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
-        <v>82</v>
-      </c>
-      <c r="C561" s="13">
-        <v>1.25</v>
-      </c>
+        <v>243</v>
+      </c>
+      <c r="C561" s="13"/>
       <c r="D561" s="39">
-        <v>1</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="E561" s="9"/>
       <c r="F561" s="20"/>
-      <c r="G561" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G561" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H561" s="39"/>
       <c r="I561" s="9"/>
       <c r="J561" s="11"/>
-      <c r="K561" s="50" t="s">
-        <v>77</v>
-      </c>
+      <c r="K561" s="49"/>
     </row>
     <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
-        <v>45047</v>
+        <v>44652</v>
       </c>
       <c r="B562" s="20" t="s">
-        <v>479</v>
+        <v>82</v>
       </c>
       <c r="C562" s="13">
         <v>1.25</v>
@@ -15031,68 +15034,68 @@
       <c r="H562" s="39"/>
       <c r="I562" s="9"/>
       <c r="J562" s="11"/>
-      <c r="K562" s="50">
-        <v>44701</v>
+      <c r="K562" s="50" t="s">
+        <v>77</v>
       </c>
     </row>
     <row r="563" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A563" s="40">
-        <v>44713</v>
-      </c>
+      <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
-        <v>83</v>
-      </c>
-      <c r="C563" s="13">
-        <v>1.25</v>
-      </c>
+        <v>482</v>
+      </c>
+      <c r="C563" s="13"/>
       <c r="D563" s="39">
-        <v>3</v>
+        <v>4.4000000000000004E-2</v>
       </c>
       <c r="E563" s="9"/>
       <c r="F563" s="20"/>
-      <c r="G563" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G563" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H563" s="39"/>
       <c r="I563" s="9"/>
       <c r="J563" s="11"/>
-      <c r="K563" s="20" t="s">
-        <v>78</v>
-      </c>
+      <c r="K563" s="50"/>
     </row>
     <row r="564" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A564" s="40"/>
+      <c r="A564" s="40">
+        <v>45047</v>
+      </c>
       <c r="B564" s="20" t="s">
-        <v>226</v>
-      </c>
-      <c r="C564" s="13"/>
+        <v>479</v>
+      </c>
+      <c r="C564" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D564" s="39">
-        <v>8.7000000000000022E-2</v>
+        <v>1</v>
       </c>
       <c r="E564" s="9"/>
       <c r="F564" s="20"/>
-      <c r="G564" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G564" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H564" s="39"/>
       <c r="I564" s="9"/>
       <c r="J564" s="11"/>
-      <c r="K564" s="20"/>
+      <c r="K564" s="50">
+        <v>44701</v>
+      </c>
     </row>
     <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
-        <v>44743</v>
+        <v>44713</v>
       </c>
       <c r="B565" s="20" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
       <c r="C565" s="13">
         <v>1.25</v>
       </c>
       <c r="D565" s="39">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E565" s="9"/>
       <c r="F565" s="20"/>
@@ -15104,17 +15107,17 @@
       <c r="I565" s="9"/>
       <c r="J565" s="11"/>
       <c r="K565" s="20" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
-        <v>83</v>
+        <v>226</v>
       </c>
       <c r="C566" s="13"/>
       <c r="D566" s="39">
-        <v>3</v>
+        <v>8.7000000000000022E-2</v>
       </c>
       <c r="E566" s="9"/>
       <c r="F566" s="20"/>
@@ -15125,38 +15128,42 @@
       <c r="H566" s="39"/>
       <c r="I566" s="9"/>
       <c r="J566" s="11"/>
-      <c r="K566" s="20" t="s">
-        <v>80</v>
-      </c>
+      <c r="K566" s="20"/>
     </row>
     <row r="567" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A567" s="40"/>
+      <c r="A567" s="40">
+        <v>44743</v>
+      </c>
       <c r="B567" s="20" t="s">
-        <v>53</v>
-      </c>
-      <c r="C567" s="13"/>
-      <c r="D567" s="39"/>
+        <v>84</v>
+      </c>
+      <c r="C567" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D567" s="39">
+        <v>2</v>
+      </c>
       <c r="E567" s="9"/>
       <c r="F567" s="20"/>
-      <c r="G567" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G567" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H567" s="39"/>
       <c r="I567" s="9"/>
       <c r="J567" s="11"/>
-      <c r="K567" s="49">
-        <v>44778</v>
+      <c r="K567" s="20" t="s">
+        <v>79</v>
       </c>
     </row>
     <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
-        <v>481</v>
+        <v>83</v>
       </c>
       <c r="C568" s="13"/>
       <c r="D568" s="39">
-        <v>9.6000000000000002E-2</v>
+        <v>3</v>
       </c>
       <c r="E568" s="9"/>
       <c r="F568" s="20"/>
@@ -15167,81 +15174,77 @@
       <c r="H568" s="39"/>
       <c r="I568" s="9"/>
       <c r="J568" s="11"/>
-      <c r="K568" s="49"/>
+      <c r="K568" s="20" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="569" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A569" s="40">
-        <v>44774</v>
-      </c>
+      <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C569" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D569" s="39">
-        <v>6.7000000000000004E-2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C569" s="13"/>
+      <c r="D569" s="39"/>
       <c r="E569" s="9"/>
       <c r="F569" s="20"/>
-      <c r="G569" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G569" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H569" s="39"/>
       <c r="I569" s="9"/>
       <c r="J569" s="11"/>
-      <c r="K569" s="20"/>
+      <c r="K569" s="49">
+        <v>44778</v>
+      </c>
     </row>
     <row r="570" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A570" s="40">
-        <v>44805</v>
-      </c>
+      <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
-        <v>479</v>
-      </c>
-      <c r="C570" s="13">
-        <v>1.25</v>
-      </c>
+        <v>481</v>
+      </c>
+      <c r="C570" s="13"/>
       <c r="D570" s="39">
-        <v>1</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="E570" s="9"/>
       <c r="F570" s="20"/>
-      <c r="G570" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G570" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H570" s="39"/>
       <c r="I570" s="9"/>
       <c r="J570" s="11"/>
-      <c r="K570" s="49">
-        <v>44833</v>
-      </c>
+      <c r="K570" s="49"/>
     </row>
     <row r="571" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A571" s="40"/>
+      <c r="A571" s="40">
+        <v>44774</v>
+      </c>
       <c r="B571" s="20" t="s">
-        <v>480</v>
-      </c>
-      <c r="C571" s="13"/>
+        <v>160</v>
+      </c>
+      <c r="C571" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D571" s="39">
-        <v>0.40600000000000003</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E571" s="9"/>
       <c r="F571" s="20"/>
-      <c r="G571" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G571" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H571" s="39"/>
       <c r="I571" s="9"/>
       <c r="J571" s="11"/>
-      <c r="K571" s="49"/>
+      <c r="K571" s="20"/>
     </row>
     <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
-        <v>44835</v>
+        <v>44805</v>
       </c>
       <c r="B572" s="20" t="s">
         <v>479</v>
@@ -15262,17 +15265,17 @@
       <c r="I572" s="9"/>
       <c r="J572" s="11"/>
       <c r="K572" s="49">
-        <v>44841</v>
+        <v>44833</v>
       </c>
     </row>
     <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
-        <v>251</v>
+        <v>480</v>
       </c>
       <c r="C573" s="13"/>
       <c r="D573" s="39">
-        <v>0.219</v>
+        <v>0.40600000000000003</v>
       </c>
       <c r="E573" s="9"/>
       <c r="F573" s="20"/>
@@ -15287,15 +15290,17 @@
     </row>
     <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
-        <v>44866</v>
+        <v>44835</v>
       </c>
       <c r="B574" s="20" t="s">
-        <v>53</v>
+        <v>479</v>
       </c>
       <c r="C574" s="13">
         <v>1.25</v>
       </c>
-      <c r="D574" s="39"/>
+      <c r="D574" s="39">
+        <v>1</v>
+      </c>
       <c r="E574" s="9"/>
       <c r="F574" s="20"/>
       <c r="G574" s="13">
@@ -15306,17 +15311,17 @@
       <c r="I574" s="9"/>
       <c r="J574" s="11"/>
       <c r="K574" s="49">
-        <v>44897</v>
+        <v>44841</v>
       </c>
     </row>
     <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
-        <v>479</v>
+        <v>251</v>
       </c>
       <c r="C575" s="13"/>
       <c r="D575" s="39">
-        <v>1</v>
+        <v>0.219</v>
       </c>
       <c r="E575" s="9"/>
       <c r="F575" s="20"/>
@@ -15327,64 +15332,62 @@
       <c r="H575" s="39"/>
       <c r="I575" s="9"/>
       <c r="J575" s="11"/>
-      <c r="K575" s="49">
-        <v>44883</v>
-      </c>
+      <c r="K575" s="49"/>
     </row>
     <row r="576" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A576" s="40"/>
+      <c r="A576" s="40">
+        <v>44866</v>
+      </c>
       <c r="B576" s="20" t="s">
-        <v>168</v>
-      </c>
-      <c r="C576" s="13"/>
-      <c r="D576" s="39">
-        <v>2.9000000000000012E-2</v>
-      </c>
+        <v>53</v>
+      </c>
+      <c r="C576" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D576" s="39"/>
       <c r="E576" s="9"/>
       <c r="F576" s="20"/>
-      <c r="G576" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G576" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H576" s="39"/>
       <c r="I576" s="9"/>
       <c r="J576" s="11"/>
-      <c r="K576" s="49"/>
+      <c r="K576" s="49">
+        <v>44897</v>
+      </c>
     </row>
     <row r="577" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A577" s="40">
-        <v>44896</v>
-      </c>
+      <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
-        <v>85</v>
-      </c>
-      <c r="C577" s="13">
-        <v>1.25</v>
-      </c>
+        <v>479</v>
+      </c>
+      <c r="C577" s="13"/>
       <c r="D577" s="39">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E577" s="9"/>
       <c r="F577" s="20"/>
-      <c r="G577" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G577" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H577" s="39"/>
       <c r="I577" s="9"/>
       <c r="J577" s="11"/>
-      <c r="K577" s="20" t="s">
-        <v>86</v>
+      <c r="K577" s="49">
+        <v>44883</v>
       </c>
     </row>
     <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
-        <v>476</v>
+        <v>168</v>
       </c>
       <c r="C578" s="13"/>
       <c r="D578" s="39">
-        <v>3</v>
+        <v>2.9000000000000012E-2</v>
       </c>
       <c r="E578" s="9"/>
       <c r="F578" s="20"/>
@@ -15395,37 +15398,43 @@
       <c r="H578" s="39"/>
       <c r="I578" s="9"/>
       <c r="J578" s="11"/>
-      <c r="K578" s="20" t="s">
-        <v>477</v>
-      </c>
+      <c r="K578" s="49"/>
     </row>
     <row r="579" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A579" s="40"/>
+      <c r="A579" s="40">
+        <v>44896</v>
+      </c>
       <c r="B579" s="20" t="s">
-        <v>478</v>
-      </c>
-      <c r="C579" s="13"/>
+        <v>85</v>
+      </c>
+      <c r="C579" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D579" s="39">
-        <v>4.2000000000000003E-2</v>
+        <v>2</v>
       </c>
       <c r="E579" s="9"/>
       <c r="F579" s="20"/>
-      <c r="G579" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G579" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H579" s="39"/>
       <c r="I579" s="9"/>
       <c r="J579" s="11"/>
-      <c r="K579" s="20"/>
+      <c r="K579" s="20" t="s">
+        <v>86</v>
+      </c>
     </row>
     <row r="580" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A580" s="48" t="s">
-        <v>87</v>
-      </c>
-      <c r="B580" s="20"/>
+      <c r="A580" s="40"/>
+      <c r="B580" s="20" t="s">
+        <v>476</v>
+      </c>
       <c r="C580" s="13"/>
-      <c r="D580" s="39"/>
+      <c r="D580" s="39">
+        <v>3</v>
+      </c>
       <c r="E580" s="9"/>
       <c r="F580" s="20"/>
       <c r="G580" s="13" t="str">
@@ -15435,22 +15444,24 @@
       <c r="H580" s="39"/>
       <c r="I580" s="9"/>
       <c r="J580" s="11"/>
-      <c r="K580" s="20"/>
+      <c r="K580" s="20" t="s">
+        <v>477</v>
+      </c>
     </row>
     <row r="581" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A581" s="40">
-        <v>44927</v>
-      </c>
-      <c r="B581" s="20"/>
-      <c r="C581" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D581" s="39"/>
+      <c r="A581" s="40"/>
+      <c r="B581" s="20" t="s">
+        <v>478</v>
+      </c>
+      <c r="C581" s="13"/>
+      <c r="D581" s="39">
+        <v>4.2000000000000003E-2</v>
+      </c>
       <c r="E581" s="9"/>
       <c r="F581" s="20"/>
-      <c r="G581" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G581" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H581" s="39"/>
       <c r="I581" s="9"/>
@@ -15458,34 +15469,26 @@
       <c r="K581" s="20"/>
     </row>
     <row r="582" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A582" s="40">
-        <v>44958</v>
-      </c>
-      <c r="B582" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C582" s="13">
-        <v>1.25</v>
-      </c>
+      <c r="A582" s="48" t="s">
+        <v>87</v>
+      </c>
+      <c r="B582" s="20"/>
+      <c r="C582" s="13"/>
       <c r="D582" s="39"/>
       <c r="E582" s="9"/>
       <c r="F582" s="20"/>
-      <c r="G582" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H582" s="39">
-        <v>1</v>
-      </c>
+      <c r="G582" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H582" s="39"/>
       <c r="I582" s="9"/>
       <c r="J582" s="11"/>
-      <c r="K582" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K582" s="20"/>
     </row>
     <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
-        <v>44986</v>
+        <v>44927</v>
       </c>
       <c r="B583" s="20"/>
       <c r="C583" s="13">
@@ -15505,9 +15508,11 @@
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B584" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B584" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C584" s="13">
         <v>1.25</v>
       </c>
@@ -15518,14 +15523,18 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H584" s="39"/>
+      <c r="H584" s="39">
+        <v>1</v>
+      </c>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="20"/>
+      <c r="K584" s="49">
+        <v>44967</v>
+      </c>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>45047</v>
+        <v>44986</v>
       </c>
       <c r="B585" s="20"/>
       <c r="C585" s="13">
@@ -15545,7 +15554,7 @@
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
-        <v>45078</v>
+        <v>45017</v>
       </c>
       <c r="B586" s="20"/>
       <c r="C586" s="13">
@@ -15565,38 +15574,38 @@
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45108</v>
-      </c>
-      <c r="B587" s="20" t="s">
-        <v>103</v>
-      </c>
-      <c r="C587" s="13"/>
+        <v>45047</v>
+      </c>
+      <c r="B587" s="20"/>
+      <c r="C587" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D587" s="39"/>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
-      <c r="G587" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G587" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="49">
-        <v>45114</v>
-      </c>
+      <c r="K587" s="20"/>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B588" s="20"/>
-      <c r="C588" s="13"/>
+      <c r="C588" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D588" s="39"/>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G588" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
@@ -15605,61 +15614,81 @@
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45170</v>
-      </c>
-      <c r="B589" s="20"/>
-      <c r="C589" s="13"/>
+        <v>45108</v>
+      </c>
+      <c r="B589" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C589" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D589" s="39"/>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
-      <c r="G589" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G589" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="20"/>
+      <c r="K589" s="49">
+        <v>45114</v>
+      </c>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A590" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B590" s="20"/>
-      <c r="C590" s="13"/>
+        <v>45139</v>
+      </c>
+      <c r="B590" s="20" t="s">
+        <v>107</v>
+      </c>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39"/>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H590" s="39"/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
+      </c>
+      <c r="H590" s="39">
+        <v>1</v>
+      </c>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="20"/>
+      <c r="K590" s="49">
+        <v>45145</v>
+      </c>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45231</v>
-      </c>
-      <c r="B591" s="20"/>
-      <c r="C591" s="13"/>
+        <v>45170</v>
+      </c>
+      <c r="B591" s="20" t="s">
+        <v>103</v>
+      </c>
+      <c r="C591" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D591" s="39"/>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
-      <c r="G591" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G591" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
-      <c r="K591" s="20"/>
+      <c r="K591" s="49">
+        <v>45198</v>
+      </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40">
-        <v>45261</v>
+        <v>45200</v>
       </c>
       <c r="B592" s="20"/>
       <c r="C592" s="13"/>
@@ -15677,7 +15706,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45292</v>
+        <v>45231</v>
       </c>
       <c r="B593" s="20"/>
       <c r="C593" s="13"/>
@@ -15695,7 +15724,7 @@
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A594" s="40">
-        <v>45323</v>
+        <v>45261</v>
       </c>
       <c r="B594" s="20"/>
       <c r="C594" s="13"/>
@@ -15713,7 +15742,7 @@
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45352</v>
+        <v>45292</v>
       </c>
       <c r="B595" s="20"/>
       <c r="C595" s="13"/>
@@ -15731,7 +15760,7 @@
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40">
-        <v>45383</v>
+        <v>45323</v>
       </c>
       <c r="B596" s="20"/>
       <c r="C596" s="13"/>
@@ -15749,7 +15778,7 @@
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A597" s="40">
-        <v>45413</v>
+        <v>45352</v>
       </c>
       <c r="B597" s="20"/>
       <c r="C597" s="13"/>
@@ -15767,7 +15796,7 @@
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A598" s="40">
-        <v>45444</v>
+        <v>45383</v>
       </c>
       <c r="B598" s="20"/>
       <c r="C598" s="13"/>
@@ -15785,7 +15814,7 @@
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45474</v>
+        <v>45413</v>
       </c>
       <c r="B599" s="20"/>
       <c r="C599" s="13"/>
@@ -15803,7 +15832,7 @@
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40">
-        <v>45505</v>
+        <v>45444</v>
       </c>
       <c r="B600" s="20"/>
       <c r="C600" s="13"/>
@@ -15821,7 +15850,7 @@
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A601" s="40">
-        <v>45536</v>
+        <v>45474</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15839,7 +15868,7 @@
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45566</v>
+        <v>45505</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15857,7 +15886,7 @@
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45597</v>
+        <v>45536</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15875,7 +15904,7 @@
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45627</v>
+        <v>45566</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15893,7 +15922,7 @@
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45658</v>
+        <v>45597</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15911,7 +15940,7 @@
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45689</v>
+        <v>45627</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15929,7 +15958,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45717</v>
+        <v>45658</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -15947,7 +15976,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45748</v>
+        <v>45689</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -15965,7 +15994,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45778</v>
+        <v>45717</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -15983,7 +16012,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45809</v>
+        <v>45748</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16001,7 +16030,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45839</v>
+        <v>45778</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16019,7 +16048,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45870</v>
+        <v>45809</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16037,7 +16066,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45901</v>
+        <v>45839</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16055,7 +16084,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45931</v>
+        <v>45870</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16073,7 +16102,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45962</v>
+        <v>45901</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16091,7 +16120,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45992</v>
+        <v>45931</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16108,7 +16137,9 @@
       <c r="K616" s="20"/>
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A617" s="40"/>
+      <c r="A617" s="40">
+        <v>45962</v>
+      </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
       <c r="D617" s="39"/>
@@ -16124,7 +16155,9 @@
       <c r="K617" s="20"/>
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A618" s="40"/>
+      <c r="A618" s="40">
+        <v>45992</v>
+      </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
       <c r="D618" s="39"/>
@@ -16156,20 +16189,52 @@
       <c r="K619" s="20"/>
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A620" s="41"/>
-      <c r="B620" s="15"/>
-      <c r="C620" s="42"/>
-      <c r="D620" s="43"/>
+      <c r="A620" s="40"/>
+      <c r="B620" s="20"/>
+      <c r="C620" s="13"/>
+      <c r="D620" s="39"/>
       <c r="E620" s="9"/>
-      <c r="F620" s="15"/>
-      <c r="G620" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H620" s="43"/>
+      <c r="F620" s="20"/>
+      <c r="G620" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H620" s="39"/>
       <c r="I620" s="9"/>
-      <c r="J620" s="12"/>
-      <c r="K620" s="15"/>
+      <c r="J620" s="11"/>
+      <c r="K620" s="20"/>
+    </row>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40"/>
+      <c r="B621" s="20"/>
+      <c r="C621" s="13"/>
+      <c r="D621" s="39"/>
+      <c r="E621" s="9"/>
+      <c r="F621" s="20"/>
+      <c r="G621" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H621" s="39"/>
+      <c r="I621" s="9"/>
+      <c r="J621" s="11"/>
+      <c r="K621" s="20"/>
+    </row>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="41"/>
+      <c r="B622" s="15"/>
+      <c r="C622" s="42"/>
+      <c r="D622" s="43"/>
+      <c r="E622" s="9"/>
+      <c r="F622" s="15"/>
+      <c r="G622" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H622" s="43"/>
+      <c r="I622" s="9"/>
+      <c r="J622" s="12"/>
+      <c r="K622" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16287,14 +16352,14 @@
         <v>0</v>
       </c>
       <c r="E3" s="11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="F3" s="11">
-        <v>42</v>
+        <v>5</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>8.7000000000000022E-2</v>
+        <v>0.13500000000000001</v>
       </c>
       <c r="J3" s="47">
         <v>28</v>
@@ -16345,7 +16410,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>318.53499999999997</v>
+        <v>323.85599999999999</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>

--- a/REGULAR/CTO/JORGE, CAROLINA.xlsx
+++ b/REGULAR/CTO/JORGE, CAROLINA.xlsx
@@ -1,16 +1,15 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26924"/>
-  <workbookPr defaultThemeVersion="166925"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\DOLE-PC\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\DOLE\Desktop\LEAVE-CARD\REGULAR\CTO\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EC25E4-0F47-46F1-A7B0-C7ABE9AE0BB0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -24,7 +23,7 @@
     <definedName name="BALANCE_1">Table1[[#Headers],[BALANCE]]</definedName>
     <definedName name="_xlnm.Print_Titles" localSheetId="0">Sheet1!$1:$9</definedName>
   </definedNames>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="152511"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -34,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="484">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="487">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1497,11 +1496,20 @@
   <si>
     <t>12/11,13/2023</t>
   </si>
+  <si>
+    <t>2024</t>
+  </si>
+  <si>
+    <t>UT(0-0-55)</t>
+  </si>
+  <si>
+    <t>UT(0-4-11)</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="4">
     <numFmt numFmtId="164" formatCode="0.000"/>
     <numFmt numFmtId="165" formatCode="mm/dd/yy;@"/>
@@ -2188,7 +2196,7 @@
 </file>
 
 <file path=xl/externalLinks/externalLink1.xml><?xml version="1.0" encoding="utf-8"?>
-<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:xxl21="http://schemas.microsoft.com/office/spreadsheetml/2021/extlinks2021" mc:Ignorable="x14 xxl21">
+<externalLink xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" mc:Ignorable="x14">
   <externalBook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1">
     <sheetNames>
       <sheetName val="Sheet1"/>
@@ -2205,26 +2213,26 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table1" displayName="Table1" ref="A8:K624" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K624" xr:uid="{00000000-0009-0000-0100-000001000000}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K629" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K629"/>
   <tableColumns count="11">
-    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="PERIOD" dataDxfId="10"/>
-    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="PARTICVLARS" dataDxfId="9"/>
-    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="EARNED" dataDxfId="8"/>
-    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Absence Undertime W/ Pay" dataDxfId="7"/>
-    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="BALANCE" dataDxfId="6">
+    <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
+    <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
+    <tableColumn id="3" name="EARNED" dataDxfId="8"/>
+    <tableColumn id="4" name="Absence Undertime W/ Pay" dataDxfId="7"/>
+    <tableColumn id="5" name="BALANCE" dataDxfId="6">
       <calculatedColumnFormula>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Absence Undertime W/O Pay" dataDxfId="5"/>
-    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="EARNED " dataDxfId="4">
+    <tableColumn id="6" name="Absence Undertime W/O Pay" dataDxfId="5"/>
+    <tableColumn id="7" name="EARNED " dataDxfId="4">
       <calculatedColumnFormula>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
-    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="BALANCE " dataDxfId="2">
+    <tableColumn id="8" name="Absence Undertime  W/ Pay" dataDxfId="3"/>
+    <tableColumn id="9" name="BALANCE " dataDxfId="2">
       <calculatedColumnFormula>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</calculatedColumnFormula>
     </tableColumn>
-    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
-    <tableColumn id="11" xr3:uid="{00000000-0010-0000-0000-00000B000000}" name="REMARKS" dataDxfId="0"/>
+    <tableColumn id="10" name="Absence Undertime  W/O Pay" dataDxfId="1"/>
+    <tableColumn id="11" name="REMARKS" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
   <extLst>
@@ -2531,34 +2539,34 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K624"/>
+  <dimension ref="A2:K629"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3696" topLeftCell="A586" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A586" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="K597" sqref="K597"/>
+      <selection pane="bottomLeft" activeCell="F596" sqref="F596"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="10.33203125" style="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5546875" style="1" customWidth="1"/>
-    <col min="3" max="3" width="12.109375" style="30" customWidth="1"/>
-    <col min="4" max="4" width="12.6640625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="11.6640625" style="1" customWidth="1"/>
-    <col min="6" max="6" width="12.6640625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="12.109375" style="30" customWidth="1"/>
-    <col min="8" max="8" width="12.6640625" style="1" customWidth="1"/>
-    <col min="9" max="9" width="11.6640625" style="1" customWidth="1"/>
-    <col min="10" max="10" width="12.6640625" style="1" customWidth="1"/>
-    <col min="11" max="11" width="24.88671875" style="1" customWidth="1"/>
+    <col min="1" max="1" width="10.28515625" style="1" customWidth="1"/>
+    <col min="2" max="2" width="16.5703125" style="1" customWidth="1"/>
+    <col min="3" max="3" width="12.140625" style="30" customWidth="1"/>
+    <col min="4" max="4" width="12.7109375" style="1" customWidth="1"/>
+    <col min="5" max="5" width="11.7109375" style="1" customWidth="1"/>
+    <col min="6" max="6" width="12.7109375" style="1" customWidth="1"/>
+    <col min="7" max="7" width="12.140625" style="30" customWidth="1"/>
+    <col min="8" max="8" width="12.7109375" style="1" customWidth="1"/>
+    <col min="9" max="9" width="11.7109375" style="1" customWidth="1"/>
+    <col min="10" max="10" width="12.7109375" style="1" customWidth="1"/>
+    <col min="11" max="11" width="24.85546875" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:11" ht="20.399999999999999" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:11" ht="20.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="29" t="s">
         <v>8</v>
       </c>
@@ -2581,7 +2589,7 @@
       <c r="J2" s="56"/>
       <c r="K2" s="57"/>
     </row>
-    <row r="3" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" s="18" t="s">
         <v>14</v>
       </c>
@@ -2603,7 +2611,7 @@
       <c r="J3" s="58"/>
       <c r="K3" s="59"/>
     </row>
-    <row r="4" spans="1:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:11" ht="14.45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="18" t="s">
         <v>15</v>
       </c>
@@ -2625,7 +2633,7 @@
       <c r="J4" s="56"/>
       <c r="K4" s="57"/>
     </row>
-    <row r="5" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" s="16"/>
       <c r="H5" s="27" t="s">
         <v>17</v>
@@ -2633,7 +2641,7 @@
       <c r="I5" s="27"/>
       <c r="K5" s="4"/>
     </row>
-    <row r="6" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" s="17"/>
       <c r="B6" s="8"/>
       <c r="C6" s="31"/>
@@ -2646,7 +2654,7 @@
       <c r="J6" s="8"/>
       <c r="K6" s="19"/>
     </row>
-    <row r="7" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" s="14"/>
       <c r="B7" s="14"/>
       <c r="C7" s="54" t="s">
@@ -2663,7 +2671,7 @@
       <c r="J7" s="54"/>
       <c r="K7" s="14"/>
     </row>
-    <row r="8" spans="1:11" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:11" ht="45" x14ac:dyDescent="0.25">
       <c r="A8" s="7" t="s">
         <v>0</v>
       </c>
@@ -2698,7 +2706,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" s="23"/>
       <c r="B9" s="24" t="s">
         <v>22</v>
@@ -2707,7 +2715,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.480999999999995</v>
+        <v>87.915999999999997</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -2717,12 +2725,12 @@
       <c r="H9" s="11"/>
       <c r="I9" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.375</v>
+        <v>238.625</v>
       </c>
       <c r="J9" s="11"/>
       <c r="K9" s="20"/>
     </row>
-    <row r="10" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" s="48" t="s">
         <v>89</v>
       </c>
@@ -2744,7 +2752,7 @@
       <c r="J10" s="11"/>
       <c r="K10" s="20"/>
     </row>
-    <row r="11" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" s="23">
         <v>35827</v>
       </c>
@@ -2770,7 +2778,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="12" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" s="23"/>
       <c r="B12" s="20" t="s">
         <v>101</v>
@@ -2790,7 +2798,7 @@
       <c r="J12" s="11"/>
       <c r="K12" s="20"/>
     </row>
-    <row r="13" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" s="23">
         <v>35855</v>
       </c>
@@ -2814,7 +2822,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="14" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A14" s="23"/>
       <c r="B14" s="20" t="s">
         <v>105</v>
@@ -2834,7 +2842,7 @@
       <c r="J14" s="11"/>
       <c r="K14" s="20"/>
     </row>
-    <row r="15" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A15" s="23">
         <v>35886</v>
       </c>
@@ -2858,7 +2866,7 @@
       <c r="J15" s="11"/>
       <c r="K15" s="20"/>
     </row>
-    <row r="16" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" s="23">
         <v>35916</v>
       </c>
@@ -2884,7 +2892,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="17" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A17" s="23"/>
       <c r="B17" s="20" t="s">
         <v>107</v>
@@ -2903,7 +2911,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="18" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A18" s="23"/>
       <c r="B18" s="20" t="s">
         <v>111</v>
@@ -2920,7 +2928,7 @@
       <c r="J18" s="11"/>
       <c r="K18" s="20"/>
     </row>
-    <row r="19" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A19" s="23">
         <v>35947</v>
       </c>
@@ -2944,7 +2952,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="20" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A20" s="23"/>
       <c r="B20" s="20" t="s">
         <v>107</v>
@@ -2963,7 +2971,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="21" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A21" s="23"/>
       <c r="B21" s="20" t="s">
         <v>115</v>
@@ -2980,7 +2988,7 @@
       <c r="J21" s="11"/>
       <c r="K21" s="20"/>
     </row>
-    <row r="22" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A22" s="23">
         <v>35977</v>
       </c>
@@ -3006,7 +3014,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="23" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A23" s="23"/>
       <c r="B23" s="20" t="s">
         <v>107</v>
@@ -3025,7 +3033,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="24" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A24" s="23"/>
       <c r="B24" s="20" t="s">
         <v>117</v>
@@ -3042,7 +3050,7 @@
       <c r="J24" s="11"/>
       <c r="K24" s="20"/>
     </row>
-    <row r="25" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A25" s="23">
         <v>36008</v>
       </c>
@@ -3068,7 +3076,7 @@
         <v>119</v>
       </c>
     </row>
-    <row r="26" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A26" s="23"/>
       <c r="B26" s="20" t="s">
         <v>120</v>
@@ -3085,7 +3093,7 @@
       <c r="J26" s="11"/>
       <c r="K26" s="20"/>
     </row>
-    <row r="27" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A27" s="23">
         <v>36039</v>
       </c>
@@ -3109,7 +3117,7 @@
       <c r="J27" s="11"/>
       <c r="K27" s="20"/>
     </row>
-    <row r="28" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A28" s="23">
         <v>36069</v>
       </c>
@@ -3133,7 +3141,7 @@
       <c r="J28" s="11"/>
       <c r="K28" s="20"/>
     </row>
-    <row r="29" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A29" s="23">
         <v>36100</v>
       </c>
@@ -3159,7 +3167,7 @@
         <v>35896</v>
       </c>
     </row>
-    <row r="30" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A30" s="23"/>
       <c r="B30" s="20" t="s">
         <v>108</v>
@@ -3178,7 +3186,7 @@
         <v>123</v>
       </c>
     </row>
-    <row r="31" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A31" s="23"/>
       <c r="B31" s="20" t="s">
         <v>124</v>
@@ -3195,7 +3203,7 @@
       <c r="J31" s="11"/>
       <c r="K31" s="20"/>
     </row>
-    <row r="32" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A32" s="23">
         <v>36130</v>
       </c>
@@ -3221,7 +3229,7 @@
         <v>35897</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A33" s="23"/>
       <c r="B33" s="20" t="s">
         <v>127</v>
@@ -3240,7 +3248,7 @@
         <v>125</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A34" s="23"/>
       <c r="B34" s="20" t="s">
         <v>107</v>
@@ -3259,7 +3267,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A35" s="23"/>
       <c r="B35" s="20" t="s">
         <v>128</v>
@@ -3276,7 +3284,7 @@
       <c r="J35" s="11"/>
       <c r="K35" s="20"/>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A36" s="48" t="s">
         <v>91</v>
       </c>
@@ -3298,7 +3306,7 @@
       <c r="J36" s="11"/>
       <c r="K36" s="20"/>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A37" s="23">
         <v>36161</v>
       </c>
@@ -3322,7 +3330,7 @@
         <v>129</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A38" s="23"/>
       <c r="B38" s="20" t="s">
         <v>130</v>
@@ -3341,7 +3349,7 @@
         <v>132</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A39" s="23"/>
       <c r="B39" s="20" t="s">
         <v>131</v>
@@ -3358,7 +3366,7 @@
       <c r="J39" s="11"/>
       <c r="K39" s="20"/>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A40" s="23">
         <v>36192</v>
       </c>
@@ -3384,7 +3392,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A41" s="23"/>
       <c r="B41" s="20" t="s">
         <v>134</v>
@@ -3403,7 +3411,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A42" s="23"/>
       <c r="B42" s="20" t="s">
         <v>136</v>
@@ -3420,7 +3428,7 @@
       <c r="J42" s="11"/>
       <c r="K42" s="20"/>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A43" s="23">
         <v>36220</v>
       </c>
@@ -3446,7 +3454,7 @@
         <v>36163</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A44" s="23"/>
       <c r="B44" s="20" t="s">
         <v>137</v>
@@ -3463,7 +3471,7 @@
       <c r="J44" s="11"/>
       <c r="K44" s="20"/>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A45" s="23">
         <v>36251</v>
       </c>
@@ -3487,7 +3495,7 @@
       <c r="J45" s="11"/>
       <c r="K45" s="20"/>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A46" s="23">
         <v>36281</v>
       </c>
@@ -3511,7 +3519,7 @@
       <c r="J46" s="11"/>
       <c r="K46" s="20"/>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A47" s="23"/>
       <c r="B47" s="20" t="s">
         <v>107</v>
@@ -3528,7 +3536,7 @@
       <c r="J47" s="11"/>
       <c r="K47" s="20"/>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A48" s="23"/>
       <c r="B48" s="20" t="s">
         <v>139</v>
@@ -3545,7 +3553,7 @@
       <c r="J48" s="11"/>
       <c r="K48" s="20"/>
     </row>
-    <row r="49" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" s="23">
         <v>36312</v>
       </c>
@@ -3569,7 +3577,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="50" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" s="23"/>
       <c r="B50" s="20" t="s">
         <v>107</v>
@@ -3588,7 +3596,7 @@
         <v>36378</v>
       </c>
     </row>
-    <row r="51" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" s="23"/>
       <c r="B51" s="20" t="s">
         <v>107</v>
@@ -3607,7 +3615,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="52" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" s="23"/>
       <c r="B52" s="20" t="s">
         <v>141</v>
@@ -3624,7 +3632,7 @@
       <c r="J52" s="11"/>
       <c r="K52" s="20"/>
     </row>
-    <row r="53" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" s="23">
         <v>36342</v>
       </c>
@@ -3650,7 +3658,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="54" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A54" s="23"/>
       <c r="B54" s="20" t="s">
         <v>108</v>
@@ -3669,7 +3677,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="55" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" s="23"/>
       <c r="B55" s="20" t="s">
         <v>143</v>
@@ -3686,7 +3694,7 @@
       <c r="J55" s="11"/>
       <c r="K55" s="20"/>
     </row>
-    <row r="56" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A56" s="23">
         <v>36373</v>
       </c>
@@ -3712,7 +3720,7 @@
         <v>36411</v>
       </c>
     </row>
-    <row r="57" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" s="23"/>
       <c r="B57" s="20" t="s">
         <v>146</v>
@@ -3729,7 +3737,7 @@
       <c r="J57" s="11"/>
       <c r="K57" s="49"/>
     </row>
-    <row r="58" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" s="23">
         <v>36404</v>
       </c>
@@ -3755,7 +3763,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="59" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A59" s="23"/>
       <c r="B59" s="20" t="s">
         <v>148</v>
@@ -3772,7 +3780,7 @@
       <c r="J59" s="11"/>
       <c r="K59" s="20"/>
     </row>
-    <row r="60" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" s="23">
         <v>36434</v>
       </c>
@@ -3798,7 +3806,7 @@
         <v>36351</v>
       </c>
     </row>
-    <row r="61" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A61" s="23">
         <v>36465</v>
       </c>
@@ -3824,7 +3832,7 @@
         <v>36383</v>
       </c>
     </row>
-    <row r="62" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A62" s="23"/>
       <c r="B62" s="20" t="s">
         <v>150</v>
@@ -3841,7 +3849,7 @@
       <c r="J62" s="11"/>
       <c r="K62" s="20"/>
     </row>
-    <row r="63" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A63" s="23">
         <v>36495</v>
       </c>
@@ -3867,7 +3875,7 @@
         <v>36445</v>
       </c>
     </row>
-    <row r="64" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A64" s="23"/>
       <c r="B64" s="20" t="s">
         <v>134</v>
@@ -3886,7 +3894,7 @@
         <v>151</v>
       </c>
     </row>
-    <row r="65" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A65" s="23"/>
       <c r="B65" s="20" t="s">
         <v>152</v>
@@ -3903,7 +3911,7 @@
       <c r="J65" s="11"/>
       <c r="K65" s="20"/>
     </row>
-    <row r="66" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A66" s="48" t="s">
         <v>92</v>
       </c>
@@ -3925,7 +3933,7 @@
       <c r="J66" s="11"/>
       <c r="K66" s="20"/>
     </row>
-    <row r="67" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A67" s="23">
         <v>36526</v>
       </c>
@@ -3949,7 +3957,7 @@
       <c r="J67" s="11"/>
       <c r="K67" s="20"/>
     </row>
-    <row r="68" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A68" s="23">
         <v>36557</v>
       </c>
@@ -3975,7 +3983,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="69" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A69" s="23"/>
       <c r="B69" s="20" t="s">
         <v>154</v>
@@ -3992,7 +4000,7 @@
       <c r="J69" s="11"/>
       <c r="K69" s="20"/>
     </row>
-    <row r="70" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A70" s="23">
         <v>36586</v>
       </c>
@@ -4016,7 +4024,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="71" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A71" s="23"/>
       <c r="B71" s="20" t="s">
         <v>172</v>
@@ -4033,7 +4041,7 @@
       <c r="J71" s="11"/>
       <c r="K71" s="20"/>
     </row>
-    <row r="72" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A72" s="23">
         <v>36617</v>
       </c>
@@ -4059,7 +4067,7 @@
         <v>36803</v>
       </c>
     </row>
-    <row r="73" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A73" s="23"/>
       <c r="B73" s="20" t="s">
         <v>107</v>
@@ -4078,7 +4086,7 @@
         <v>170</v>
       </c>
     </row>
-    <row r="74" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A74" s="23"/>
       <c r="B74" s="20" t="s">
         <v>168</v>
@@ -4095,7 +4103,7 @@
       <c r="J74" s="11"/>
       <c r="K74" s="20"/>
     </row>
-    <row r="75" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A75" s="23">
         <v>36647</v>
       </c>
@@ -4121,7 +4129,7 @@
         <v>169</v>
       </c>
     </row>
-    <row r="76" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A76" s="23"/>
       <c r="B76" s="20" t="s">
         <v>156</v>
@@ -4138,7 +4146,7 @@
       <c r="J76" s="11"/>
       <c r="K76" s="20"/>
     </row>
-    <row r="77" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A77" s="23">
         <v>36678</v>
       </c>
@@ -4162,7 +4170,7 @@
         <v>157</v>
       </c>
     </row>
-    <row r="78" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A78" s="23"/>
       <c r="B78" s="20" t="s">
         <v>107</v>
@@ -4181,7 +4189,7 @@
         <v>158</v>
       </c>
     </row>
-    <row r="79" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A79" s="23"/>
       <c r="B79" s="20" t="s">
         <v>159</v>
@@ -4198,7 +4206,7 @@
       <c r="J79" s="11"/>
       <c r="K79" s="20"/>
     </row>
-    <row r="80" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A80" s="23">
         <v>36708</v>
       </c>
@@ -4222,7 +4230,7 @@
       <c r="J80" s="11"/>
       <c r="K80" s="20"/>
     </row>
-    <row r="81" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A81" s="23">
         <v>36739</v>
       </c>
@@ -4246,7 +4254,7 @@
       <c r="J81" s="11"/>
       <c r="K81" s="20"/>
     </row>
-    <row r="82" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A82" s="23"/>
       <c r="B82" s="20" t="s">
         <v>161</v>
@@ -4268,7 +4276,7 @@
         <v>36777</v>
       </c>
     </row>
-    <row r="83" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A83" s="23">
         <v>36770</v>
       </c>
@@ -4294,7 +4302,7 @@
         <v>36565</v>
       </c>
     </row>
-    <row r="84" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A84" s="23"/>
       <c r="B84" s="20" t="s">
         <v>111</v>
@@ -4314,7 +4322,7 @@
       <c r="J84" s="11"/>
       <c r="K84" s="20"/>
     </row>
-    <row r="85" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A85" s="23">
         <v>36800</v>
       </c>
@@ -4340,7 +4348,7 @@
         <v>36595</v>
       </c>
     </row>
-    <row r="86" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A86" s="23"/>
       <c r="B86" s="20" t="s">
         <v>163</v>
@@ -4357,7 +4365,7 @@
       <c r="J86" s="11"/>
       <c r="K86" s="49"/>
     </row>
-    <row r="87" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A87" s="23">
         <v>36831</v>
       </c>
@@ -4383,7 +4391,7 @@
         <v>166</v>
       </c>
     </row>
-    <row r="88" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A88" s="23"/>
       <c r="B88" s="20" t="s">
         <v>108</v>
@@ -4405,7 +4413,7 @@
         <v>36537</v>
       </c>
     </row>
-    <row r="89" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A89" s="23"/>
       <c r="B89" s="20" t="s">
         <v>167</v>
@@ -4425,7 +4433,7 @@
       <c r="J89" s="11"/>
       <c r="K89" s="20"/>
     </row>
-    <row r="90" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A90" s="23">
         <v>36861</v>
       </c>
@@ -4451,7 +4459,7 @@
         <v>36842</v>
       </c>
     </row>
-    <row r="91" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A91" s="23"/>
       <c r="B91" s="20" t="s">
         <v>103</v>
@@ -4468,7 +4476,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="92" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A92" s="23"/>
       <c r="B92" s="20" t="s">
         <v>164</v>
@@ -4485,7 +4493,7 @@
       <c r="J92" s="11"/>
       <c r="K92" s="20"/>
     </row>
-    <row r="93" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="93" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A93" s="48" t="s">
         <v>93</v>
       </c>
@@ -4507,7 +4515,7 @@
       <c r="J93" s="11"/>
       <c r="K93" s="20"/>
     </row>
-    <row r="94" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A94" s="23">
         <v>36892</v>
       </c>
@@ -4531,7 +4539,7 @@
       <c r="J94" s="11"/>
       <c r="K94" s="20"/>
     </row>
-    <row r="95" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A95" s="23">
         <v>36923</v>
       </c>
@@ -4557,7 +4565,7 @@
         <v>37227</v>
       </c>
     </row>
-    <row r="96" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A96" s="23"/>
       <c r="B96" s="20" t="s">
         <v>107</v>
@@ -4576,7 +4584,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="97" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A97" s="23"/>
       <c r="B97" s="20" t="s">
         <v>127</v>
@@ -4595,7 +4603,7 @@
         <v>175</v>
       </c>
     </row>
-    <row r="98" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A98" s="23">
         <v>36951</v>
       </c>
@@ -4621,7 +4629,7 @@
         <v>176</v>
       </c>
     </row>
-    <row r="99" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A99" s="23"/>
       <c r="B99" s="20" t="s">
         <v>103</v>
@@ -4638,7 +4646,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="100" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A100" s="23">
         <v>36982</v>
       </c>
@@ -4664,7 +4672,7 @@
         <v>178</v>
       </c>
     </row>
-    <row r="101" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A101" s="23">
         <v>37012</v>
       </c>
@@ -4688,7 +4696,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="102" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A102" s="23">
         <v>37043</v>
       </c>
@@ -4714,7 +4722,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="103" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A103" s="23">
         <v>37073</v>
       </c>
@@ -4740,7 +4748,7 @@
         <v>181</v>
       </c>
     </row>
-    <row r="104" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A104" s="23">
         <v>37104</v>
       </c>
@@ -4766,7 +4774,7 @@
         <v>37111</v>
       </c>
     </row>
-    <row r="105" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A105" s="23"/>
       <c r="B105" s="20" t="s">
         <v>118</v>
@@ -4785,7 +4793,7 @@
         <v>182</v>
       </c>
     </row>
-    <row r="106" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A106" s="23">
         <v>37135</v>
       </c>
@@ -4811,7 +4819,7 @@
         <v>184</v>
       </c>
     </row>
-    <row r="107" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A107" s="23">
         <v>37165</v>
       </c>
@@ -4837,7 +4845,7 @@
         <v>37113</v>
       </c>
     </row>
-    <row r="108" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A108" s="23"/>
       <c r="B108" s="20" t="s">
         <v>149</v>
@@ -4856,7 +4864,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="109" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A109" s="23"/>
       <c r="B109" s="20" t="s">
         <v>186</v>
@@ -4873,7 +4881,7 @@
       <c r="J109" s="11"/>
       <c r="K109" s="20"/>
     </row>
-    <row r="110" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A110" s="23">
         <v>37196</v>
       </c>
@@ -4899,7 +4907,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="111" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A111" s="23"/>
       <c r="B111" s="20" t="s">
         <v>107</v>
@@ -4918,7 +4926,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="112" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A112" s="23"/>
       <c r="B112" s="20" t="s">
         <v>103</v>
@@ -4935,7 +4943,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="113" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A113" s="23"/>
       <c r="B113" s="20" t="s">
         <v>187</v>
@@ -4952,7 +4960,7 @@
       <c r="J113" s="11"/>
       <c r="K113" s="20"/>
     </row>
-    <row r="114" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A114" s="23">
         <v>37226</v>
       </c>
@@ -4972,7 +4980,7 @@
       <c r="J114" s="11"/>
       <c r="K114" s="20"/>
     </row>
-    <row r="115" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A115" s="48" t="s">
         <v>94</v>
       </c>
@@ -4994,7 +5002,7 @@
       <c r="J115" s="11"/>
       <c r="K115" s="20"/>
     </row>
-    <row r="116" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A116" s="23">
         <v>37257</v>
       </c>
@@ -5020,7 +5028,7 @@
         <v>37316</v>
       </c>
     </row>
-    <row r="117" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A117" s="23"/>
       <c r="B117" s="20" t="s">
         <v>103</v>
@@ -5037,7 +5045,7 @@
         <v>200</v>
       </c>
     </row>
-    <row r="118" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A118" s="23"/>
       <c r="B118" s="20" t="s">
         <v>107</v>
@@ -5056,7 +5064,7 @@
         <v>201</v>
       </c>
     </row>
-    <row r="119" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A119" s="23"/>
       <c r="B119" s="20" t="s">
         <v>202</v>
@@ -5073,7 +5081,7 @@
       <c r="J119" s="11"/>
       <c r="K119" s="49"/>
     </row>
-    <row r="120" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="120" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A120" s="23">
         <v>37288</v>
       </c>
@@ -5099,7 +5107,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="121" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A121" s="23"/>
       <c r="B121" s="20" t="s">
         <v>204</v>
@@ -5119,7 +5127,7 @@
       <c r="J121" s="11"/>
       <c r="K121" s="20"/>
     </row>
-    <row r="122" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A122" s="23">
         <v>37316</v>
       </c>
@@ -5143,7 +5151,7 @@
       <c r="J122" s="11"/>
       <c r="K122" s="20"/>
     </row>
-    <row r="123" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A123" s="23">
         <v>37347</v>
       </c>
@@ -5167,7 +5175,7 @@
       <c r="J123" s="11"/>
       <c r="K123" s="20"/>
     </row>
-    <row r="124" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A124" s="23">
         <v>37377</v>
       </c>
@@ -5193,7 +5201,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="125" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="125" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A125" s="23"/>
       <c r="B125" s="20" t="s">
         <v>103</v>
@@ -5213,7 +5221,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="126" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A126" s="23">
         <v>37408</v>
       </c>
@@ -5237,7 +5245,7 @@
       <c r="J126" s="11"/>
       <c r="K126" s="20"/>
     </row>
-    <row r="127" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="127" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A127" s="23">
         <v>37438</v>
       </c>
@@ -5263,7 +5271,7 @@
         <v>37353</v>
       </c>
     </row>
-    <row r="128" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A128" s="23"/>
       <c r="B128" s="20" t="s">
         <v>107</v>
@@ -5285,7 +5293,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="129" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A129" s="23"/>
       <c r="B129" s="20" t="s">
         <v>211</v>
@@ -5305,7 +5313,7 @@
       <c r="J129" s="11"/>
       <c r="K129" s="20"/>
     </row>
-    <row r="130" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A130" s="23">
         <v>37469</v>
       </c>
@@ -5329,7 +5337,7 @@
       <c r="J130" s="11"/>
       <c r="K130" s="20"/>
     </row>
-    <row r="131" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A131" s="23">
         <v>37500</v>
       </c>
@@ -5355,7 +5363,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="132" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A132" s="23"/>
       <c r="B132" s="20" t="s">
         <v>213</v>
@@ -5372,7 +5380,7 @@
       <c r="J132" s="11"/>
       <c r="K132" s="20"/>
     </row>
-    <row r="133" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A133" s="23">
         <v>37530</v>
       </c>
@@ -5398,7 +5406,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="134" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A134" s="23"/>
       <c r="B134" s="20" t="s">
         <v>108</v>
@@ -5417,7 +5425,7 @@
         <v>37357</v>
       </c>
     </row>
-    <row r="135" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A135" s="23"/>
       <c r="B135" s="20" t="s">
         <v>103</v>
@@ -5434,7 +5442,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="136" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A136" s="23">
         <v>37561</v>
       </c>
@@ -5460,7 +5468,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="137" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A137" s="23"/>
       <c r="B137" s="20" t="s">
         <v>217</v>
@@ -5477,7 +5485,7 @@
       <c r="J137" s="11"/>
       <c r="K137" s="20"/>
     </row>
-    <row r="138" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="138" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A138" s="23">
         <v>37591</v>
       </c>
@@ -5503,7 +5511,7 @@
         <v>37327</v>
       </c>
     </row>
-    <row r="139" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A139" s="48" t="s">
         <v>95</v>
       </c>
@@ -5525,7 +5533,7 @@
       <c r="J139" s="11"/>
       <c r="K139" s="20"/>
     </row>
-    <row r="140" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="140" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A140" s="23">
         <v>37622</v>
       </c>
@@ -5551,7 +5559,7 @@
         <v>37681</v>
       </c>
     </row>
-    <row r="141" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A141" s="23"/>
       <c r="B141" s="20" t="s">
         <v>107</v>
@@ -5570,7 +5578,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="142" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A142" s="23"/>
       <c r="B142" s="20" t="s">
         <v>218</v>
@@ -5587,7 +5595,7 @@
       <c r="J142" s="11"/>
       <c r="K142" s="20"/>
     </row>
-    <row r="143" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A143" s="23">
         <v>37653</v>
       </c>
@@ -5611,7 +5619,7 @@
       <c r="J143" s="11"/>
       <c r="K143" s="20"/>
     </row>
-    <row r="144" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="144" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A144" s="23"/>
       <c r="B144" s="20" t="s">
         <v>220</v>
@@ -5628,7 +5636,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="145" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A145" s="23">
         <v>37681</v>
       </c>
@@ -5648,7 +5656,7 @@
       <c r="J145" s="11"/>
       <c r="K145" s="20"/>
     </row>
-    <row r="146" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="146" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A146" s="23">
         <v>37712</v>
       </c>
@@ -5672,7 +5680,7 @@
       <c r="J146" s="11"/>
       <c r="K146" s="20"/>
     </row>
-    <row r="147" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A147" s="23">
         <v>37742</v>
       </c>
@@ -5698,7 +5706,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="148" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A148" s="23"/>
       <c r="B148" s="20" t="s">
         <v>103</v>
@@ -5715,7 +5723,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="149" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A149" s="23">
         <v>37773</v>
       </c>
@@ -5741,7 +5749,7 @@
         <v>37900</v>
       </c>
     </row>
-    <row r="150" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A150" s="23">
         <v>37803</v>
       </c>
@@ -5767,7 +5775,7 @@
         <v>224</v>
       </c>
     </row>
-    <row r="151" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A151" s="23"/>
       <c r="B151" s="20" t="s">
         <v>211</v>
@@ -5784,7 +5792,7 @@
       <c r="J151" s="11"/>
       <c r="K151" s="20"/>
     </row>
-    <row r="152" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A152" s="23">
         <v>37834</v>
       </c>
@@ -5810,7 +5818,7 @@
         <v>225</v>
       </c>
     </row>
-    <row r="153" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A153" s="23"/>
       <c r="B153" s="20" t="s">
         <v>108</v>
@@ -5829,7 +5837,7 @@
         <v>37750</v>
       </c>
     </row>
-    <row r="154" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A154" s="23"/>
       <c r="B154" s="20" t="s">
         <v>226</v>
@@ -5846,7 +5854,7 @@
       <c r="J154" s="11"/>
       <c r="K154" s="20"/>
     </row>
-    <row r="155" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A155" s="23">
         <v>37865</v>
       </c>
@@ -5870,7 +5878,7 @@
       <c r="J155" s="11"/>
       <c r="K155" s="20"/>
     </row>
-    <row r="156" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A156" s="23">
         <v>37895</v>
       </c>
@@ -5896,7 +5904,7 @@
         <v>37812</v>
       </c>
     </row>
-    <row r="157" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A157" s="23"/>
       <c r="B157" s="20" t="s">
         <v>228</v>
@@ -5916,7 +5924,7 @@
       <c r="J157" s="11"/>
       <c r="K157" s="20"/>
     </row>
-    <row r="158" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A158" s="23">
         <v>37926</v>
       </c>
@@ -5942,7 +5950,7 @@
         <v>37936</v>
       </c>
     </row>
-    <row r="159" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A159" s="23"/>
       <c r="B159" s="20" t="s">
         <v>108</v>
@@ -5964,7 +5972,7 @@
         <v>230</v>
       </c>
     </row>
-    <row r="160" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A160" s="23"/>
       <c r="B160" s="20" t="s">
         <v>108</v>
@@ -5986,7 +5994,7 @@
         <v>231</v>
       </c>
     </row>
-    <row r="161" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A161" s="23"/>
       <c r="B161" s="20" t="s">
         <v>108</v>
@@ -6005,7 +6013,7 @@
         <v>37633</v>
       </c>
     </row>
-    <row r="162" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A162" s="23"/>
       <c r="B162" s="20" t="s">
         <v>229</v>
@@ -6025,7 +6033,7 @@
       <c r="J162" s="11"/>
       <c r="K162" s="20"/>
     </row>
-    <row r="163" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A163" s="23">
         <v>37956</v>
       </c>
@@ -6051,7 +6059,7 @@
         <v>37937</v>
       </c>
     </row>
-    <row r="164" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A164" s="23"/>
       <c r="B164" s="20" t="s">
         <v>103</v>
@@ -6071,7 +6079,7 @@
         <v>248</v>
       </c>
     </row>
-    <row r="165" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A165" s="23"/>
       <c r="B165" s="20" t="s">
         <v>232</v>
@@ -6088,7 +6096,7 @@
       <c r="J165" s="11"/>
       <c r="K165" s="20"/>
     </row>
-    <row r="166" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A166" s="48" t="s">
         <v>96</v>
       </c>
@@ -6110,7 +6118,7 @@
       <c r="J166" s="11"/>
       <c r="K166" s="20"/>
     </row>
-    <row r="167" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A167" s="23">
         <v>37987</v>
       </c>
@@ -6134,7 +6142,7 @@
       <c r="J167" s="11"/>
       <c r="K167" s="20"/>
     </row>
-    <row r="168" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A168" s="23">
         <v>38018</v>
       </c>
@@ -6160,7 +6168,7 @@
         <v>234</v>
       </c>
     </row>
-    <row r="169" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A169" s="23"/>
       <c r="B169" s="20" t="s">
         <v>235</v>
@@ -6180,7 +6188,7 @@
       <c r="J169" s="11"/>
       <c r="K169" s="20"/>
     </row>
-    <row r="170" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A170" s="23">
         <v>38047</v>
       </c>
@@ -6206,7 +6214,7 @@
         <v>38020</v>
       </c>
     </row>
-    <row r="171" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A171" s="23"/>
       <c r="B171" s="20" t="s">
         <v>103</v>
@@ -6215,7 +6223,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.480999999999995</v>
+        <v>87.915999999999997</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -6225,14 +6233,14 @@
       <c r="H171" s="39"/>
       <c r="I171" s="13">
         <f>SUM(Table1[[EARNED ]])-SUM(Table1[Absence Undertime  W/ Pay])+CONVERTION!$B$3</f>
-        <v>237.375</v>
+        <v>238.625</v>
       </c>
       <c r="J171" s="11"/>
       <c r="K171" s="20" t="s">
         <v>236</v>
       </c>
     </row>
-    <row r="172" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="172" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A172" s="23"/>
       <c r="B172" s="20" t="s">
         <v>237</v>
@@ -6252,7 +6260,7 @@
       <c r="J172" s="11"/>
       <c r="K172" s="20"/>
     </row>
-    <row r="173" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A173" s="23">
         <v>38078</v>
       </c>
@@ -6278,7 +6286,7 @@
         <v>38325</v>
       </c>
     </row>
-    <row r="174" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A174" s="23"/>
       <c r="B174" s="20" t="s">
         <v>238</v>
@@ -6298,7 +6306,7 @@
       <c r="J174" s="11"/>
       <c r="K174" s="20"/>
     </row>
-    <row r="175" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A175" s="23">
         <v>38108</v>
       </c>
@@ -6322,7 +6330,7 @@
       <c r="J175" s="11"/>
       <c r="K175" s="20"/>
     </row>
-    <row r="176" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="176" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A176" s="23"/>
       <c r="B176" s="20" t="s">
         <v>103</v>
@@ -6339,7 +6347,7 @@
         <v>240</v>
       </c>
     </row>
-    <row r="177" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A177" s="23">
         <v>38139</v>
       </c>
@@ -6363,7 +6371,7 @@
       <c r="J177" s="11"/>
       <c r="K177" s="20"/>
     </row>
-    <row r="178" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A178" s="23">
         <v>38169</v>
       </c>
@@ -6387,7 +6395,7 @@
       <c r="J178" s="11"/>
       <c r="K178" s="20"/>
     </row>
-    <row r="179" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A179" s="23">
         <v>38200</v>
       </c>
@@ -6413,7 +6421,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="180" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A180" s="23"/>
       <c r="B180" s="20" t="s">
         <v>127</v>
@@ -6435,7 +6443,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="181" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A181" s="23"/>
       <c r="B181" s="20" t="s">
         <v>243</v>
@@ -6457,7 +6465,7 @@
         <v>246</v>
       </c>
     </row>
-    <row r="182" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A182" s="23">
         <v>38231</v>
       </c>
@@ -6481,7 +6489,7 @@
       <c r="J182" s="11"/>
       <c r="K182" s="20"/>
     </row>
-    <row r="183" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="183" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A183" s="23">
         <v>38261</v>
       </c>
@@ -6507,7 +6515,7 @@
         <v>38148</v>
       </c>
     </row>
-    <row r="184" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="184" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A184" s="23"/>
       <c r="B184" s="20" t="s">
         <v>249</v>
@@ -6527,7 +6535,7 @@
       <c r="J184" s="11"/>
       <c r="K184" s="20"/>
     </row>
-    <row r="185" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A185" s="23">
         <v>38292</v>
       </c>
@@ -6551,7 +6559,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="186" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A186" s="23"/>
       <c r="B186" s="20" t="s">
         <v>251</v>
@@ -6568,7 +6576,7 @@
       <c r="J186" s="11"/>
       <c r="K186" s="20"/>
     </row>
-    <row r="187" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A187" s="23">
         <v>38322</v>
       </c>
@@ -6594,7 +6602,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="188" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A188" s="23"/>
       <c r="B188" s="20" t="s">
         <v>252</v>
@@ -6614,7 +6622,7 @@
       <c r="J188" s="11"/>
       <c r="K188" s="20"/>
     </row>
-    <row r="189" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A189" s="48" t="s">
         <v>97</v>
       </c>
@@ -6636,7 +6644,7 @@
       <c r="J189" s="11"/>
       <c r="K189" s="20"/>
     </row>
-    <row r="190" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A190" s="23">
         <v>38353</v>
       </c>
@@ -6660,7 +6668,7 @@
       <c r="J190" s="11"/>
       <c r="K190" s="20"/>
     </row>
-    <row r="191" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="191" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A191" s="23">
         <v>38384</v>
       </c>
@@ -6686,7 +6694,7 @@
         <v>38413</v>
       </c>
     </row>
-    <row r="192" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A192" s="23"/>
       <c r="B192" s="20" t="s">
         <v>107</v>
@@ -6708,7 +6716,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="193" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A193" s="23"/>
       <c r="B193" s="20" t="s">
         <v>258</v>
@@ -6728,7 +6736,7 @@
       <c r="J193" s="11"/>
       <c r="K193" s="20"/>
     </row>
-    <row r="194" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A194" s="23">
         <v>38412</v>
       </c>
@@ -6752,7 +6760,7 @@
       <c r="J194" s="11"/>
       <c r="K194" s="20"/>
     </row>
-    <row r="195" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A195" s="23">
         <v>38443</v>
       </c>
@@ -6776,7 +6784,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="196" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A196" s="23"/>
       <c r="B196" s="20" t="s">
         <v>261</v>
@@ -6796,7 +6804,7 @@
       <c r="J196" s="11"/>
       <c r="K196" s="20"/>
     </row>
-    <row r="197" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A197" s="23">
         <v>38473</v>
       </c>
@@ -6822,7 +6830,7 @@
         <v>262</v>
       </c>
     </row>
-    <row r="198" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="198" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A198" s="23"/>
       <c r="B198" s="20" t="s">
         <v>103</v>
@@ -6842,7 +6850,7 @@
         <v>263</v>
       </c>
     </row>
-    <row r="199" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A199" s="23"/>
       <c r="B199" s="20" t="s">
         <v>127</v>
@@ -6864,7 +6872,7 @@
         <v>264</v>
       </c>
     </row>
-    <row r="200" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="200" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A200" s="23"/>
       <c r="B200" s="20" t="s">
         <v>156</v>
@@ -6884,7 +6892,7 @@
       <c r="J200" s="11"/>
       <c r="K200" s="20"/>
     </row>
-    <row r="201" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="201" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A201" s="23">
         <v>38504</v>
       </c>
@@ -6908,7 +6916,7 @@
       <c r="J201" s="11"/>
       <c r="K201" s="20"/>
     </row>
-    <row r="202" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="202" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A202" s="23">
         <v>38534</v>
       </c>
@@ -6932,7 +6940,7 @@
       <c r="J202" s="11"/>
       <c r="K202" s="20"/>
     </row>
-    <row r="203" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="203" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A203" s="23">
         <v>38565</v>
       </c>
@@ -6958,7 +6966,7 @@
         <v>266</v>
       </c>
     </row>
-    <row r="204" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="204" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A204" s="23"/>
       <c r="B204" s="20" t="s">
         <v>265</v>
@@ -6978,7 +6986,7 @@
       <c r="J204" s="11"/>
       <c r="K204" s="20"/>
     </row>
-    <row r="205" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="205" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A205" s="23">
         <v>38596</v>
       </c>
@@ -7002,7 +7010,7 @@
       <c r="J205" s="11"/>
       <c r="K205" s="20"/>
     </row>
-    <row r="206" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="206" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A206" s="23">
         <v>38626</v>
       </c>
@@ -7028,7 +7036,7 @@
         <v>268</v>
       </c>
     </row>
-    <row r="207" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="207" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A207" s="23"/>
       <c r="B207" s="20" t="s">
         <v>269</v>
@@ -7048,7 +7056,7 @@
       <c r="J207" s="11"/>
       <c r="K207" s="20"/>
     </row>
-    <row r="208" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="208" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A208" s="23">
         <v>38657</v>
       </c>
@@ -7074,7 +7082,7 @@
         <v>270</v>
       </c>
     </row>
-    <row r="209" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="209" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A209" s="23"/>
       <c r="B209" s="20" t="s">
         <v>103</v>
@@ -7091,7 +7099,7 @@
         <v>271</v>
       </c>
     </row>
-    <row r="210" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="210" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A210" s="23"/>
       <c r="B210" s="20" t="s">
         <v>167</v>
@@ -7111,7 +7119,7 @@
       <c r="J210" s="11"/>
       <c r="K210" s="20"/>
     </row>
-    <row r="211" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="211" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A211" s="23">
         <v>38687</v>
       </c>
@@ -7137,7 +7145,7 @@
         <v>272</v>
       </c>
     </row>
-    <row r="212" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="212" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A212" s="23"/>
       <c r="B212" s="20" t="s">
         <v>255</v>
@@ -7157,7 +7165,7 @@
       <c r="J212" s="11"/>
       <c r="K212" s="20"/>
     </row>
-    <row r="213" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="213" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A213" s="48" t="s">
         <v>98</v>
       </c>
@@ -7179,7 +7187,7 @@
       <c r="J213" s="11"/>
       <c r="K213" s="20"/>
     </row>
-    <row r="214" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="214" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A214" s="23">
         <v>38718</v>
       </c>
@@ -7203,7 +7211,7 @@
       <c r="J214" s="11"/>
       <c r="K214" s="20"/>
     </row>
-    <row r="215" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="215" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A215" s="23">
         <v>38749</v>
       </c>
@@ -7229,7 +7237,7 @@
         <v>274</v>
       </c>
     </row>
-    <row r="216" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="216" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A216" s="23"/>
       <c r="B216" s="20" t="s">
         <v>275</v>
@@ -7246,7 +7254,7 @@
       <c r="J216" s="11"/>
       <c r="K216" s="20"/>
     </row>
-    <row r="217" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="217" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A217" s="23">
         <v>38777</v>
       </c>
@@ -7270,7 +7278,7 @@
       <c r="J217" s="11"/>
       <c r="K217" s="20"/>
     </row>
-    <row r="218" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="218" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A218" s="23">
         <v>38808</v>
       </c>
@@ -7296,7 +7304,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="219" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="219" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A219" s="23"/>
       <c r="B219" s="20" t="s">
         <v>254</v>
@@ -7318,7 +7326,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="220" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="220" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A220" s="23"/>
       <c r="B220" s="20" t="s">
         <v>243</v>
@@ -7338,7 +7346,7 @@
       <c r="J220" s="11"/>
       <c r="K220" s="20"/>
     </row>
-    <row r="221" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="221" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A221" s="23">
         <v>38838</v>
       </c>
@@ -7362,7 +7370,7 @@
       <c r="J221" s="11"/>
       <c r="K221" s="20"/>
     </row>
-    <row r="222" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="222" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A222" s="23">
         <v>38869</v>
       </c>
@@ -7386,7 +7394,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="223" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="223" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A223" s="23"/>
       <c r="B223" s="20" t="s">
         <v>149</v>
@@ -7408,7 +7416,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="224" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="224" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A224" s="23"/>
       <c r="B224" s="20" t="s">
         <v>281</v>
@@ -7428,7 +7436,7 @@
       <c r="J224" s="11"/>
       <c r="K224" s="20"/>
     </row>
-    <row r="225" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="225" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A225" s="23">
         <v>38899</v>
       </c>
@@ -7454,7 +7462,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="226" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="226" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A226" s="23"/>
       <c r="B226" s="20" t="s">
         <v>282</v>
@@ -7474,7 +7482,7 @@
       <c r="J226" s="11"/>
       <c r="K226" s="20"/>
     </row>
-    <row r="227" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="227" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A227" s="23">
         <v>38930</v>
       </c>
@@ -7500,7 +7508,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="228" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="228" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A228" s="23"/>
       <c r="B228" s="20" t="s">
         <v>149</v>
@@ -7520,7 +7528,7 @@
       <c r="J228" s="11"/>
       <c r="K228" s="20"/>
     </row>
-    <row r="229" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="229" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A229" s="23"/>
       <c r="B229" s="20" t="s">
         <v>106</v>
@@ -7540,7 +7548,7 @@
       <c r="J229" s="11"/>
       <c r="K229" s="20"/>
     </row>
-    <row r="230" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="230" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A230" s="23">
         <v>38961</v>
       </c>
@@ -7566,7 +7574,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="231" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="231" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A231" s="23"/>
       <c r="B231" s="20" t="s">
         <v>286</v>
@@ -7586,7 +7594,7 @@
       <c r="J231" s="11"/>
       <c r="K231" s="20"/>
     </row>
-    <row r="232" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="232" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A232" s="23">
         <v>38991</v>
       </c>
@@ -7610,7 +7618,7 @@
       <c r="J232" s="11"/>
       <c r="K232" s="20"/>
     </row>
-    <row r="233" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="233" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A233" s="23">
         <v>39022</v>
       </c>
@@ -7634,7 +7642,7 @@
         <v>288</v>
       </c>
     </row>
-    <row r="234" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="234" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A234" s="23"/>
       <c r="B234" s="20" t="s">
         <v>103</v>
@@ -7654,7 +7662,7 @@
         <v>289</v>
       </c>
     </row>
-    <row r="235" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="235" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A235" s="23"/>
       <c r="B235" s="20" t="s">
         <v>254</v>
@@ -7676,7 +7684,7 @@
         <v>39033</v>
       </c>
     </row>
-    <row r="236" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="236" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A236" s="23"/>
       <c r="B236" s="20" t="s">
         <v>290</v>
@@ -7696,7 +7704,7 @@
       <c r="J236" s="11"/>
       <c r="K236" s="20"/>
     </row>
-    <row r="237" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="237" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A237" s="23">
         <v>39052</v>
       </c>
@@ -7720,7 +7728,7 @@
       <c r="J237" s="11"/>
       <c r="K237" s="20"/>
     </row>
-    <row r="238" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="238" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A238" s="48" t="s">
         <v>99</v>
       </c>
@@ -7740,7 +7748,7 @@
       <c r="J238" s="11"/>
       <c r="K238" s="20"/>
     </row>
-    <row r="239" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="239" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A239" s="40">
         <v>39083</v>
       </c>
@@ -7764,7 +7772,7 @@
       <c r="J239" s="11"/>
       <c r="K239" s="20"/>
     </row>
-    <row r="240" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="240" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A240" s="40">
         <v>39114</v>
       </c>
@@ -7790,7 +7798,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="241" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="241" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A241" s="40"/>
       <c r="B241" s="20" t="s">
         <v>107</v>
@@ -7812,7 +7820,7 @@
         <v>295</v>
       </c>
     </row>
-    <row r="242" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="242" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A242" s="40"/>
       <c r="B242" s="20" t="s">
         <v>296</v>
@@ -7832,7 +7840,7 @@
       <c r="J242" s="11"/>
       <c r="K242" s="20"/>
     </row>
-    <row r="243" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="243" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A243" s="40">
         <v>39142</v>
       </c>
@@ -7856,7 +7864,7 @@
       <c r="J243" s="11"/>
       <c r="K243" s="20"/>
     </row>
-    <row r="244" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="244" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A244" s="23">
         <v>39173</v>
       </c>
@@ -7880,7 +7888,7 @@
       <c r="J244" s="11"/>
       <c r="K244" s="20"/>
     </row>
-    <row r="245" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="245" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A245" s="23">
         <v>39203</v>
       </c>
@@ -7904,7 +7912,7 @@
       <c r="J245" s="11"/>
       <c r="K245" s="20"/>
     </row>
-    <row r="246" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="246" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A246" s="23">
         <v>39234</v>
       </c>
@@ -7928,7 +7936,7 @@
         <v>300</v>
       </c>
     </row>
-    <row r="247" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="247" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A247" s="23"/>
       <c r="B247" s="20" t="s">
         <v>68</v>
@@ -7950,7 +7958,7 @@
         <v>301</v>
       </c>
     </row>
-    <row r="248" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="248" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A248" s="23"/>
       <c r="B248" s="20" t="s">
         <v>302</v>
@@ -7970,7 +7978,7 @@
       <c r="J248" s="11"/>
       <c r="K248" s="20"/>
     </row>
-    <row r="249" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="249" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A249" s="23">
         <v>39264</v>
       </c>
@@ -7996,7 +8004,7 @@
         <v>304</v>
       </c>
     </row>
-    <row r="250" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="250" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A250" s="23"/>
       <c r="B250" s="20" t="s">
         <v>149</v>
@@ -8018,7 +8026,7 @@
         <v>303</v>
       </c>
     </row>
-    <row r="251" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="251" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A251" s="23"/>
       <c r="B251" s="20" t="s">
         <v>305</v>
@@ -8038,7 +8046,7 @@
       <c r="J251" s="11"/>
       <c r="K251" s="20"/>
     </row>
-    <row r="252" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="252" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A252" s="23">
         <v>39295</v>
       </c>
@@ -8062,7 +8070,7 @@
       <c r="J252" s="11"/>
       <c r="K252" s="20"/>
     </row>
-    <row r="253" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="253" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A253" s="23">
         <v>39326</v>
       </c>
@@ -8086,7 +8094,7 @@
       <c r="J253" s="11"/>
       <c r="K253" s="20"/>
     </row>
-    <row r="254" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="254" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A254" s="23">
         <v>39356</v>
       </c>
@@ -8110,7 +8118,7 @@
       <c r="J254" s="11"/>
       <c r="K254" s="20"/>
     </row>
-    <row r="255" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="255" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A255" s="23">
         <v>39387</v>
       </c>
@@ -8134,7 +8142,7 @@
         <v>310</v>
       </c>
     </row>
-    <row r="256" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="256" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A256" s="23"/>
       <c r="B256" s="20" t="s">
         <v>311</v>
@@ -8154,7 +8162,7 @@
       <c r="J256" s="11"/>
       <c r="K256" s="20"/>
     </row>
-    <row r="257" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="257" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A257" s="23">
         <v>39417</v>
       </c>
@@ -8178,7 +8186,7 @@
       <c r="J257" s="11"/>
       <c r="K257" s="20"/>
     </row>
-    <row r="258" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="258" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A258" s="48" t="s">
         <v>100</v>
       </c>
@@ -8198,7 +8206,7 @@
       <c r="J258" s="11"/>
       <c r="K258" s="20"/>
     </row>
-    <row r="259" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="259" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A259" s="23">
         <v>39448</v>
       </c>
@@ -8222,7 +8230,7 @@
       <c r="J259" s="11"/>
       <c r="K259" s="20"/>
     </row>
-    <row r="260" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="260" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A260" s="23">
         <f>EDATE(A259,1)</f>
         <v>39479</v>
@@ -8247,7 +8255,7 @@
       <c r="J260" s="11"/>
       <c r="K260" s="20"/>
     </row>
-    <row r="261" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="261" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A261" s="23">
         <f t="shared" ref="A261:A392" si="0">EDATE(A260,1)</f>
         <v>39508</v>
@@ -8272,7 +8280,7 @@
         <v>315</v>
       </c>
     </row>
-    <row r="262" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="262" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A262" s="23"/>
       <c r="B262" s="20" t="s">
         <v>316</v>
@@ -8292,7 +8300,7 @@
       <c r="J262" s="11"/>
       <c r="K262" s="20"/>
     </row>
-    <row r="263" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="263" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A263" s="23">
         <f>EDATE(A261,1)</f>
         <v>39539</v>
@@ -8317,7 +8325,7 @@
       <c r="J263" s="11"/>
       <c r="K263" s="20"/>
     </row>
-    <row r="264" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="264" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A264" s="23">
         <f t="shared" si="0"/>
         <v>39569</v>
@@ -8342,7 +8350,7 @@
       <c r="J264" s="11"/>
       <c r="K264" s="20"/>
     </row>
-    <row r="265" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="265" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A265" s="23"/>
       <c r="B265" s="20" t="s">
         <v>103</v>
@@ -8362,7 +8370,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="266" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="266" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A266" s="23"/>
       <c r="B266" s="20" t="s">
         <v>254</v>
@@ -8384,7 +8392,7 @@
         <v>39758</v>
       </c>
     </row>
-    <row r="267" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="267" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A267" s="23">
         <f>EDATE(A264,1)</f>
         <v>39600</v>
@@ -8409,7 +8417,7 @@
       <c r="J267" s="11"/>
       <c r="K267" s="20"/>
     </row>
-    <row r="268" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="268" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A268" s="23">
         <f t="shared" si="0"/>
         <v>39630</v>
@@ -8434,7 +8442,7 @@
       <c r="J268" s="11"/>
       <c r="K268" s="20"/>
     </row>
-    <row r="269" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="269" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A269" s="23">
         <f t="shared" si="0"/>
         <v>39661</v>
@@ -8459,7 +8467,7 @@
       <c r="J269" s="11"/>
       <c r="K269" s="20"/>
     </row>
-    <row r="270" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="270" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A270" s="23">
         <f t="shared" si="0"/>
         <v>39692</v>
@@ -8486,7 +8494,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="271" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="271" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A271" s="23"/>
       <c r="B271" s="20" t="s">
         <v>321</v>
@@ -8506,7 +8514,7 @@
       <c r="J271" s="11"/>
       <c r="K271" s="20"/>
     </row>
-    <row r="272" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="272" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A272" s="23">
         <f>EDATE(A270,1)</f>
         <v>39722</v>
@@ -8533,7 +8541,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="273" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="273" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A273" s="23"/>
       <c r="B273" s="20" t="s">
         <v>107</v>
@@ -8555,7 +8563,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="274" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="274" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A274" s="23"/>
       <c r="B274" s="20" t="s">
         <v>322</v>
@@ -8575,7 +8583,7 @@
       <c r="J274" s="11"/>
       <c r="K274" s="20"/>
     </row>
-    <row r="275" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="275" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A275" s="23">
         <f>EDATE(A272,1)</f>
         <v>39753</v>
@@ -8600,7 +8608,7 @@
       <c r="J275" s="11"/>
       <c r="K275" s="20"/>
     </row>
-    <row r="276" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="276" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A276" s="23"/>
       <c r="B276" s="20" t="s">
         <v>103</v>
@@ -8620,7 +8628,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="277" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="277" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A277" s="23"/>
       <c r="B277" s="20" t="s">
         <v>85</v>
@@ -8642,7 +8650,7 @@
         <v>329</v>
       </c>
     </row>
-    <row r="278" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="278" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A278" s="23"/>
       <c r="B278" s="20" t="s">
         <v>254</v>
@@ -8664,7 +8672,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="279" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="279" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A279" s="23"/>
       <c r="B279" s="20" t="s">
         <v>323</v>
@@ -8684,7 +8692,7 @@
       <c r="J279" s="11"/>
       <c r="K279" s="20"/>
     </row>
-    <row r="280" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="280" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A280" s="23">
         <f>EDATE(A275,1)</f>
         <v>39783</v>
@@ -8709,7 +8717,7 @@
       <c r="J280" s="11"/>
       <c r="K280" s="20"/>
     </row>
-    <row r="281" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="281" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A281" s="48" t="s">
         <v>199</v>
       </c>
@@ -8731,7 +8739,7 @@
       <c r="J281" s="11"/>
       <c r="K281" s="20"/>
     </row>
-    <row r="282" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="282" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A282" s="23">
         <f>EDATE(A280,1)</f>
         <v>39814</v>
@@ -8756,7 +8764,7 @@
       <c r="J282" s="11"/>
       <c r="K282" s="20"/>
     </row>
-    <row r="283" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="283" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A283" s="23">
         <f t="shared" si="0"/>
         <v>39845</v>
@@ -8781,7 +8789,7 @@
       <c r="J283" s="11"/>
       <c r="K283" s="20"/>
     </row>
-    <row r="284" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="284" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A284" s="23">
         <f t="shared" si="0"/>
         <v>39873</v>
@@ -8808,7 +8816,7 @@
         <v>39481</v>
       </c>
     </row>
-    <row r="285" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="285" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A285" s="23"/>
       <c r="B285" s="20" t="s">
         <v>103</v>
@@ -8828,7 +8836,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="286" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="286" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A286" s="23"/>
       <c r="B286" s="20" t="s">
         <v>333</v>
@@ -8848,7 +8856,7 @@
       <c r="J286" s="11"/>
       <c r="K286" s="20"/>
     </row>
-    <row r="287" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="287" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A287" s="23">
         <f>EDATE(A284,1)</f>
         <v>39904</v>
@@ -8873,7 +8881,7 @@
       <c r="J287" s="11"/>
       <c r="K287" s="20"/>
     </row>
-    <row r="288" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="288" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A288" s="23">
         <f t="shared" si="0"/>
         <v>39934</v>
@@ -8900,7 +8908,7 @@
         <v>336</v>
       </c>
     </row>
-    <row r="289" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="289" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A289" s="23"/>
       <c r="B289" s="20" t="s">
         <v>220</v>
@@ -8920,7 +8928,7 @@
         <v>335</v>
       </c>
     </row>
-    <row r="290" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="290" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A290" s="23"/>
       <c r="B290" s="20" t="s">
         <v>107</v>
@@ -8942,7 +8950,7 @@
         <v>338</v>
       </c>
     </row>
-    <row r="291" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="291" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A291" s="23"/>
       <c r="B291" s="20" t="s">
         <v>339</v>
@@ -8962,7 +8970,7 @@
       <c r="J291" s="11"/>
       <c r="K291" s="20"/>
     </row>
-    <row r="292" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="292" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A292" s="23">
         <f>EDATE(A288,1)</f>
         <v>39965</v>
@@ -8987,7 +8995,7 @@
       <c r="J292" s="11"/>
       <c r="K292" s="20"/>
     </row>
-    <row r="293" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="293" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A293" s="23">
         <f t="shared" si="0"/>
         <v>39995</v>
@@ -9014,7 +9022,7 @@
         <v>345</v>
       </c>
     </row>
-    <row r="294" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="294" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A294" s="23"/>
       <c r="B294" s="20" t="s">
         <v>341</v>
@@ -9034,7 +9042,7 @@
       <c r="J294" s="11"/>
       <c r="K294" s="20"/>
     </row>
-    <row r="295" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="295" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A295" s="23">
         <f>EDATE(A293,1)</f>
         <v>40026</v>
@@ -9059,7 +9067,7 @@
       <c r="J295" s="11"/>
       <c r="K295" s="20"/>
     </row>
-    <row r="296" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="296" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A296" s="23">
         <f t="shared" si="0"/>
         <v>40057</v>
@@ -9084,7 +9092,7 @@
       <c r="J296" s="11"/>
       <c r="K296" s="20"/>
     </row>
-    <row r="297" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="297" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A297" s="23">
         <f t="shared" si="0"/>
         <v>40087</v>
@@ -9111,7 +9119,7 @@
         <v>39701</v>
       </c>
     </row>
-    <row r="298" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="298" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A298" s="23"/>
       <c r="B298" s="20" t="s">
         <v>344</v>
@@ -9131,7 +9139,7 @@
       <c r="J298" s="11"/>
       <c r="K298" s="20"/>
     </row>
-    <row r="299" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="299" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A299" s="23">
         <f>EDATE(A297,1)</f>
         <v>40118</v>
@@ -9158,7 +9166,7 @@
         <v>346</v>
       </c>
     </row>
-    <row r="300" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="300" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A300" s="23"/>
       <c r="B300" s="20" t="s">
         <v>254</v>
@@ -9180,7 +9188,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="301" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="301" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A301" s="23"/>
       <c r="B301" s="20" t="s">
         <v>254</v>
@@ -9202,7 +9210,7 @@
         <v>39459</v>
       </c>
     </row>
-    <row r="302" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="302" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A302" s="23"/>
       <c r="B302" s="20" t="s">
         <v>107</v>
@@ -9221,7 +9229,7 @@
         <v>39579</v>
       </c>
     </row>
-    <row r="303" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="303" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A303" s="23"/>
       <c r="B303" s="20" t="s">
         <v>348</v>
@@ -9241,7 +9249,7 @@
       <c r="J303" s="11"/>
       <c r="K303" s="20"/>
     </row>
-    <row r="304" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="304" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A304" s="23">
         <f>EDATE(A299,1)</f>
         <v>40148</v>
@@ -9266,7 +9274,7 @@
       <c r="J304" s="11"/>
       <c r="K304" s="20"/>
     </row>
-    <row r="305" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="305" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A305" s="48" t="s">
         <v>198</v>
       </c>
@@ -9281,7 +9289,7 @@
       <c r="J305" s="11"/>
       <c r="K305" s="20"/>
     </row>
-    <row r="306" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="306" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A306" s="23">
         <f>EDATE(A304,1)</f>
         <v>40179</v>
@@ -9306,7 +9314,7 @@
       <c r="J306" s="11"/>
       <c r="K306" s="20"/>
     </row>
-    <row r="307" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="307" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A307" s="23">
         <f t="shared" si="0"/>
         <v>40210</v>
@@ -9333,7 +9341,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="308" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="308" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A308" s="23"/>
       <c r="B308" s="20" t="s">
         <v>85</v>
@@ -9352,7 +9360,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="309" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="309" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A309" s="23"/>
       <c r="B309" s="20" t="s">
         <v>149</v>
@@ -9371,7 +9379,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="310" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="310" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A310" s="23"/>
       <c r="B310" s="20" t="s">
         <v>121</v>
@@ -9388,7 +9396,7 @@
       <c r="J310" s="11"/>
       <c r="K310" s="20"/>
     </row>
-    <row r="311" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="311" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A311" s="23">
         <f>EDATE(A307,1)</f>
         <v>40238</v>
@@ -9415,7 +9423,7 @@
         <v>40454</v>
       </c>
     </row>
-    <row r="312" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="312" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A312" s="23"/>
       <c r="B312" s="20" t="s">
         <v>351</v>
@@ -9435,7 +9443,7 @@
       <c r="J312" s="11"/>
       <c r="K312" s="49"/>
     </row>
-    <row r="313" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="313" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A313" s="23">
         <f>EDATE(A311,1)</f>
         <v>40269</v>
@@ -9462,7 +9470,7 @@
         <v>40302</v>
       </c>
     </row>
-    <row r="314" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="314" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A314" s="23"/>
       <c r="B314" s="20" t="s">
         <v>107</v>
@@ -9484,7 +9492,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="315" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="315" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A315" s="23"/>
       <c r="B315" s="20" t="s">
         <v>352</v>
@@ -9504,7 +9512,7 @@
       <c r="J315" s="11"/>
       <c r="K315" s="20"/>
     </row>
-    <row r="316" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="316" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A316" s="23">
         <f>EDATE(A313,1)</f>
         <v>40299</v>
@@ -9531,7 +9539,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="317" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="317" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A317" s="23"/>
       <c r="B317" s="20" t="s">
         <v>107</v>
@@ -9553,7 +9561,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="318" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="318" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A318" s="23"/>
       <c r="B318" s="20" t="s">
         <v>205</v>
@@ -9573,7 +9581,7 @@
       <c r="J318" s="11"/>
       <c r="K318" s="20"/>
     </row>
-    <row r="319" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="319" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A319" s="23">
         <f>EDATE(A316,1)</f>
         <v>40330</v>
@@ -9600,7 +9608,7 @@
         <v>40184</v>
       </c>
     </row>
-    <row r="320" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="320" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A320" s="23"/>
       <c r="B320" s="20" t="s">
         <v>103</v>
@@ -9620,7 +9628,7 @@
         <v>365</v>
       </c>
     </row>
-    <row r="321" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="321" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A321" s="23"/>
       <c r="B321" s="20" t="s">
         <v>85</v>
@@ -9642,7 +9650,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="322" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="322" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A322" s="23"/>
       <c r="B322" s="20" t="s">
         <v>353</v>
@@ -9662,7 +9670,7 @@
       <c r="J322" s="11"/>
       <c r="K322" s="20"/>
     </row>
-    <row r="323" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="323" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A323" s="23">
         <f>EDATE(A319,1)</f>
         <v>40360</v>
@@ -9689,7 +9697,7 @@
         <v>40397</v>
       </c>
     </row>
-    <row r="324" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="324" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A324" s="23"/>
       <c r="B324" s="20" t="s">
         <v>107</v>
@@ -9711,7 +9719,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="325" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="325" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A325" s="23"/>
       <c r="B325" s="20" t="s">
         <v>163</v>
@@ -9731,7 +9739,7 @@
       <c r="J325" s="11"/>
       <c r="K325" s="20"/>
     </row>
-    <row r="326" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="326" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A326" s="23">
         <f>EDATE(A323,1)</f>
         <v>40391</v>
@@ -9758,7 +9766,7 @@
         <v>368</v>
       </c>
     </row>
-    <row r="327" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="327" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A327" s="23"/>
       <c r="B327" s="20" t="s">
         <v>354</v>
@@ -9778,7 +9786,7 @@
       <c r="J327" s="11"/>
       <c r="K327" s="20"/>
     </row>
-    <row r="328" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="328" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A328" s="23">
         <f>EDATE(A326,1)</f>
         <v>40422</v>
@@ -9805,7 +9813,7 @@
         <v>40338</v>
       </c>
     </row>
-    <row r="329" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="329" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A329" s="23"/>
       <c r="B329" s="20" t="s">
         <v>355</v>
@@ -9825,7 +9833,7 @@
       <c r="J329" s="11"/>
       <c r="K329" s="20"/>
     </row>
-    <row r="330" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="330" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A330" s="23">
         <f>EDATE(A328,1)</f>
         <v>40452</v>
@@ -9852,7 +9860,7 @@
         <v>40219</v>
       </c>
     </row>
-    <row r="331" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="331" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A331" s="23"/>
       <c r="B331" s="20" t="s">
         <v>103</v>
@@ -9872,7 +9880,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="332" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="332" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A332" s="23"/>
       <c r="B332" s="20" t="s">
         <v>85</v>
@@ -9894,7 +9902,7 @@
         <v>370</v>
       </c>
     </row>
-    <row r="333" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="333" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A333" s="23"/>
       <c r="B333" s="20" t="s">
         <v>152</v>
@@ -9914,7 +9922,7 @@
       <c r="J333" s="11"/>
       <c r="K333" s="20"/>
     </row>
-    <row r="334" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="334" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A334" s="23">
         <f>EDATE(A330,1)</f>
         <v>40483</v>
@@ -9939,7 +9947,7 @@
       <c r="J334" s="11"/>
       <c r="K334" s="20"/>
     </row>
-    <row r="335" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="335" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A335" s="23">
         <f t="shared" si="0"/>
         <v>40513</v>
@@ -9964,7 +9972,7 @@
         <v>371</v>
       </c>
     </row>
-    <row r="336" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="336" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A336" s="23"/>
       <c r="B336" s="20" t="s">
         <v>356</v>
@@ -9984,7 +9992,7 @@
       <c r="J336" s="11"/>
       <c r="K336" s="20"/>
     </row>
-    <row r="337" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="337" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A337" s="48" t="s">
         <v>197</v>
       </c>
@@ -10006,7 +10014,7 @@
       <c r="J337" s="11"/>
       <c r="K337" s="20"/>
     </row>
-    <row r="338" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="338" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A338" s="23">
         <f>EDATE(A335,1)</f>
         <v>40544</v>
@@ -10031,7 +10039,7 @@
       <c r="J338" s="11"/>
       <c r="K338" s="20"/>
     </row>
-    <row r="339" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="339" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A339" s="23">
         <f t="shared" si="0"/>
         <v>40575</v>
@@ -10058,7 +10066,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="340" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="340" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A340" s="23"/>
       <c r="B340" s="20" t="s">
         <v>357</v>
@@ -10078,7 +10086,7 @@
       <c r="J340" s="11"/>
       <c r="K340" s="20"/>
     </row>
-    <row r="341" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="341" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A341" s="23">
         <f>EDATE(A339,1)</f>
         <v>40603</v>
@@ -10105,7 +10113,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="342" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="342" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A342" s="23"/>
       <c r="B342" s="20" t="s">
         <v>163</v>
@@ -10125,7 +10133,7 @@
       <c r="J342" s="11"/>
       <c r="K342" s="20"/>
     </row>
-    <row r="343" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="343" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A343" s="23">
         <f>EDATE(A341,1)</f>
         <v>40634</v>
@@ -10152,7 +10160,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="344" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="344" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A344" s="23"/>
       <c r="B344" s="20" t="s">
         <v>297</v>
@@ -10172,7 +10180,7 @@
       <c r="J344" s="11"/>
       <c r="K344" s="20"/>
     </row>
-    <row r="345" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="345" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A345" s="23">
         <f>EDATE(A343,1)</f>
         <v>40664</v>
@@ -10199,7 +10207,7 @@
         <v>373</v>
       </c>
     </row>
-    <row r="346" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="346" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A346" s="23"/>
       <c r="B346" s="20" t="s">
         <v>220</v>
@@ -10219,7 +10227,7 @@
         <v>375</v>
       </c>
     </row>
-    <row r="347" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="347" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A347" s="23"/>
       <c r="B347" s="20" t="s">
         <v>378</v>
@@ -10239,7 +10247,7 @@
       <c r="J347" s="11"/>
       <c r="K347" s="20"/>
     </row>
-    <row r="348" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="348" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A348" s="23">
         <f>EDATE(A345,1)</f>
         <v>40695</v>
@@ -10266,7 +10274,7 @@
         <v>377</v>
       </c>
     </row>
-    <row r="349" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="349" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A349" s="23"/>
       <c r="B349" s="20" t="s">
         <v>254</v>
@@ -10288,7 +10296,7 @@
         <v>40640</v>
       </c>
     </row>
-    <row r="350" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="350" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A350" s="23"/>
       <c r="B350" s="20" t="s">
         <v>376</v>
@@ -10308,7 +10316,7 @@
       <c r="J350" s="11"/>
       <c r="K350" s="20"/>
     </row>
-    <row r="351" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="351" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A351" s="23">
         <f>EDATE(A348,1)</f>
         <v>40725</v>
@@ -10333,7 +10341,7 @@
       <c r="J351" s="11"/>
       <c r="K351" s="20"/>
     </row>
-    <row r="352" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="352" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A352" s="23">
         <f t="shared" si="0"/>
         <v>40756</v>
@@ -10358,7 +10366,7 @@
       <c r="J352" s="11"/>
       <c r="K352" s="20"/>
     </row>
-    <row r="353" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="353" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A353" s="23">
         <f t="shared" si="0"/>
         <v>40787</v>
@@ -10385,7 +10393,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="354" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="354" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A354" s="23"/>
       <c r="B354" s="20" t="s">
         <v>380</v>
@@ -10405,7 +10413,7 @@
       <c r="J354" s="11"/>
       <c r="K354" s="20"/>
     </row>
-    <row r="355" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="355" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A355" s="23">
         <f>EDATE(A353,1)</f>
         <v>40817</v>
@@ -10430,7 +10438,7 @@
       <c r="J355" s="11"/>
       <c r="K355" s="20"/>
     </row>
-    <row r="356" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="356" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A356" s="23">
         <f t="shared" si="0"/>
         <v>40848</v>
@@ -10457,7 +10465,7 @@
         <v>45210</v>
       </c>
     </row>
-    <row r="357" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="357" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A357" s="23"/>
       <c r="B357" s="20" t="s">
         <v>103</v>
@@ -10477,7 +10485,7 @@
         <v>382</v>
       </c>
     </row>
-    <row r="358" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="358" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A358" s="23"/>
       <c r="B358" s="20" t="s">
         <v>381</v>
@@ -10497,7 +10505,7 @@
       <c r="J358" s="11"/>
       <c r="K358" s="20"/>
     </row>
-    <row r="359" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="359" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A359" s="23">
         <f>EDATE(A356,1)</f>
         <v>40878</v>
@@ -10522,7 +10530,7 @@
       <c r="J359" s="11"/>
       <c r="K359" s="20"/>
     </row>
-    <row r="360" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="360" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A360" s="23"/>
       <c r="B360" s="20" t="s">
         <v>385</v>
@@ -10539,7 +10547,7 @@
       <c r="J360" s="11"/>
       <c r="K360" s="20"/>
     </row>
-    <row r="361" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="361" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A361" s="48" t="s">
         <v>196</v>
       </c>
@@ -10558,7 +10566,7 @@
       <c r="J361" s="11"/>
       <c r="K361" s="20"/>
     </row>
-    <row r="362" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="362" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A362" s="23">
         <f>EDATE(A359,1)</f>
         <v>40909</v>
@@ -10583,7 +10591,7 @@
       <c r="J362" s="11"/>
       <c r="K362" s="20"/>
     </row>
-    <row r="363" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="363" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A363" s="23">
         <f t="shared" si="0"/>
         <v>40940</v>
@@ -10608,7 +10616,7 @@
       <c r="J363" s="11"/>
       <c r="K363" s="20"/>
     </row>
-    <row r="364" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="364" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A364" s="23"/>
       <c r="B364" s="20" t="s">
         <v>387</v>
@@ -10628,7 +10636,7 @@
       <c r="J364" s="11"/>
       <c r="K364" s="20"/>
     </row>
-    <row r="365" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="365" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A365" s="23">
         <f>EDATE(A363,1)</f>
         <v>40969</v>
@@ -10655,7 +10663,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="366" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="366" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A366" s="23"/>
       <c r="B366" s="20" t="s">
         <v>388</v>
@@ -10675,7 +10683,7 @@
       <c r="J366" s="11"/>
       <c r="K366" s="20"/>
     </row>
-    <row r="367" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="367" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A367" s="23">
         <f>EDATE(A365,1)</f>
         <v>41000</v>
@@ -10702,7 +10710,7 @@
         <v>394</v>
       </c>
     </row>
-    <row r="368" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="368" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A368" s="23"/>
       <c r="B368" s="20" t="s">
         <v>389</v>
@@ -10722,7 +10730,7 @@
       <c r="J368" s="11"/>
       <c r="K368" s="20"/>
     </row>
-    <row r="369" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="369" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A369" s="23">
         <f>EDATE(A367,1)</f>
         <v>41030</v>
@@ -10749,7 +10757,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="370" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="370" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A370" s="23"/>
       <c r="B370" s="20" t="s">
         <v>220</v>
@@ -10769,7 +10777,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="371" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="371" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A371" s="23"/>
       <c r="B371" s="20" t="s">
         <v>390</v>
@@ -10789,7 +10797,7 @@
       <c r="J371" s="11"/>
       <c r="K371" s="20"/>
     </row>
-    <row r="372" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="372" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A372" s="23">
         <f>EDATE(A369,1)</f>
         <v>41061</v>
@@ -10814,7 +10822,7 @@
       <c r="J372" s="11"/>
       <c r="K372" s="20"/>
     </row>
-    <row r="373" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="373" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A373" s="23">
         <f t="shared" si="0"/>
         <v>41091</v>
@@ -10841,7 +10849,7 @@
         <v>41067</v>
       </c>
     </row>
-    <row r="374" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="374" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A374" s="23"/>
       <c r="B374" s="20" t="s">
         <v>302</v>
@@ -10861,7 +10869,7 @@
       <c r="J374" s="11"/>
       <c r="K374" s="20"/>
     </row>
-    <row r="375" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="375" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A375" s="23">
         <f>EDATE(A373,1)</f>
         <v>41122</v>
@@ -10886,7 +10894,7 @@
       <c r="J375" s="11"/>
       <c r="K375" s="20"/>
     </row>
-    <row r="376" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="376" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A376" s="23">
         <f t="shared" si="0"/>
         <v>41153</v>
@@ -10911,7 +10919,7 @@
       <c r="J376" s="11"/>
       <c r="K376" s="20"/>
     </row>
-    <row r="377" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="377" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A377" s="23">
         <f t="shared" si="0"/>
         <v>41183</v>
@@ -10938,7 +10946,7 @@
         <v>41039</v>
       </c>
     </row>
-    <row r="378" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="378" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A378" s="23"/>
       <c r="B378" s="20" t="s">
         <v>85</v>
@@ -10960,7 +10968,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="379" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="379" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A379" s="23"/>
       <c r="B379" s="20" t="s">
         <v>267</v>
@@ -10980,7 +10988,7 @@
       <c r="J379" s="11"/>
       <c r="K379" s="20"/>
     </row>
-    <row r="380" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="380" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A380" s="23">
         <f>EDATE(A377,1)</f>
         <v>41214</v>
@@ -11007,7 +11015,7 @@
         <v>399</v>
       </c>
     </row>
-    <row r="381" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="381" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A381" s="23"/>
       <c r="B381" s="20" t="s">
         <v>103</v>
@@ -11027,7 +11035,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="382" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="382" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A382" s="23"/>
       <c r="B382" s="20" t="s">
         <v>398</v>
@@ -11047,7 +11055,7 @@
       <c r="J382" s="11"/>
       <c r="K382" s="20"/>
     </row>
-    <row r="383" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="383" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A383" s="23">
         <f>EDATE(A380,1)</f>
         <v>41244</v>
@@ -11072,7 +11080,7 @@
       <c r="J383" s="11"/>
       <c r="K383" s="20"/>
     </row>
-    <row r="384" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="384" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A384" s="48" t="s">
         <v>195</v>
       </c>
@@ -11094,7 +11102,7 @@
       <c r="J384" s="11"/>
       <c r="K384" s="20"/>
     </row>
-    <row r="385" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="385" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A385" s="23">
         <f>EDATE(A383,1)</f>
         <v>41275</v>
@@ -11119,7 +11127,7 @@
       <c r="J385" s="11"/>
       <c r="K385" s="20"/>
     </row>
-    <row r="386" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="386" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A386" s="23">
         <f t="shared" si="0"/>
         <v>41306</v>
@@ -11146,7 +11154,7 @@
         <v>403</v>
       </c>
     </row>
-    <row r="387" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="387" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A387" s="23"/>
       <c r="B387" s="20" t="s">
         <v>103</v>
@@ -11163,7 +11171,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="388" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="388" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A388" s="23"/>
       <c r="B388" s="20" t="s">
         <v>402</v>
@@ -11180,7 +11188,7 @@
       <c r="J388" s="11"/>
       <c r="K388" s="20"/>
     </row>
-    <row r="389" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="389" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A389" s="23">
         <f>EDATE(A386,1)</f>
         <v>41334</v>
@@ -11205,7 +11213,7 @@
       <c r="J389" s="11"/>
       <c r="K389" s="20"/>
     </row>
-    <row r="390" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="390" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A390" s="23">
         <f t="shared" si="0"/>
         <v>41365</v>
@@ -11230,7 +11238,7 @@
       <c r="J390" s="11"/>
       <c r="K390" s="20"/>
     </row>
-    <row r="391" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="391" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A391" s="23">
         <f t="shared" si="0"/>
         <v>41395</v>
@@ -11255,7 +11263,7 @@
       <c r="J391" s="11"/>
       <c r="K391" s="20"/>
     </row>
-    <row r="392" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="392" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A392" s="23">
         <f t="shared" si="0"/>
         <v>41426</v>
@@ -11280,7 +11288,7 @@
       <c r="J392" s="11"/>
       <c r="K392" s="20"/>
     </row>
-    <row r="393" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="393" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A393" s="23">
         <f t="shared" ref="A393:A486" si="1">EDATE(A392,1)</f>
         <v>41456</v>
@@ -11305,7 +11313,7 @@
       <c r="J393" s="11"/>
       <c r="K393" s="20"/>
     </row>
-    <row r="394" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="394" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A394" s="23">
         <f t="shared" si="1"/>
         <v>41487</v>
@@ -11332,7 +11340,7 @@
         <v>41616</v>
       </c>
     </row>
-    <row r="395" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="395" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A395" s="23"/>
       <c r="B395" s="20" t="s">
         <v>247</v>
@@ -11352,7 +11360,7 @@
       <c r="J395" s="11"/>
       <c r="K395" s="20"/>
     </row>
-    <row r="396" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="396" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A396" s="23">
         <f>EDATE(A394,1)</f>
         <v>41518</v>
@@ -11377,7 +11385,7 @@
       <c r="J396" s="11"/>
       <c r="K396" s="20"/>
     </row>
-    <row r="397" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="397" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A397" s="23">
         <f t="shared" si="1"/>
         <v>41548</v>
@@ -11404,7 +11412,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="398" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="398" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A398" s="23"/>
       <c r="B398" s="20" t="s">
         <v>410</v>
@@ -11424,7 +11432,7 @@
       <c r="J398" s="11"/>
       <c r="K398" s="20"/>
     </row>
-    <row r="399" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="399" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A399" s="23">
         <f>EDATE(A397,1)</f>
         <v>41579</v>
@@ -11451,7 +11459,7 @@
         <v>412</v>
       </c>
     </row>
-    <row r="400" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="400" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A400" s="23"/>
       <c r="B400" s="20" t="s">
         <v>103</v>
@@ -11471,7 +11479,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="401" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="401" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A401" s="23"/>
       <c r="B401" s="20" t="s">
         <v>252</v>
@@ -11491,7 +11499,7 @@
       <c r="J401" s="11"/>
       <c r="K401" s="20"/>
     </row>
-    <row r="402" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="402" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A402" s="23">
         <f>EDATE(A399,1)</f>
         <v>41609</v>
@@ -11518,7 +11526,7 @@
         <v>41559</v>
       </c>
     </row>
-    <row r="403" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="403" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A403" s="23"/>
       <c r="B403" s="20" t="s">
         <v>103</v>
@@ -11538,7 +11546,7 @@
         <v>414</v>
       </c>
     </row>
-    <row r="404" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="404" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A404" s="23"/>
       <c r="B404" s="20" t="s">
         <v>252</v>
@@ -11558,7 +11566,7 @@
       <c r="J404" s="11"/>
       <c r="K404" s="20"/>
     </row>
-    <row r="405" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="405" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A405" s="48" t="s">
         <v>194</v>
       </c>
@@ -11580,7 +11588,7 @@
       <c r="J405" s="11"/>
       <c r="K405" s="20"/>
     </row>
-    <row r="406" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="406" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A406" s="23">
         <f>EDATE(A402,1)</f>
         <v>41640</v>
@@ -11605,7 +11613,7 @@
       <c r="J406" s="11"/>
       <c r="K406" s="20"/>
     </row>
-    <row r="407" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="407" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A407" s="23">
         <f t="shared" si="1"/>
         <v>41671</v>
@@ -11630,7 +11638,7 @@
       <c r="J407" s="11"/>
       <c r="K407" s="20"/>
     </row>
-    <row r="408" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="408" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A408" s="23">
         <f t="shared" si="1"/>
         <v>41699</v>
@@ -11655,7 +11663,7 @@
       <c r="J408" s="11"/>
       <c r="K408" s="20"/>
     </row>
-    <row r="409" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="409" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A409" s="23">
         <f t="shared" si="1"/>
         <v>41730</v>
@@ -11680,7 +11688,7 @@
       <c r="J409" s="11"/>
       <c r="K409" s="20"/>
     </row>
-    <row r="410" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="410" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A410" s="23">
         <f t="shared" si="1"/>
         <v>41760</v>
@@ -11707,7 +11715,7 @@
         <v>420</v>
       </c>
     </row>
-    <row r="411" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="411" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A411" s="23"/>
       <c r="B411" s="20" t="s">
         <v>107</v>
@@ -11726,7 +11734,7 @@
         <v>41888</v>
       </c>
     </row>
-    <row r="412" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="412" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A412" s="23"/>
       <c r="B412" s="20" t="s">
         <v>419</v>
@@ -11743,7 +11751,7 @@
       <c r="J412" s="11"/>
       <c r="K412" s="20"/>
     </row>
-    <row r="413" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="413" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A413" s="23">
         <f>EDATE(A410,1)</f>
         <v>41791</v>
@@ -11768,7 +11776,7 @@
       <c r="J413" s="11"/>
       <c r="K413" s="20"/>
     </row>
-    <row r="414" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="414" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A414" s="23">
         <f t="shared" si="1"/>
         <v>41821</v>
@@ -11795,7 +11803,7 @@
         <v>426</v>
       </c>
     </row>
-    <row r="415" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="415" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A415" s="23"/>
       <c r="B415" s="20" t="s">
         <v>103</v>
@@ -11815,7 +11823,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="416" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="416" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A416" s="23"/>
       <c r="B416" s="20" t="s">
         <v>154</v>
@@ -11835,7 +11843,7 @@
       <c r="J416" s="11"/>
       <c r="K416" s="20"/>
     </row>
-    <row r="417" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="417" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A417" s="23">
         <f>EDATE(A414,1)</f>
         <v>41852</v>
@@ -11860,7 +11868,7 @@
       <c r="J417" s="11"/>
       <c r="K417" s="20"/>
     </row>
-    <row r="418" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="418" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A418" s="23">
         <f t="shared" si="1"/>
         <v>41883</v>
@@ -11887,7 +11895,7 @@
         <v>428</v>
       </c>
     </row>
-    <row r="419" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="419" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A419" s="23"/>
       <c r="B419" s="20" t="s">
         <v>422</v>
@@ -11907,7 +11915,7 @@
       <c r="J419" s="11"/>
       <c r="K419" s="20"/>
     </row>
-    <row r="420" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="420" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A420" s="23">
         <f>EDATE(A418,1)</f>
         <v>41913</v>
@@ -11932,7 +11940,7 @@
       <c r="J420" s="11"/>
       <c r="K420" s="20"/>
     </row>
-    <row r="421" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="421" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A421" s="23">
         <f t="shared" si="1"/>
         <v>41944</v>
@@ -11957,7 +11965,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="422" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="422" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A422" s="23"/>
       <c r="B422" s="20" t="s">
         <v>103</v>
@@ -11977,7 +11985,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="423" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="423" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A423" s="23"/>
       <c r="B423" s="20" t="s">
         <v>254</v>
@@ -11999,7 +12007,7 @@
         <v>41651</v>
       </c>
     </row>
-    <row r="424" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="424" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A424" s="23"/>
       <c r="B424" s="20" t="s">
         <v>254</v>
@@ -12021,7 +12029,7 @@
         <v>431</v>
       </c>
     </row>
-    <row r="425" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="425" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A425" s="23"/>
       <c r="B425" s="20" t="s">
         <v>424</v>
@@ -12041,7 +12049,7 @@
       <c r="J425" s="11"/>
       <c r="K425" s="20"/>
     </row>
-    <row r="426" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="426" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A426" s="23">
         <f>EDATE(A421,1)</f>
         <v>41974</v>
@@ -12066,7 +12074,7 @@
       <c r="J426" s="11"/>
       <c r="K426" s="20"/>
     </row>
-    <row r="427" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="427" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A427" s="48" t="s">
         <v>193</v>
       </c>
@@ -12088,7 +12096,7 @@
       <c r="J427" s="11"/>
       <c r="K427" s="20"/>
     </row>
-    <row r="428" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="428" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A428" s="23">
         <f>EDATE(A426,1)</f>
         <v>42005</v>
@@ -12113,7 +12121,7 @@
       <c r="J428" s="11"/>
       <c r="K428" s="20"/>
     </row>
-    <row r="429" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="429" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A429" s="23">
         <f>EDATE(A428,1)</f>
         <v>42036</v>
@@ -12140,7 +12148,7 @@
         <v>435</v>
       </c>
     </row>
-    <row r="430" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="430" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A430" s="23"/>
       <c r="B430" s="20" t="s">
         <v>433</v>
@@ -12157,7 +12165,7 @@
       <c r="J430" s="11"/>
       <c r="K430" s="20"/>
     </row>
-    <row r="431" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="431" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A431" s="23">
         <f>EDATE(A429,1)</f>
         <v>42064</v>
@@ -12184,7 +12192,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="432" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="432" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A432" s="23"/>
       <c r="B432" s="20" t="s">
         <v>103</v>
@@ -12201,7 +12209,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="433" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="433" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A433" s="23"/>
       <c r="B433" s="20" t="s">
         <v>291</v>
@@ -12218,7 +12226,7 @@
       <c r="J433" s="11"/>
       <c r="K433" s="20"/>
     </row>
-    <row r="434" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="434" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A434" s="23">
         <f>EDATE(A431,1)</f>
         <v>42095</v>
@@ -12243,7 +12251,7 @@
       <c r="J434" s="11"/>
       <c r="K434" s="20"/>
     </row>
-    <row r="435" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="435" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A435" s="23">
         <f t="shared" si="1"/>
         <v>42125</v>
@@ -12267,7 +12275,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="436" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="436" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A436" s="23"/>
       <c r="B436" s="20" t="s">
         <v>438</v>
@@ -12284,7 +12292,7 @@
       <c r="J436" s="11"/>
       <c r="K436" s="20"/>
     </row>
-    <row r="437" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="437" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A437" s="23">
         <f>EDATE(A435,1)</f>
         <v>42156</v>
@@ -12309,7 +12317,7 @@
       <c r="J437" s="11"/>
       <c r="K437" s="20"/>
     </row>
-    <row r="438" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="438" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A438" s="23">
         <f t="shared" si="1"/>
         <v>42186</v>
@@ -12336,7 +12344,7 @@
         <v>443</v>
       </c>
     </row>
-    <row r="439" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="439" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A439" s="23"/>
       <c r="B439" s="20" t="s">
         <v>439</v>
@@ -12353,7 +12361,7 @@
       <c r="J439" s="11"/>
       <c r="K439" s="20"/>
     </row>
-    <row r="440" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="440" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A440" s="23">
         <f>EDATE(A438,1)</f>
         <v>42217</v>
@@ -12378,7 +12386,7 @@
       <c r="J440" s="11"/>
       <c r="K440" s="20"/>
     </row>
-    <row r="441" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="441" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A441" s="23">
         <f t="shared" si="1"/>
         <v>42248</v>
@@ -12405,7 +12413,7 @@
         <v>444</v>
       </c>
     </row>
-    <row r="442" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="442" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A442" s="23"/>
       <c r="B442" s="20" t="s">
         <v>441</v>
@@ -12422,7 +12430,7 @@
       <c r="J442" s="11"/>
       <c r="K442" s="20"/>
     </row>
-    <row r="443" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="443" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A443" s="23">
         <f>EDATE(A441,1)</f>
         <v>42278</v>
@@ -12449,7 +12457,7 @@
         <v>445</v>
       </c>
     </row>
-    <row r="444" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="444" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A444" s="23"/>
       <c r="B444" s="20" t="s">
         <v>127</v>
@@ -12471,7 +12479,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="445" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="445" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A445" s="23"/>
       <c r="B445" s="20" t="s">
         <v>154</v>
@@ -12491,7 +12499,7 @@
       <c r="J445" s="11"/>
       <c r="K445" s="20"/>
     </row>
-    <row r="446" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="446" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A446" s="23">
         <f>EDATE(A443,1)</f>
         <v>42309</v>
@@ -12516,7 +12524,7 @@
       <c r="J446" s="11"/>
       <c r="K446" s="20"/>
     </row>
-    <row r="447" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="447" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A447" s="23">
         <f t="shared" si="1"/>
         <v>42339</v>
@@ -12543,7 +12551,7 @@
         <v>42197</v>
       </c>
     </row>
-    <row r="448" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="448" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A448" s="23"/>
       <c r="B448" s="20" t="s">
         <v>103</v>
@@ -12563,7 +12571,7 @@
         <v>447</v>
       </c>
     </row>
-    <row r="449" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="449" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A449" s="23"/>
       <c r="B449" s="20" t="s">
         <v>254</v>
@@ -12583,7 +12591,7 @@
       <c r="J449" s="11"/>
       <c r="K449" s="20"/>
     </row>
-    <row r="450" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="450" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A450" s="23"/>
       <c r="B450" s="20" t="s">
         <v>448</v>
@@ -12600,7 +12608,7 @@
       <c r="J450" s="11"/>
       <c r="K450" s="20"/>
     </row>
-    <row r="451" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="451" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A451" s="48" t="s">
         <v>192</v>
       </c>
@@ -12622,7 +12630,7 @@
       <c r="J451" s="11"/>
       <c r="K451" s="20"/>
     </row>
-    <row r="452" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="452" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A452" s="23">
         <f>EDATE(A447,1)</f>
         <v>42370</v>
@@ -12647,7 +12655,7 @@
       <c r="J452" s="11"/>
       <c r="K452" s="20"/>
     </row>
-    <row r="453" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="453" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A453" s="23">
         <f t="shared" si="1"/>
         <v>42401</v>
@@ -12672,7 +12680,7 @@
       <c r="J453" s="11"/>
       <c r="K453" s="20"/>
     </row>
-    <row r="454" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="454" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A454" s="23">
         <f t="shared" si="1"/>
         <v>42430</v>
@@ -12697,7 +12705,7 @@
       <c r="J454" s="11"/>
       <c r="K454" s="20"/>
     </row>
-    <row r="455" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="455" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A455" s="23">
         <f t="shared" si="1"/>
         <v>42461</v>
@@ -12722,7 +12730,7 @@
       <c r="J455" s="11"/>
       <c r="K455" s="20"/>
     </row>
-    <row r="456" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="456" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A456" s="23">
         <f t="shared" si="1"/>
         <v>42491</v>
@@ -12747,7 +12755,7 @@
         <v>452</v>
       </c>
     </row>
-    <row r="457" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="457" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A457" s="23"/>
       <c r="B457" s="20" t="s">
         <v>254</v>
@@ -12769,7 +12777,7 @@
         <v>458</v>
       </c>
     </row>
-    <row r="458" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="458" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A458" s="23"/>
       <c r="B458" s="20" t="s">
         <v>453</v>
@@ -12789,7 +12797,7 @@
       <c r="J458" s="11"/>
       <c r="K458" s="20"/>
     </row>
-    <row r="459" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="459" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A459" s="23">
         <f>EDATE(A456,1)</f>
         <v>42522</v>
@@ -12814,7 +12822,7 @@
       <c r="J459" s="11"/>
       <c r="K459" s="20"/>
     </row>
-    <row r="460" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="460" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A460" s="23">
         <f t="shared" si="1"/>
         <v>42552</v>
@@ -12839,7 +12847,7 @@
       <c r="J460" s="11"/>
       <c r="K460" s="20"/>
     </row>
-    <row r="461" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="461" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A461" s="23">
         <f t="shared" si="1"/>
         <v>42583</v>
@@ -12864,7 +12872,7 @@
       <c r="J461" s="11"/>
       <c r="K461" s="20"/>
     </row>
-    <row r="462" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="462" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A462" s="23">
         <f t="shared" si="1"/>
         <v>42614</v>
@@ -12889,7 +12897,7 @@
       <c r="J462" s="11"/>
       <c r="K462" s="20"/>
     </row>
-    <row r="463" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="463" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A463" s="23">
         <f t="shared" si="1"/>
         <v>42644</v>
@@ -12914,7 +12922,7 @@
         <v>459</v>
       </c>
     </row>
-    <row r="464" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="464" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A464" s="23"/>
       <c r="B464" s="20" t="s">
         <v>108</v>
@@ -12936,7 +12944,7 @@
         <v>42685</v>
       </c>
     </row>
-    <row r="465" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="465" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A465" s="23"/>
       <c r="B465" s="20" t="s">
         <v>456</v>
@@ -12956,7 +12964,7 @@
       <c r="J465" s="11"/>
       <c r="K465" s="20"/>
     </row>
-    <row r="466" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="466" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A466" s="23">
         <f>EDATE(A463,1)</f>
         <v>42675</v>
@@ -12983,7 +12991,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="467" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="467" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A467" s="23"/>
       <c r="B467" s="20" t="s">
         <v>103</v>
@@ -13003,7 +13011,7 @@
         <v>461</v>
       </c>
     </row>
-    <row r="468" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="468" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A468" s="23"/>
       <c r="B468" s="20" t="s">
         <v>255</v>
@@ -13023,7 +13031,7 @@
       <c r="J468" s="11"/>
       <c r="K468" s="20"/>
     </row>
-    <row r="469" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="469" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A469" s="23">
         <f>EDATE(A466,1)</f>
         <v>42705</v>
@@ -13048,7 +13056,7 @@
       <c r="J469" s="11"/>
       <c r="K469" s="20"/>
     </row>
-    <row r="470" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="470" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A470" s="48" t="s">
         <v>191</v>
       </c>
@@ -13070,7 +13078,7 @@
       <c r="J470" s="11"/>
       <c r="K470" s="20"/>
     </row>
-    <row r="471" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="471" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A471" s="23">
         <f>EDATE(A469,1)</f>
         <v>42736</v>
@@ -13095,7 +13103,7 @@
       <c r="J471" s="11"/>
       <c r="K471" s="20"/>
     </row>
-    <row r="472" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="472" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A472" s="23">
         <f t="shared" si="1"/>
         <v>42767</v>
@@ -13120,7 +13128,7 @@
       <c r="J472" s="11"/>
       <c r="K472" s="20"/>
     </row>
-    <row r="473" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="473" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A473" s="23">
         <f t="shared" si="1"/>
         <v>42795</v>
@@ -13145,7 +13153,7 @@
       <c r="J473" s="11"/>
       <c r="K473" s="20"/>
     </row>
-    <row r="474" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="474" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A474" s="23">
         <f t="shared" si="1"/>
         <v>42826</v>
@@ -13170,7 +13178,7 @@
       <c r="J474" s="11"/>
       <c r="K474" s="20"/>
     </row>
-    <row r="475" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="475" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A475" s="23">
         <f t="shared" si="1"/>
         <v>42856</v>
@@ -13195,7 +13203,7 @@
       <c r="J475" s="11"/>
       <c r="K475" s="20"/>
     </row>
-    <row r="476" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="476" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A476" s="23">
         <f t="shared" si="1"/>
         <v>42887</v>
@@ -13220,7 +13228,7 @@
         <v>470</v>
       </c>
     </row>
-    <row r="477" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="477" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A477" s="23"/>
       <c r="B477" s="20" t="s">
         <v>103</v>
@@ -13240,7 +13248,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="478" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="478" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A478" s="23"/>
       <c r="B478" s="20" t="s">
         <v>465</v>
@@ -13260,7 +13268,7 @@
       <c r="J478" s="11"/>
       <c r="K478" s="20"/>
     </row>
-    <row r="479" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="479" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A479" s="23">
         <f>EDATE(A476,1)</f>
         <v>42917</v>
@@ -13285,7 +13293,7 @@
       <c r="J479" s="11"/>
       <c r="K479" s="20"/>
     </row>
-    <row r="480" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="480" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A480" s="23">
         <f t="shared" si="1"/>
         <v>42948</v>
@@ -13312,7 +13320,7 @@
         <v>42924</v>
       </c>
     </row>
-    <row r="481" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="481" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A481" s="23"/>
       <c r="B481" s="20" t="s">
         <v>149</v>
@@ -13334,7 +13342,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="482" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="482" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A482" s="23"/>
       <c r="B482" s="20" t="s">
         <v>108</v>
@@ -13356,7 +13364,7 @@
         <v>42925</v>
       </c>
     </row>
-    <row r="483" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="483" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A483" s="23"/>
       <c r="B483" s="20" t="s">
         <v>467</v>
@@ -13376,7 +13384,7 @@
       <c r="J483" s="11"/>
       <c r="K483" s="20"/>
     </row>
-    <row r="484" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="484" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A484" s="23">
         <f>EDATE(A480,1)</f>
         <v>42979</v>
@@ -13401,7 +13409,7 @@
       <c r="J484" s="11"/>
       <c r="K484" s="20"/>
     </row>
-    <row r="485" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="485" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A485" s="23">
         <f t="shared" si="1"/>
         <v>43009</v>
@@ -13426,7 +13434,7 @@
       <c r="J485" s="11"/>
       <c r="K485" s="20"/>
     </row>
-    <row r="486" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="486" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A486" s="23">
         <f t="shared" si="1"/>
         <v>43040</v>
@@ -13453,7 +13461,7 @@
         <v>42805</v>
       </c>
     </row>
-    <row r="487" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="487" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A487" s="23"/>
       <c r="B487" s="20" t="s">
         <v>103</v>
@@ -13473,7 +13481,7 @@
         <v>473</v>
       </c>
     </row>
-    <row r="488" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="488" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A488" s="23"/>
       <c r="B488" s="20" t="s">
         <v>108</v>
@@ -13495,7 +13503,7 @@
         <v>43081</v>
       </c>
     </row>
-    <row r="489" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="489" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A489" s="23"/>
       <c r="B489" s="20" t="s">
         <v>183</v>
@@ -13517,7 +13525,7 @@
         <v>474</v>
       </c>
     </row>
-    <row r="490" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="490" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A490" s="23">
         <f>EDATE(A486,1)</f>
         <v>43070</v>
@@ -13544,7 +13552,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="491" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="491" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A491" s="48" t="s">
         <v>47</v>
       </c>
@@ -13562,7 +13570,7 @@
       <c r="J491" s="11"/>
       <c r="K491" s="20"/>
     </row>
-    <row r="492" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="492" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A492" s="40">
         <v>43101</v>
       </c>
@@ -13582,7 +13590,7 @@
       <c r="J492" s="11"/>
       <c r="K492" s="20"/>
     </row>
-    <row r="493" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="493" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A493" s="40">
         <v>43132</v>
       </c>
@@ -13602,7 +13610,7 @@
       <c r="J493" s="11"/>
       <c r="K493" s="20"/>
     </row>
-    <row r="494" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="494" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A494" s="40">
         <v>43160</v>
       </c>
@@ -13622,7 +13630,7 @@
       <c r="J494" s="11"/>
       <c r="K494" s="20"/>
     </row>
-    <row r="495" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="495" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A495" s="40">
         <v>43191</v>
       </c>
@@ -13642,7 +13650,7 @@
       <c r="J495" s="11"/>
       <c r="K495" s="20"/>
     </row>
-    <row r="496" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="496" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A496" s="41">
         <v>43221</v>
       </c>
@@ -13668,7 +13676,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="497" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="497" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A497" s="40"/>
       <c r="B497" s="20" t="s">
         <v>48</v>
@@ -13692,7 +13700,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="498" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="498" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A498" s="40">
         <v>43252</v>
       </c>
@@ -13712,7 +13720,7 @@
       <c r="J498" s="11"/>
       <c r="K498" s="20"/>
     </row>
-    <row r="499" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="499" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A499" s="40">
         <v>43282</v>
       </c>
@@ -13732,7 +13740,7 @@
       <c r="J499" s="11"/>
       <c r="K499" s="20"/>
     </row>
-    <row r="500" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="500" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A500" s="40">
         <v>43313</v>
       </c>
@@ -13752,7 +13760,7 @@
       <c r="J500" s="11"/>
       <c r="K500" s="20"/>
     </row>
-    <row r="501" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="501" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A501" s="40">
         <v>43344</v>
       </c>
@@ -13772,7 +13780,7 @@
       <c r="J501" s="11"/>
       <c r="K501" s="20"/>
     </row>
-    <row r="502" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="502" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A502" s="40">
         <v>43374</v>
       </c>
@@ -13792,7 +13800,7 @@
       <c r="J502" s="11"/>
       <c r="K502" s="20"/>
     </row>
-    <row r="503" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="503" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A503" s="40">
         <v>43405</v>
       </c>
@@ -13812,7 +13820,7 @@
       <c r="J503" s="11"/>
       <c r="K503" s="20"/>
     </row>
-    <row r="504" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="504" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A504" s="40"/>
       <c r="B504" s="20" t="s">
         <v>82</v>
@@ -13834,7 +13842,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="505" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="505" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A505" s="40"/>
       <c r="B505" s="20" t="s">
         <v>52</v>
@@ -13858,7 +13866,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="506" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="506" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A506" s="40"/>
       <c r="B506" s="20" t="s">
         <v>53</v>
@@ -13878,7 +13886,7 @@
         <v>43446</v>
       </c>
     </row>
-    <row r="507" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="507" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A507" s="40"/>
       <c r="B507" s="20" t="s">
         <v>53</v>
@@ -13898,7 +13906,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="508" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="508" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A508" s="40"/>
       <c r="B508" s="20" t="s">
         <v>53</v>
@@ -13918,7 +13926,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="509" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="509" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A509" s="40">
         <v>43435</v>
       </c>
@@ -13938,7 +13946,7 @@
       <c r="J509" s="11"/>
       <c r="K509" s="20"/>
     </row>
-    <row r="510" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="510" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A510" s="23" t="s">
         <v>58</v>
       </c>
@@ -13956,7 +13964,7 @@
       <c r="J510" s="11"/>
       <c r="K510" s="20"/>
     </row>
-    <row r="511" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="511" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A511" s="40">
         <v>43466</v>
       </c>
@@ -13976,7 +13984,7 @@
       <c r="J511" s="11"/>
       <c r="K511" s="20"/>
     </row>
-    <row r="512" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="512" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A512" s="40">
         <v>43497</v>
       </c>
@@ -14000,7 +14008,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="513" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="513" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A513" s="40">
         <v>43525</v>
       </c>
@@ -14020,7 +14028,7 @@
       <c r="J513" s="11"/>
       <c r="K513" s="20"/>
     </row>
-    <row r="514" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="514" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A514" s="40">
         <v>43556</v>
       </c>
@@ -14040,7 +14048,7 @@
       <c r="J514" s="11"/>
       <c r="K514" s="20"/>
     </row>
-    <row r="515" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="515" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A515" s="40">
         <v>43586</v>
       </c>
@@ -14060,7 +14068,7 @@
       <c r="J515" s="11"/>
       <c r="K515" s="20"/>
     </row>
-    <row r="516" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="516" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A516" s="40">
         <v>43617</v>
       </c>
@@ -14080,7 +14088,7 @@
       <c r="J516" s="11"/>
       <c r="K516" s="20"/>
     </row>
-    <row r="517" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="517" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A517" s="40">
         <v>43647</v>
       </c>
@@ -14100,7 +14108,7 @@
       <c r="J517" s="11"/>
       <c r="K517" s="20"/>
     </row>
-    <row r="518" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="518" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A518" s="40">
         <v>43678</v>
       </c>
@@ -14124,7 +14132,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="519" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="519" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A519" s="40"/>
       <c r="B519" s="20" t="s">
         <v>83</v>
@@ -14146,7 +14154,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="520" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="520" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A520" s="40"/>
       <c r="B520" s="20" t="s">
         <v>60</v>
@@ -14168,7 +14176,7 @@
         <v>43811</v>
       </c>
     </row>
-    <row r="521" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="521" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A521" s="40"/>
       <c r="B521" s="20" t="s">
         <v>53</v>
@@ -14186,7 +14194,7 @@
       <c r="J521" s="11"/>
       <c r="K521" s="20"/>
     </row>
-    <row r="522" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="522" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A522" s="40">
         <v>43709</v>
       </c>
@@ -14206,7 +14214,7 @@
       <c r="J522" s="11"/>
       <c r="K522" s="20"/>
     </row>
-    <row r="523" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="523" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A523" s="40">
         <v>43739</v>
       </c>
@@ -14226,7 +14234,7 @@
       <c r="J523" s="11"/>
       <c r="K523" s="20"/>
     </row>
-    <row r="524" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="524" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A524" s="40">
         <v>43770</v>
       </c>
@@ -14246,7 +14254,7 @@
       <c r="J524" s="11"/>
       <c r="K524" s="20"/>
     </row>
-    <row r="525" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="525" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A525" s="40">
         <v>43800</v>
       </c>
@@ -14272,7 +14280,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="526" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="526" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A526" s="40"/>
       <c r="B526" s="20" t="s">
         <v>82</v>
@@ -14294,7 +14302,7 @@
         <v>43781</v>
       </c>
     </row>
-    <row r="527" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="527" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A527" s="48" t="s">
         <v>64</v>
       </c>
@@ -14312,7 +14320,7 @@
       <c r="J527" s="11"/>
       <c r="K527" s="20"/>
     </row>
-    <row r="528" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="528" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A528" s="40">
         <v>43831</v>
       </c>
@@ -14336,7 +14344,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="529" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="529" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A529" s="40"/>
       <c r="B529" s="20" t="s">
         <v>84</v>
@@ -14358,7 +14366,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="530" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="530" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A530" s="40">
         <v>43862</v>
       </c>
@@ -14378,7 +14386,7 @@
       <c r="J530" s="11"/>
       <c r="K530" s="20"/>
     </row>
-    <row r="531" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="531" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A531" s="40">
         <v>43891</v>
       </c>
@@ -14398,7 +14406,7 @@
       <c r="J531" s="11"/>
       <c r="K531" s="20"/>
     </row>
-    <row r="532" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="532" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A532" s="40">
         <v>43922</v>
       </c>
@@ -14418,7 +14426,7 @@
       <c r="J532" s="11"/>
       <c r="K532" s="20"/>
     </row>
-    <row r="533" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="533" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A533" s="40">
         <v>43952</v>
       </c>
@@ -14438,7 +14446,7 @@
       <c r="J533" s="11"/>
       <c r="K533" s="20"/>
     </row>
-    <row r="534" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="534" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A534" s="40">
         <v>43983</v>
       </c>
@@ -14458,7 +14466,7 @@
       <c r="J534" s="11"/>
       <c r="K534" s="20"/>
     </row>
-    <row r="535" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="535" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A535" s="40">
         <v>44013</v>
       </c>
@@ -14478,7 +14486,7 @@
       <c r="J535" s="11"/>
       <c r="K535" s="20"/>
     </row>
-    <row r="536" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="536" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A536" s="40">
         <v>44044</v>
       </c>
@@ -14498,7 +14506,7 @@
       <c r="J536" s="11"/>
       <c r="K536" s="20"/>
     </row>
-    <row r="537" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="537" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A537" s="40">
         <v>44075</v>
       </c>
@@ -14518,7 +14526,7 @@
       <c r="J537" s="11"/>
       <c r="K537" s="20"/>
     </row>
-    <row r="538" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="538" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A538" s="40">
         <v>44105</v>
       </c>
@@ -14538,7 +14546,7 @@
       <c r="J538" s="11"/>
       <c r="K538" s="20"/>
     </row>
-    <row r="539" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="539" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A539" s="40">
         <v>44136</v>
       </c>
@@ -14558,7 +14566,7 @@
       <c r="J539" s="11"/>
       <c r="K539" s="20"/>
     </row>
-    <row r="540" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="540" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A540" s="40">
         <v>44166</v>
       </c>
@@ -14582,7 +14590,7 @@
       <c r="J540" s="11"/>
       <c r="K540" s="20"/>
     </row>
-    <row r="541" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="541" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A541" s="48" t="s">
         <v>69</v>
       </c>
@@ -14600,7 +14608,7 @@
       <c r="J541" s="11"/>
       <c r="K541" s="20"/>
     </row>
-    <row r="542" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="542" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A542" s="40">
         <v>44197</v>
       </c>
@@ -14620,7 +14628,7 @@
       <c r="J542" s="11"/>
       <c r="K542" s="20"/>
     </row>
-    <row r="543" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="543" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A543" s="40">
         <v>44228</v>
       </c>
@@ -14640,7 +14648,7 @@
       <c r="J543" s="11"/>
       <c r="K543" s="20"/>
     </row>
-    <row r="544" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="544" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A544" s="40">
         <v>44256</v>
       </c>
@@ -14660,7 +14668,7 @@
       <c r="J544" s="11"/>
       <c r="K544" s="20"/>
     </row>
-    <row r="545" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="545" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A545" s="40">
         <v>44287</v>
       </c>
@@ -14680,7 +14688,7 @@
       <c r="J545" s="11"/>
       <c r="K545" s="20"/>
     </row>
-    <row r="546" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="546" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A546" s="40">
         <v>44317</v>
       </c>
@@ -14700,7 +14708,7 @@
       <c r="J546" s="11"/>
       <c r="K546" s="20"/>
     </row>
-    <row r="547" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="547" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A547" s="40">
         <v>44348</v>
       </c>
@@ -14720,7 +14728,7 @@
       <c r="J547" s="11"/>
       <c r="K547" s="20"/>
     </row>
-    <row r="548" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="548" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A548" s="40">
         <v>44378</v>
       </c>
@@ -14740,7 +14748,7 @@
       <c r="J548" s="11"/>
       <c r="K548" s="20"/>
     </row>
-    <row r="549" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="549" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A549" s="40">
         <v>44409</v>
       </c>
@@ -14764,7 +14772,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="550" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="550" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A550" s="40">
         <v>44440</v>
       </c>
@@ -14784,7 +14792,7 @@
       <c r="J550" s="11"/>
       <c r="K550" s="20"/>
     </row>
-    <row r="551" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="551" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A551" s="40">
         <v>44470</v>
       </c>
@@ -14804,7 +14812,7 @@
       <c r="J551" s="11"/>
       <c r="K551" s="20"/>
     </row>
-    <row r="552" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="552" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A552" s="40">
         <v>44501</v>
       </c>
@@ -14824,7 +14832,7 @@
       <c r="J552" s="11"/>
       <c r="K552" s="20"/>
     </row>
-    <row r="553" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="553" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A553" s="40">
         <v>44531</v>
       </c>
@@ -14850,7 +14858,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="554" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="554" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A554" s="40"/>
       <c r="B554" s="20" t="s">
         <v>53</v>
@@ -14870,7 +14878,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="555" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="555" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A555" s="40"/>
       <c r="B555" s="20" t="s">
         <v>84</v>
@@ -14892,7 +14900,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="556" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="556" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A556" s="40"/>
       <c r="B556" s="20" t="s">
         <v>72</v>
@@ -14912,7 +14920,7 @@
       <c r="J556" s="11"/>
       <c r="K556" s="20"/>
     </row>
-    <row r="557" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="557" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A557" s="48" t="s">
         <v>76</v>
       </c>
@@ -14930,7 +14938,7 @@
       <c r="J557" s="11"/>
       <c r="K557" s="20"/>
     </row>
-    <row r="558" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="558" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A558" s="40">
         <v>44562</v>
       </c>
@@ -14950,7 +14958,7 @@
       <c r="J558" s="11"/>
       <c r="K558" s="20"/>
     </row>
-    <row r="559" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="559" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A559" s="40">
         <v>44593</v>
       </c>
@@ -14970,7 +14978,7 @@
       <c r="J559" s="11"/>
       <c r="K559" s="20"/>
     </row>
-    <row r="560" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="560" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A560" s="40">
         <v>44621</v>
       </c>
@@ -14996,7 +15004,7 @@
         <v>44651</v>
       </c>
     </row>
-    <row r="561" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="561" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A561" s="40"/>
       <c r="B561" s="20" t="s">
         <v>243</v>
@@ -15016,7 +15024,7 @@
       <c r="J561" s="11"/>
       <c r="K561" s="49"/>
     </row>
-    <row r="562" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="562" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A562" s="40">
         <v>44652</v>
       </c>
@@ -15042,7 +15050,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="563" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="563" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A563" s="40"/>
       <c r="B563" s="20" t="s">
         <v>482</v>
@@ -15062,7 +15070,7 @@
       <c r="J563" s="11"/>
       <c r="K563" s="50"/>
     </row>
-    <row r="564" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="564" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A564" s="40">
         <v>45047</v>
       </c>
@@ -15088,7 +15096,7 @@
         <v>44701</v>
       </c>
     </row>
-    <row r="565" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="565" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A565" s="40">
         <v>44713</v>
       </c>
@@ -15114,7 +15122,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="566" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="566" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A566" s="40"/>
       <c r="B566" s="20" t="s">
         <v>226</v>
@@ -15134,7 +15142,7 @@
       <c r="J566" s="11"/>
       <c r="K566" s="20"/>
     </row>
-    <row r="567" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="567" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A567" s="40">
         <v>44743</v>
       </c>
@@ -15160,7 +15168,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="568" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="568" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A568" s="40"/>
       <c r="B568" s="20" t="s">
         <v>83</v>
@@ -15182,7 +15190,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="569" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="569" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A569" s="40"/>
       <c r="B569" s="20" t="s">
         <v>53</v>
@@ -15202,7 +15210,7 @@
         <v>44778</v>
       </c>
     </row>
-    <row r="570" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="570" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A570" s="40"/>
       <c r="B570" s="20" t="s">
         <v>481</v>
@@ -15222,7 +15230,7 @@
       <c r="J570" s="11"/>
       <c r="K570" s="49"/>
     </row>
-    <row r="571" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="571" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A571" s="40">
         <v>44774</v>
       </c>
@@ -15246,7 +15254,7 @@
       <c r="J571" s="11"/>
       <c r="K571" s="20"/>
     </row>
-    <row r="572" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="572" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A572" s="40">
         <v>44805</v>
       </c>
@@ -15272,7 +15280,7 @@
         <v>44833</v>
       </c>
     </row>
-    <row r="573" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="573" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A573" s="40"/>
       <c r="B573" s="20" t="s">
         <v>480</v>
@@ -15292,7 +15300,7 @@
       <c r="J573" s="11"/>
       <c r="K573" s="49"/>
     </row>
-    <row r="574" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="574" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A574" s="40">
         <v>44835</v>
       </c>
@@ -15318,7 +15326,7 @@
         <v>44841</v>
       </c>
     </row>
-    <row r="575" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="575" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A575" s="40"/>
       <c r="B575" s="20" t="s">
         <v>251</v>
@@ -15338,7 +15346,7 @@
       <c r="J575" s="11"/>
       <c r="K575" s="49"/>
     </row>
-    <row r="576" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="576" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A576" s="40">
         <v>44866</v>
       </c>
@@ -15362,7 +15370,7 @@
         <v>44897</v>
       </c>
     </row>
-    <row r="577" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="577" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A577" s="40"/>
       <c r="B577" s="20" t="s">
         <v>479</v>
@@ -15384,7 +15392,7 @@
         <v>44883</v>
       </c>
     </row>
-    <row r="578" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="578" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A578" s="40"/>
       <c r="B578" s="20" t="s">
         <v>168</v>
@@ -15404,7 +15412,7 @@
       <c r="J578" s="11"/>
       <c r="K578" s="49"/>
     </row>
-    <row r="579" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="579" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A579" s="40">
         <v>44896</v>
       </c>
@@ -15430,7 +15438,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="580" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="580" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A580" s="40"/>
       <c r="B580" s="20" t="s">
         <v>476</v>
@@ -15452,7 +15460,7 @@
         <v>477</v>
       </c>
     </row>
-    <row r="581" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="581" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A581" s="40"/>
       <c r="B581" s="20" t="s">
         <v>478</v>
@@ -15472,7 +15480,7 @@
       <c r="J581" s="11"/>
       <c r="K581" s="20"/>
     </row>
-    <row r="582" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="582" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A582" s="48" t="s">
         <v>87</v>
       </c>
@@ -15490,7 +15498,7 @@
       <c r="J582" s="11"/>
       <c r="K582" s="20"/>
     </row>
-    <row r="583" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="583" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A583" s="40">
         <v>44927</v>
       </c>
@@ -15510,7 +15518,7 @@
       <c r="J583" s="11"/>
       <c r="K583" s="20"/>
     </row>
-    <row r="584" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="584" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A584" s="40">
         <v>44958</v>
       </c>
@@ -15536,7 +15544,7 @@
         <v>44967</v>
       </c>
     </row>
-    <row r="585" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
         <v>44986</v>
       </c>
@@ -15556,7 +15564,7 @@
       <c r="J585" s="11"/>
       <c r="K585" s="20"/>
     </row>
-    <row r="586" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="586" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A586" s="40">
         <v>45017</v>
       </c>
@@ -15576,7 +15584,7 @@
       <c r="J586" s="11"/>
       <c r="K586" s="20"/>
     </row>
-    <row r="587" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
         <v>45047</v>
       </c>
@@ -15596,7 +15604,7 @@
       <c r="J587" s="11"/>
       <c r="K587" s="20"/>
     </row>
-    <row r="588" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="588" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A588" s="40">
         <v>45078</v>
       </c>
@@ -15616,7 +15624,7 @@
       <c r="J588" s="11"/>
       <c r="K588" s="20"/>
     </row>
-    <row r="589" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
         <v>45108</v>
       </c>
@@ -15640,38 +15648,32 @@
         <v>45114</v>
       </c>
     </row>
-    <row r="590" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A590" s="40">
-        <v>45139</v>
-      </c>
+    <row r="590" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A590" s="40"/>
       <c r="B590" s="20" t="s">
-        <v>107</v>
-      </c>
-      <c r="C590" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D590" s="39"/>
+        <v>160</v>
+      </c>
+      <c r="C590" s="13"/>
+      <c r="D590" s="39">
+        <v>6.7000000000000004E-2</v>
+      </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H590" s="39">
-        <v>1</v>
-      </c>
+      <c r="G590" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49">
-        <v>45145</v>
-      </c>
-    </row>
-    <row r="591" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K590" s="49"/>
+    </row>
+    <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45170</v>
+        <v>45139</v>
       </c>
       <c r="B591" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C591" s="13">
         <v>1.25</v>
@@ -15683,36 +15685,38 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H591" s="39"/>
+      <c r="H591" s="39">
+        <v>1</v>
+      </c>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="49">
-        <v>45198</v>
-      </c>
-    </row>
-    <row r="592" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A592" s="40">
-        <v>45200</v>
-      </c>
-      <c r="B592" s="20"/>
-      <c r="C592" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D592" s="39"/>
+        <v>45145</v>
+      </c>
+    </row>
+    <row r="592" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A592" s="40"/>
+      <c r="B592" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C592" s="13"/>
+      <c r="D592" s="39">
+        <v>2.5000000000000008E-2</v>
+      </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
-      <c r="G592" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G592" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H592" s="39"/>
       <c r="I592" s="9"/>
       <c r="J592" s="11"/>
-      <c r="K592" s="20"/>
-    </row>
-    <row r="593" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K592" s="49"/>
+    </row>
+    <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45231</v>
+        <v>45170</v>
       </c>
       <c r="B593" s="20" t="s">
         <v>103</v>
@@ -15731,59 +15735,61 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45272</v>
-      </c>
-    </row>
-    <row r="594" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A594" s="40"/>
+        <v>45198</v>
+      </c>
+    </row>
+    <row r="594" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A594" s="40">
+        <v>45200</v>
+      </c>
       <c r="B594" s="20" t="s">
-        <v>108</v>
-      </c>
-      <c r="C594" s="13"/>
+        <v>148</v>
+      </c>
+      <c r="C594" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D594" s="39">
-        <v>1</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G594" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="49">
-        <v>45260</v>
-      </c>
-    </row>
-    <row r="595" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A595" s="40"/>
+      <c r="K594" s="20"/>
+    </row>
+    <row r="595" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A595" s="40">
+        <v>45231</v>
+      </c>
       <c r="B595" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C595" s="13"/>
-      <c r="D595" s="39">
-        <v>2</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C595" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D595" s="39"/>
       <c r="E595" s="9"/>
       <c r="F595" s="20"/>
-      <c r="G595" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G595" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H595" s="39"/>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
-      <c r="K595" s="49" t="s">
-        <v>483</v>
-      </c>
-    </row>
-    <row r="596" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A596" s="40">
-        <v>45261</v>
-      </c>
+      <c r="K595" s="49">
+        <v>45272</v>
+      </c>
+    </row>
+    <row r="596" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>254</v>
+        <v>108</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39">
@@ -15799,16 +15805,18 @@
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
       <c r="K596" s="49">
-        <v>45261</v>
-      </c>
-    </row>
-    <row r="597" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A597" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B597" s="20"/>
+        <v>45260</v>
+      </c>
+    </row>
+    <row r="597" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A597" s="40"/>
+      <c r="B597" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C597" s="13"/>
-      <c r="D597" s="39"/>
+      <c r="D597" s="39">
+        <v>2</v>
+      </c>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
       <c r="G597" s="13" t="str">
@@ -15818,15 +15826,19 @@
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="20"/>
-    </row>
-    <row r="598" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A598" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B598" s="20"/>
+      <c r="K597" s="49" t="s">
+        <v>483</v>
+      </c>
+    </row>
+    <row r="598" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A598" s="40"/>
+      <c r="B598" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="C598" s="13"/>
-      <c r="D598" s="39"/>
+      <c r="D598" s="39">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
       <c r="G598" s="13" t="str">
@@ -15836,33 +15848,43 @@
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="20"/>
-    </row>
-    <row r="599" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K598" s="49"/>
+    </row>
+    <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B599" s="20"/>
-      <c r="C599" s="13"/>
-      <c r="D599" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B599" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C599" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D599" s="39">
+        <v>1</v>
+      </c>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
-      <c r="G599" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G599" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H599" s="39"/>
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
-      <c r="K599" s="20"/>
-    </row>
-    <row r="600" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A600" s="40">
-        <v>45383</v>
-      </c>
-      <c r="B600" s="20"/>
+      <c r="K599" s="49">
+        <v>45261</v>
+      </c>
+    </row>
+    <row r="600" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A600" s="40"/>
+      <c r="B600" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="C600" s="13"/>
-      <c r="D600" s="39"/>
+      <c r="D600" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
       <c r="G600" s="13" t="str">
@@ -15872,11 +15894,11 @@
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="20"/>
-    </row>
-    <row r="601" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A601" s="40">
-        <v>45413</v>
+      <c r="K600" s="49"/>
+    </row>
+    <row r="601" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A601" s="48" t="s">
+        <v>484</v>
       </c>
       <c r="B601" s="20"/>
       <c r="C601" s="13"/>
@@ -15890,11 +15912,11 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="20"/>
-    </row>
-    <row r="602" spans="1:11" x14ac:dyDescent="0.3">
+      <c r="K601" s="49"/>
+    </row>
+    <row r="602" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A602" s="40">
-        <v>45444</v>
+        <v>45292</v>
       </c>
       <c r="B602" s="20"/>
       <c r="C602" s="13"/>
@@ -15910,9 +15932,9 @@
       <c r="J602" s="11"/>
       <c r="K602" s="20"/>
     </row>
-    <row r="603" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45474</v>
+        <v>45323</v>
       </c>
       <c r="B603" s="20"/>
       <c r="C603" s="13"/>
@@ -15928,9 +15950,9 @@
       <c r="J603" s="11"/>
       <c r="K603" s="20"/>
     </row>
-    <row r="604" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="604" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A604" s="40">
-        <v>45505</v>
+        <v>45352</v>
       </c>
       <c r="B604" s="20"/>
       <c r="C604" s="13"/>
@@ -15946,9 +15968,9 @@
       <c r="J604" s="11"/>
       <c r="K604" s="20"/>
     </row>
-    <row r="605" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="605" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A605" s="40">
-        <v>45536</v>
+        <v>45383</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15964,9 +15986,9 @@
       <c r="J605" s="11"/>
       <c r="K605" s="20"/>
     </row>
-    <row r="606" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45566</v>
+        <v>45413</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -15982,9 +16004,9 @@
       <c r="J606" s="11"/>
       <c r="K606" s="20"/>
     </row>
-    <row r="607" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45597</v>
+        <v>45444</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16000,9 +16022,9 @@
       <c r="J607" s="11"/>
       <c r="K607" s="20"/>
     </row>
-    <row r="608" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45627</v>
+        <v>45474</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16018,9 +16040,9 @@
       <c r="J608" s="11"/>
       <c r="K608" s="20"/>
     </row>
-    <row r="609" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45658</v>
+        <v>45505</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16036,9 +16058,9 @@
       <c r="J609" s="11"/>
       <c r="K609" s="20"/>
     </row>
-    <row r="610" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45689</v>
+        <v>45536</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16054,9 +16076,9 @@
       <c r="J610" s="11"/>
       <c r="K610" s="20"/>
     </row>
-    <row r="611" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45717</v>
+        <v>45566</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16072,9 +16094,9 @@
       <c r="J611" s="11"/>
       <c r="K611" s="20"/>
     </row>
-    <row r="612" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45748</v>
+        <v>45597</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16090,9 +16112,9 @@
       <c r="J612" s="11"/>
       <c r="K612" s="20"/>
     </row>
-    <row r="613" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45778</v>
+        <v>45627</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16108,9 +16130,9 @@
       <c r="J613" s="11"/>
       <c r="K613" s="20"/>
     </row>
-    <row r="614" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45809</v>
+        <v>45658</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16126,9 +16148,9 @@
       <c r="J614" s="11"/>
       <c r="K614" s="20"/>
     </row>
-    <row r="615" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45839</v>
+        <v>45689</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16144,9 +16166,9 @@
       <c r="J615" s="11"/>
       <c r="K615" s="20"/>
     </row>
-    <row r="616" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45870</v>
+        <v>45717</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16162,9 +16184,9 @@
       <c r="J616" s="11"/>
       <c r="K616" s="20"/>
     </row>
-    <row r="617" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45901</v>
+        <v>45748</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16180,9 +16202,9 @@
       <c r="J617" s="11"/>
       <c r="K617" s="20"/>
     </row>
-    <row r="618" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45931</v>
+        <v>45778</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16198,9 +16220,9 @@
       <c r="J618" s="11"/>
       <c r="K618" s="20"/>
     </row>
-    <row r="619" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45962</v>
+        <v>45809</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16216,9 +16238,9 @@
       <c r="J619" s="11"/>
       <c r="K619" s="20"/>
     </row>
-    <row r="620" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45992</v>
+        <v>45839</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16234,8 +16256,10 @@
       <c r="J620" s="11"/>
       <c r="K620" s="20"/>
     </row>
-    <row r="621" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A621" s="40"/>
+    <row r="621" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A621" s="40">
+        <v>45870</v>
+      </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
       <c r="D621" s="39"/>
@@ -16250,8 +16274,10 @@
       <c r="J621" s="11"/>
       <c r="K621" s="20"/>
     </row>
-    <row r="622" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A622" s="40"/>
+    <row r="622" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A622" s="40">
+        <v>45901</v>
+      </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
       <c r="D622" s="39"/>
@@ -16266,8 +16292,10 @@
       <c r="J622" s="11"/>
       <c r="K622" s="20"/>
     </row>
-    <row r="623" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A623" s="40"/>
+    <row r="623" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A623" s="40">
+        <v>45931</v>
+      </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
       <c r="D623" s="39"/>
@@ -16282,21 +16310,105 @@
       <c r="J623" s="11"/>
       <c r="K623" s="20"/>
     </row>
-    <row r="624" spans="1:11" x14ac:dyDescent="0.3">
-      <c r="A624" s="41"/>
-      <c r="B624" s="15"/>
-      <c r="C624" s="42"/>
-      <c r="D624" s="43"/>
+    <row r="624" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A624" s="40">
+        <v>45962</v>
+      </c>
+      <c r="B624" s="20"/>
+      <c r="C624" s="13"/>
+      <c r="D624" s="39"/>
       <c r="E624" s="9"/>
-      <c r="F624" s="15"/>
-      <c r="G624" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H624" s="43"/>
+      <c r="F624" s="20"/>
+      <c r="G624" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H624" s="39"/>
       <c r="I624" s="9"/>
-      <c r="J624" s="12"/>
-      <c r="K624" s="15"/>
+      <c r="J624" s="11"/>
+      <c r="K624" s="20"/>
+    </row>
+    <row r="625" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A625" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B625" s="20"/>
+      <c r="C625" s="13"/>
+      <c r="D625" s="39"/>
+      <c r="E625" s="9"/>
+      <c r="F625" s="20"/>
+      <c r="G625" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H625" s="39"/>
+      <c r="I625" s="9"/>
+      <c r="J625" s="11"/>
+      <c r="K625" s="20"/>
+    </row>
+    <row r="626" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A626" s="40"/>
+      <c r="B626" s="20"/>
+      <c r="C626" s="13"/>
+      <c r="D626" s="39"/>
+      <c r="E626" s="9"/>
+      <c r="F626" s="20"/>
+      <c r="G626" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H626" s="39"/>
+      <c r="I626" s="9"/>
+      <c r="J626" s="11"/>
+      <c r="K626" s="20"/>
+    </row>
+    <row r="627" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A627" s="40"/>
+      <c r="B627" s="20"/>
+      <c r="C627" s="13"/>
+      <c r="D627" s="39"/>
+      <c r="E627" s="9"/>
+      <c r="F627" s="20"/>
+      <c r="G627" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H627" s="39"/>
+      <c r="I627" s="9"/>
+      <c r="J627" s="11"/>
+      <c r="K627" s="20"/>
+    </row>
+    <row r="628" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A628" s="40"/>
+      <c r="B628" s="20"/>
+      <c r="C628" s="13"/>
+      <c r="D628" s="39"/>
+      <c r="E628" s="9"/>
+      <c r="F628" s="20"/>
+      <c r="G628" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H628" s="39"/>
+      <c r="I628" s="9"/>
+      <c r="J628" s="11"/>
+      <c r="K628" s="20"/>
+    </row>
+    <row r="629" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A629" s="41"/>
+      <c r="B629" s="15"/>
+      <c r="C629" s="42"/>
+      <c r="D629" s="43"/>
+      <c r="E629" s="9"/>
+      <c r="F629" s="15"/>
+      <c r="G629" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="43"/>
+      <c r="I629" s="9"/>
+      <c r="J629" s="12"/>
+      <c r="K629" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16314,10 +16426,10 @@
   </mergeCells>
   <phoneticPr fontId="5" type="noConversion"/>
   <dataValidations count="2">
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2" xr:uid="{00000000-0002-0000-0000-000000000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="F2:G2">
       <formula1>"1 - Married (and not separated), 2 - Widowed (including living common law), 3 - Separated (including living common law), 4 - Divorced (including living common law), 5 - Single (including living common law)"</formula1>
     </dataValidation>
-    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4" xr:uid="{00000000-0002-0000-0000-000001000000}">
+    <dataValidation type="list" allowBlank="1" showInputMessage="1" showErrorMessage="1" sqref="B4:C4">
       <formula1>"PERMANENT, CO-TERMINUS, CASUAL, JOBCON"</formula1>
     </dataValidation>
   </dataValidations>
@@ -16340,28 +16452,28 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G3" sqref="G3"/>
+      <selection activeCell="A40" sqref="A40"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="21.33203125" customWidth="1"/>
-    <col min="2" max="2" width="20.6640625" customWidth="1"/>
-    <col min="4" max="4" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="12.6640625" style="1" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="15.5546875" style="1" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="26.109375" customWidth="1"/>
-    <col min="9" max="9" width="16.33203125" style="1" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="14.88671875" customWidth="1"/>
-    <col min="11" max="11" width="14.88671875" style="37" hidden="1" customWidth="1"/>
-    <col min="12" max="12" width="14.88671875" customWidth="1"/>
+    <col min="1" max="1" width="21.28515625" customWidth="1"/>
+    <col min="2" max="2" width="20.7109375" customWidth="1"/>
+    <col min="4" max="4" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="12.7109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.5703125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="26.140625" customWidth="1"/>
+    <col min="9" max="9" width="16.28515625" style="1" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="14.85546875" customWidth="1"/>
+    <col min="11" max="11" width="14.85546875" style="37" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="14.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="15.6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:12" ht="15.75" x14ac:dyDescent="0.25">
       <c r="D1" s="62" t="s">
         <v>32</v>
       </c>
@@ -16374,7 +16486,7 @@
       <c r="K1" s="63"/>
       <c r="L1" s="63"/>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A2" s="32" t="s">
         <v>23</v>
       </c>
@@ -16403,7 +16515,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A3" s="11">
         <v>13.625</v>
       </c>
@@ -16413,15 +16525,13 @@
       <c r="D3" s="11">
         <v>0</v>
       </c>
-      <c r="E3" s="11">
-        <v>1</v>
-      </c>
+      <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>5</v>
+        <v>32</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>0.13500000000000001</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="J3" s="47">
         <v>28</v>
@@ -16435,17 +16545,17 @@
         <v>0.12499999999999978</v>
       </c>
     </row>
-    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" hidden="1" x14ac:dyDescent="0.25">
       <c r="G4" s="33"/>
       <c r="J4" s="1" t="str">
         <f>IF(TEXT(J3,"D")=1,1,TEXT(J3,"D"))</f>
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="J5" s="1"/>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" s="32" t="s">
         <v>88</v>
       </c>
@@ -16469,10 +16579,10 @@
       <c r="K6" s="64"/>
       <c r="L6" s="64"/>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>324.85599999999999</v>
+        <v>326.541</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
@@ -16500,7 +16610,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C8" s="37">
         <v>2</v>
       </c>
@@ -16526,7 +16636,7 @@
         <v>4.2000000000000003E-2</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C9" s="37">
         <v>3</v>
       </c>
@@ -16552,7 +16662,7 @@
         <v>8.3000000000000004E-2</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C10" s="37">
         <v>4</v>
       </c>
@@ -16578,7 +16688,7 @@
         <v>0.125</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C11" s="37">
         <v>5</v>
       </c>
@@ -16604,7 +16714,7 @@
         <v>0.16700000000000001</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C12" s="37">
         <v>6</v>
       </c>
@@ -16630,7 +16740,7 @@
         <v>0.20800000000000002</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C13" s="37">
         <v>7</v>
       </c>
@@ -16656,7 +16766,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C14" s="37">
         <v>8</v>
       </c>
@@ -16682,7 +16792,7 @@
         <v>0.29199999999999998</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C15" s="37">
         <v>9</v>
       </c>
@@ -16702,7 +16812,7 @@
         <v>0.33299999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
       <c r="C16" s="37">
         <v>10</v>
       </c>
@@ -16722,7 +16832,7 @@
         <v>0.37499999999999994</v>
       </c>
     </row>
-    <row r="17" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="3:12" x14ac:dyDescent="0.25">
       <c r="C17" s="37">
         <v>11</v>
       </c>
@@ -16742,7 +16852,7 @@
         <v>0.41699999999999993</v>
       </c>
     </row>
-    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C18" s="37">
         <v>12</v>
       </c>
@@ -16763,7 +16873,7 @@
         <v>0.45799999999999991</v>
       </c>
     </row>
-    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C19" s="37">
         <v>13</v>
       </c>
@@ -16784,7 +16894,7 @@
         <v>0.49999999999999989</v>
       </c>
     </row>
-    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C20" s="37">
         <v>14</v>
       </c>
@@ -16805,7 +16915,7 @@
         <v>0.54199999999999993</v>
       </c>
     </row>
-    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C21" s="37">
         <v>15</v>
       </c>
@@ -16826,7 +16936,7 @@
         <v>0.58299999999999996</v>
       </c>
     </row>
-    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C22" s="37">
         <v>16</v>
       </c>
@@ -16847,7 +16957,7 @@
         <v>0.625</v>
       </c>
     </row>
-    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C23" s="37">
         <v>17</v>
       </c>
@@ -16868,7 +16978,7 @@
         <v>0.66700000000000004</v>
       </c>
     </row>
-    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C24" s="37">
         <v>18</v>
       </c>
@@ -16889,7 +16999,7 @@
         <v>0.70800000000000007</v>
       </c>
     </row>
-    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C25" s="37">
         <v>19</v>
       </c>
@@ -16910,7 +17020,7 @@
         <v>0.75000000000000011</v>
       </c>
     </row>
-    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C26" s="37">
         <v>20</v>
       </c>
@@ -16931,7 +17041,7 @@
         <v>0.79200000000000015</v>
       </c>
     </row>
-    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C27" s="37">
         <v>21</v>
       </c>
@@ -16952,7 +17062,7 @@
         <v>0.83300000000000018</v>
       </c>
     </row>
-    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C28" s="37">
         <v>22</v>
       </c>
@@ -16973,7 +17083,7 @@
         <v>0.87500000000000022</v>
       </c>
     </row>
-    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C29" s="37">
         <v>23</v>
       </c>
@@ -16994,7 +17104,7 @@
         <v>0.91700000000000026</v>
       </c>
     </row>
-    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C30" s="37">
         <v>24</v>
       </c>
@@ -17015,7 +17125,7 @@
         <v>0.9580000000000003</v>
       </c>
     </row>
-    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C31" s="37">
         <v>25</v>
       </c>
@@ -17036,7 +17146,7 @@
         <v>1.0000000000000002</v>
       </c>
     </row>
-    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C32" s="37">
         <v>26</v>
       </c>
@@ -17057,7 +17167,7 @@
         <v>1.0420000000000003</v>
       </c>
     </row>
-    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C33" s="37">
         <v>27</v>
       </c>
@@ -17078,7 +17188,7 @@
         <v>1.0830000000000002</v>
       </c>
     </row>
-    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C34" s="37">
         <v>28</v>
       </c>
@@ -17099,7 +17209,7 @@
         <v>1.1250000000000002</v>
       </c>
     </row>
-    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C35" s="37">
         <v>29</v>
       </c>
@@ -17120,7 +17230,7 @@
         <v>1.1670000000000003</v>
       </c>
     </row>
-    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C36" s="37">
         <v>30</v>
       </c>
@@ -17141,7 +17251,7 @@
         <v>1.2080000000000002</v>
       </c>
     </row>
-    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C37" s="37">
         <v>31</v>
       </c>
@@ -17162,7 +17272,7 @@
         <v>1.2500000000000002</v>
       </c>
     </row>
-    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="38" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C38" s="37">
         <v>32</v>
       </c>
@@ -17171,7 +17281,7 @@
       </c>
       <c r="G38"/>
     </row>
-    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="39" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C39" s="37">
         <v>33</v>
       </c>
@@ -17180,7 +17290,7 @@
       </c>
       <c r="G39"/>
     </row>
-    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="40" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C40" s="37">
         <v>34</v>
       </c>
@@ -17189,7 +17299,7 @@
       </c>
       <c r="G40"/>
     </row>
-    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="41" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C41" s="37">
         <v>35</v>
       </c>
@@ -17198,7 +17308,7 @@
       </c>
       <c r="G41"/>
     </row>
-    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="42" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C42" s="37">
         <v>36</v>
       </c>
@@ -17207,7 +17317,7 @@
       </c>
       <c r="G42"/>
     </row>
-    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="43" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C43" s="37">
         <v>37</v>
       </c>
@@ -17216,7 +17326,7 @@
       </c>
       <c r="G43"/>
     </row>
-    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="44" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C44" s="37">
         <v>38</v>
       </c>
@@ -17225,7 +17335,7 @@
       </c>
       <c r="G44"/>
     </row>
-    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="45" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C45" s="37">
         <v>39</v>
       </c>
@@ -17234,7 +17344,7 @@
       </c>
       <c r="G45"/>
     </row>
-    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="46" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C46" s="37">
         <v>40</v>
       </c>
@@ -17243,7 +17353,7 @@
       </c>
       <c r="G46"/>
     </row>
-    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C47" s="37">
         <v>41</v>
       </c>
@@ -17252,7 +17362,7 @@
       </c>
       <c r="G47"/>
     </row>
-    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="48" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C48" s="37">
         <v>42</v>
       </c>
@@ -17261,7 +17371,7 @@
       </c>
       <c r="G48"/>
     </row>
-    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="49" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C49" s="37">
         <v>43</v>
       </c>
@@ -17270,7 +17380,7 @@
       </c>
       <c r="G49"/>
     </row>
-    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="50" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C50" s="37">
         <v>44</v>
       </c>
@@ -17279,7 +17389,7 @@
       </c>
       <c r="G50"/>
     </row>
-    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="51" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C51" s="37">
         <v>45</v>
       </c>
@@ -17288,7 +17398,7 @@
       </c>
       <c r="G51"/>
     </row>
-    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="52" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C52" s="37">
         <v>46</v>
       </c>
@@ -17297,7 +17407,7 @@
       </c>
       <c r="G52"/>
     </row>
-    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="53" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C53" s="37">
         <v>47</v>
       </c>
@@ -17306,7 +17416,7 @@
       </c>
       <c r="G53"/>
     </row>
-    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="54" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C54" s="37">
         <v>48</v>
       </c>
@@ -17315,7 +17425,7 @@
       </c>
       <c r="G54"/>
     </row>
-    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="55" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C55" s="37">
         <v>49</v>
       </c>
@@ -17324,7 +17434,7 @@
       </c>
       <c r="G55"/>
     </row>
-    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="56" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C56" s="37">
         <v>50</v>
       </c>
@@ -17333,7 +17443,7 @@
       </c>
       <c r="G56"/>
     </row>
-    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="57" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C57" s="37">
         <v>51</v>
       </c>
@@ -17342,7 +17452,7 @@
       </c>
       <c r="G57"/>
     </row>
-    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="58" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C58" s="37">
         <v>52</v>
       </c>
@@ -17351,7 +17461,7 @@
       </c>
       <c r="G58"/>
     </row>
-    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="59" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C59" s="37">
         <v>53</v>
       </c>
@@ -17360,7 +17470,7 @@
       </c>
       <c r="G59"/>
     </row>
-    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="60" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C60" s="37">
         <v>54</v>
       </c>
@@ -17369,7 +17479,7 @@
       </c>
       <c r="G60"/>
     </row>
-    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="61" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C61" s="37">
         <v>55</v>
       </c>
@@ -17378,7 +17488,7 @@
       </c>
       <c r="G61"/>
     </row>
-    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="62" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C62" s="37">
         <v>56</v>
       </c>
@@ -17387,7 +17497,7 @@
       </c>
       <c r="G62"/>
     </row>
-    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="63" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C63" s="37">
         <v>57</v>
       </c>
@@ -17396,7 +17506,7 @@
       </c>
       <c r="G63"/>
     </row>
-    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="64" spans="3:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C64" s="37">
         <v>58</v>
       </c>
@@ -17405,7 +17515,7 @@
       </c>
       <c r="G64"/>
     </row>
-    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="65" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C65" s="37">
         <v>59</v>
       </c>
@@ -17414,7 +17524,7 @@
       </c>
       <c r="G65"/>
     </row>
-    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="66" spans="3:12" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="C66" s="37">
         <v>60</v>
       </c>
@@ -17423,7 +17533,7 @@
       </c>
       <c r="G66"/>
     </row>
-    <row r="67" spans="3:12" x14ac:dyDescent="0.3">
+    <row r="67" spans="3:12" x14ac:dyDescent="0.25">
       <c r="J67" s="1"/>
       <c r="K67" s="1"/>
       <c r="L67" s="1"/>

--- a/REGULAR/CTO/JORGE, CAROLINA.xlsx
+++ b/REGULAR/CTO/JORGE, CAROLINA.xlsx
@@ -33,7 +33,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="824" uniqueCount="487">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="833" uniqueCount="490">
   <si>
     <t>PERIOD</t>
   </si>
@@ -1504,6 +1504,15 @@
   </si>
   <si>
     <t>UT(0-4-11)</t>
+  </si>
+  <si>
+    <t>UT(0-0-2)</t>
+  </si>
+  <si>
+    <t>UT(0-0-37)</t>
+  </si>
+  <si>
+    <t>UT(0-0-25)</t>
   </si>
 </sst>
 </file>
@@ -2213,8 +2222,8 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K629" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
-  <autoFilter ref="A8:K629"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A8:K633" totalsRowShown="0" headerRowDxfId="14" headerRowBorderDxfId="13" tableBorderDxfId="12" totalsRowBorderDxfId="11">
+  <autoFilter ref="A8:K633"/>
   <tableColumns count="11">
     <tableColumn id="1" name="PERIOD" dataDxfId="10"/>
     <tableColumn id="2" name="PARTICVLARS" dataDxfId="9"/>
@@ -2543,12 +2552,12 @@
   <sheetPr>
     <pageSetUpPr fitToPage="1"/>
   </sheetPr>
-  <dimension ref="A2:K629"/>
+  <dimension ref="A2:K633"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <pane ySplit="3690" topLeftCell="A586" activePane="bottomLeft"/>
+      <pane ySplit="3690" topLeftCell="A580" activePane="bottomLeft"/>
       <selection activeCell="B218" sqref="B218"/>
-      <selection pane="bottomLeft" activeCell="F596" sqref="F596"/>
+      <selection pane="bottomLeft" activeCell="F592" sqref="F592"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2715,7 +2724,7 @@
       <c r="D9" s="11"/>
       <c r="E9" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.915999999999997</v>
+        <v>84.340999999999951</v>
       </c>
       <c r="F9" s="11"/>
       <c r="G9" s="13" t="str">
@@ -6223,7 +6232,7 @@
       <c r="D171" s="39"/>
       <c r="E171" s="13">
         <f>SUM(Table1[EARNED])-SUM(Table1[Absence Undertime W/ Pay])+CONVERTION!$A$3</f>
-        <v>87.915999999999997</v>
+        <v>84.340999999999951</v>
       </c>
       <c r="F171" s="20"/>
       <c r="G171" s="13" t="str">
@@ -15502,11 +15511,15 @@
       <c r="A583" s="40">
         <v>44927</v>
       </c>
-      <c r="B583" s="20"/>
+      <c r="B583" s="20" t="s">
+        <v>479</v>
+      </c>
       <c r="C583" s="13">
         <v>1.25</v>
       </c>
-      <c r="D583" s="39"/>
+      <c r="D583" s="39">
+        <v>1</v>
+      </c>
       <c r="E583" s="9"/>
       <c r="F583" s="20"/>
       <c r="G583" s="13">
@@ -15516,39 +15529,37 @@
       <c r="H583" s="39"/>
       <c r="I583" s="9"/>
       <c r="J583" s="11"/>
-      <c r="K583" s="20"/>
+      <c r="K583" s="49">
+        <v>44956</v>
+      </c>
     </row>
     <row r="584" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A584" s="40">
-        <v>44958</v>
-      </c>
+      <c r="A584" s="40"/>
       <c r="B584" s="20" t="s">
-        <v>60</v>
-      </c>
-      <c r="C584" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D584" s="39"/>
+        <v>481</v>
+      </c>
+      <c r="C584" s="13"/>
+      <c r="D584" s="39">
+        <v>9.6000000000000002E-2</v>
+      </c>
       <c r="E584" s="9"/>
       <c r="F584" s="20"/>
-      <c r="G584" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
-      </c>
-      <c r="H584" s="39">
-        <v>1</v>
-      </c>
+      <c r="G584" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H584" s="39"/>
       <c r="I584" s="9"/>
       <c r="J584" s="11"/>
-      <c r="K584" s="49">
-        <v>44967</v>
-      </c>
+      <c r="K584" s="49"/>
     </row>
     <row r="585" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A585" s="40">
-        <v>44986</v>
-      </c>
-      <c r="B585" s="20"/>
+        <v>44958</v>
+      </c>
+      <c r="B585" s="20" t="s">
+        <v>60</v>
+      </c>
       <c r="C585" s="13">
         <v>1.25</v>
       </c>
@@ -15559,40 +15570,48 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H585" s="39"/>
+      <c r="H585" s="39">
+        <v>1</v>
+      </c>
       <c r="I585" s="9"/>
       <c r="J585" s="11"/>
-      <c r="K585" s="20"/>
+      <c r="K585" s="49">
+        <v>44967</v>
+      </c>
     </row>
     <row r="586" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A586" s="40">
-        <v>45017</v>
-      </c>
-      <c r="B586" s="20"/>
-      <c r="C586" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D586" s="39"/>
+      <c r="A586" s="40"/>
+      <c r="B586" s="20" t="s">
+        <v>409</v>
+      </c>
+      <c r="C586" s="13"/>
+      <c r="D586" s="39">
+        <v>0.1</v>
+      </c>
       <c r="E586" s="9"/>
       <c r="F586" s="20"/>
-      <c r="G586" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G586" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H586" s="39"/>
       <c r="I586" s="9"/>
       <c r="J586" s="11"/>
-      <c r="K586" s="20"/>
+      <c r="K586" s="49"/>
     </row>
     <row r="587" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A587" s="40">
-        <v>45047</v>
-      </c>
-      <c r="B587" s="20"/>
+        <v>44986</v>
+      </c>
+      <c r="B587" s="20" t="s">
+        <v>479</v>
+      </c>
       <c r="C587" s="13">
         <v>1.25</v>
       </c>
-      <c r="D587" s="39"/>
+      <c r="D587" s="39">
+        <v>1</v>
+      </c>
       <c r="E587" s="9"/>
       <c r="F587" s="20"/>
       <c r="G587" s="13">
@@ -15602,39 +15621,43 @@
       <c r="H587" s="39"/>
       <c r="I587" s="9"/>
       <c r="J587" s="11"/>
-      <c r="K587" s="20"/>
+      <c r="K587" s="49">
+        <v>45002</v>
+      </c>
     </row>
     <row r="588" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A588" s="40">
-        <v>45078</v>
-      </c>
-      <c r="B588" s="20"/>
-      <c r="C588" s="13">
-        <v>1.25</v>
-      </c>
-      <c r="D588" s="39"/>
+      <c r="A588" s="40"/>
+      <c r="B588" s="20" t="s">
+        <v>259</v>
+      </c>
+      <c r="C588" s="13"/>
+      <c r="D588" s="39">
+        <v>0.246</v>
+      </c>
       <c r="E588" s="9"/>
       <c r="F588" s="20"/>
-      <c r="G588" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G588" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H588" s="39"/>
       <c r="I588" s="9"/>
       <c r="J588" s="11"/>
-      <c r="K588" s="20"/>
+      <c r="K588" s="49"/>
     </row>
     <row r="589" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A589" s="40">
-        <v>45108</v>
+        <v>45017</v>
       </c>
       <c r="B589" s="20" t="s">
-        <v>103</v>
+        <v>489</v>
       </c>
       <c r="C589" s="13">
         <v>1.25</v>
       </c>
-      <c r="D589" s="39"/>
+      <c r="D589" s="39">
+        <v>5.2000000000000011E-2</v>
+      </c>
       <c r="E589" s="9"/>
       <c r="F589" s="20"/>
       <c r="G589" s="13">
@@ -15644,64 +15667,66 @@
       <c r="H589" s="39"/>
       <c r="I589" s="9"/>
       <c r="J589" s="11"/>
-      <c r="K589" s="49">
-        <v>45114</v>
-      </c>
+      <c r="K589" s="20"/>
     </row>
     <row r="590" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A590" s="40"/>
+      <c r="A590" s="40">
+        <v>45047</v>
+      </c>
       <c r="B590" s="20" t="s">
-        <v>160</v>
-      </c>
-      <c r="C590" s="13"/>
+        <v>488</v>
+      </c>
+      <c r="C590" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D590" s="39">
-        <v>6.7000000000000004E-2</v>
+        <v>7.7000000000000013E-2</v>
       </c>
       <c r="E590" s="9"/>
       <c r="F590" s="20"/>
-      <c r="G590" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G590" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H590" s="39"/>
       <c r="I590" s="9"/>
       <c r="J590" s="11"/>
-      <c r="K590" s="49"/>
+      <c r="K590" s="20"/>
     </row>
     <row r="591" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A591" s="40">
-        <v>45139</v>
+        <v>45078</v>
       </c>
       <c r="B591" s="20" t="s">
-        <v>107</v>
+        <v>479</v>
       </c>
       <c r="C591" s="13">
         <v>1.25</v>
       </c>
-      <c r="D591" s="39"/>
+      <c r="D591" s="39">
+        <v>1</v>
+      </c>
       <c r="E591" s="9"/>
       <c r="F591" s="20"/>
       <c r="G591" s="13">
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H591" s="39">
-        <v>1</v>
-      </c>
+      <c r="H591" s="39"/>
       <c r="I591" s="9"/>
       <c r="J591" s="11"/>
       <c r="K591" s="49">
-        <v>45145</v>
+        <v>45090</v>
       </c>
     </row>
     <row r="592" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A592" s="40"/>
       <c r="B592" s="20" t="s">
-        <v>204</v>
+        <v>487</v>
       </c>
       <c r="C592" s="13"/>
       <c r="D592" s="39">
-        <v>2.5000000000000008E-2</v>
+        <v>4.0000000000000001E-3</v>
       </c>
       <c r="E592" s="9"/>
       <c r="F592" s="20"/>
@@ -15716,7 +15741,7 @@
     </row>
     <row r="593" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A593" s="40">
-        <v>45170</v>
+        <v>45108</v>
       </c>
       <c r="B593" s="20" t="s">
         <v>103</v>
@@ -15735,39 +15760,35 @@
       <c r="I593" s="9"/>
       <c r="J593" s="11"/>
       <c r="K593" s="49">
-        <v>45198</v>
+        <v>45114</v>
       </c>
     </row>
     <row r="594" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A594" s="40">
-        <v>45200</v>
-      </c>
+      <c r="A594" s="40"/>
       <c r="B594" s="20" t="s">
-        <v>148</v>
-      </c>
-      <c r="C594" s="13">
-        <v>1.25</v>
-      </c>
+        <v>160</v>
+      </c>
+      <c r="C594" s="13"/>
       <c r="D594" s="39">
-        <v>8.500000000000002E-2</v>
+        <v>6.7000000000000004E-2</v>
       </c>
       <c r="E594" s="9"/>
       <c r="F594" s="20"/>
-      <c r="G594" s="13">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v>1.25</v>
+      <c r="G594" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
       </c>
       <c r="H594" s="39"/>
       <c r="I594" s="9"/>
       <c r="J594" s="11"/>
-      <c r="K594" s="20"/>
+      <c r="K594" s="49"/>
     </row>
     <row r="595" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A595" s="40">
-        <v>45231</v>
+        <v>45139</v>
       </c>
       <c r="B595" s="20" t="s">
-        <v>103</v>
+        <v>107</v>
       </c>
       <c r="C595" s="13">
         <v>1.25</v>
@@ -15779,21 +15800,23 @@
         <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
         <v>1.25</v>
       </c>
-      <c r="H595" s="39"/>
+      <c r="H595" s="39">
+        <v>1</v>
+      </c>
       <c r="I595" s="9"/>
       <c r="J595" s="11"/>
       <c r="K595" s="49">
-        <v>45272</v>
+        <v>45145</v>
       </c>
     </row>
     <row r="596" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A596" s="40"/>
       <c r="B596" s="20" t="s">
-        <v>108</v>
+        <v>204</v>
       </c>
       <c r="C596" s="13"/>
       <c r="D596" s="39">
-        <v>1</v>
+        <v>2.5000000000000008E-2</v>
       </c>
       <c r="E596" s="9"/>
       <c r="F596" s="20"/>
@@ -15804,65 +15827,67 @@
       <c r="H596" s="39"/>
       <c r="I596" s="9"/>
       <c r="J596" s="11"/>
-      <c r="K596" s="49">
-        <v>45260</v>
-      </c>
+      <c r="K596" s="49"/>
     </row>
     <row r="597" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A597" s="40"/>
+      <c r="A597" s="40">
+        <v>45170</v>
+      </c>
       <c r="B597" s="20" t="s">
-        <v>127</v>
-      </c>
-      <c r="C597" s="13"/>
-      <c r="D597" s="39">
-        <v>2</v>
-      </c>
+        <v>103</v>
+      </c>
+      <c r="C597" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D597" s="39"/>
       <c r="E597" s="9"/>
       <c r="F597" s="20"/>
-      <c r="G597" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G597" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H597" s="39"/>
       <c r="I597" s="9"/>
       <c r="J597" s="11"/>
-      <c r="K597" s="49" t="s">
-        <v>483</v>
+      <c r="K597" s="49">
+        <v>45198</v>
       </c>
     </row>
     <row r="598" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A598" s="40"/>
+      <c r="A598" s="40">
+        <v>45200</v>
+      </c>
       <c r="B598" s="20" t="s">
-        <v>486</v>
-      </c>
-      <c r="C598" s="13"/>
+        <v>148</v>
+      </c>
+      <c r="C598" s="13">
+        <v>1.25</v>
+      </c>
       <c r="D598" s="39">
-        <v>0.52300000000000002</v>
+        <v>8.500000000000002E-2</v>
       </c>
       <c r="E598" s="9"/>
       <c r="F598" s="20"/>
-      <c r="G598" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G598" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H598" s="39"/>
       <c r="I598" s="9"/>
       <c r="J598" s="11"/>
-      <c r="K598" s="49"/>
+      <c r="K598" s="20"/>
     </row>
     <row r="599" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A599" s="40">
-        <v>45261</v>
+        <v>45231</v>
       </c>
       <c r="B599" s="20" t="s">
-        <v>254</v>
+        <v>103</v>
       </c>
       <c r="C599" s="13">
         <v>1.25</v>
       </c>
-      <c r="D599" s="39">
-        <v>1</v>
-      </c>
+      <c r="D599" s="39"/>
       <c r="E599" s="9"/>
       <c r="F599" s="20"/>
       <c r="G599" s="13">
@@ -15873,17 +15898,17 @@
       <c r="I599" s="9"/>
       <c r="J599" s="11"/>
       <c r="K599" s="49">
-        <v>45261</v>
+        <v>45272</v>
       </c>
     </row>
     <row r="600" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A600" s="40"/>
       <c r="B600" s="20" t="s">
-        <v>485</v>
+        <v>108</v>
       </c>
       <c r="C600" s="13"/>
       <c r="D600" s="39">
-        <v>0.115</v>
+        <v>1</v>
       </c>
       <c r="E600" s="9"/>
       <c r="F600" s="20"/>
@@ -15894,15 +15919,19 @@
       <c r="H600" s="39"/>
       <c r="I600" s="9"/>
       <c r="J600" s="11"/>
-      <c r="K600" s="49"/>
+      <c r="K600" s="49">
+        <v>45260</v>
+      </c>
     </row>
     <row r="601" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A601" s="48" t="s">
-        <v>484</v>
-      </c>
-      <c r="B601" s="20"/>
+      <c r="A601" s="40"/>
+      <c r="B601" s="20" t="s">
+        <v>127</v>
+      </c>
       <c r="C601" s="13"/>
-      <c r="D601" s="39"/>
+      <c r="D601" s="39">
+        <v>2</v>
+      </c>
       <c r="E601" s="9"/>
       <c r="F601" s="20"/>
       <c r="G601" s="13" t="str">
@@ -15912,15 +15941,19 @@
       <c r="H601" s="39"/>
       <c r="I601" s="9"/>
       <c r="J601" s="11"/>
-      <c r="K601" s="49"/>
+      <c r="K601" s="49" t="s">
+        <v>483</v>
+      </c>
     </row>
     <row r="602" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A602" s="40">
-        <v>45292</v>
-      </c>
-      <c r="B602" s="20"/>
+      <c r="A602" s="40"/>
+      <c r="B602" s="20" t="s">
+        <v>486</v>
+      </c>
       <c r="C602" s="13"/>
-      <c r="D602" s="39"/>
+      <c r="D602" s="39">
+        <v>0.52300000000000002</v>
+      </c>
       <c r="E602" s="9"/>
       <c r="F602" s="20"/>
       <c r="G602" s="13" t="str">
@@ -15930,33 +15963,43 @@
       <c r="H602" s="39"/>
       <c r="I602" s="9"/>
       <c r="J602" s="11"/>
-      <c r="K602" s="20"/>
+      <c r="K602" s="49"/>
     </row>
     <row r="603" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A603" s="40">
-        <v>45323</v>
-      </c>
-      <c r="B603" s="20"/>
-      <c r="C603" s="13"/>
-      <c r="D603" s="39"/>
+        <v>45261</v>
+      </c>
+      <c r="B603" s="20" t="s">
+        <v>254</v>
+      </c>
+      <c r="C603" s="13">
+        <v>1.25</v>
+      </c>
+      <c r="D603" s="39">
+        <v>1</v>
+      </c>
       <c r="E603" s="9"/>
       <c r="F603" s="20"/>
-      <c r="G603" s="13" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
+      <c r="G603" s="13">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v>1.25</v>
       </c>
       <c r="H603" s="39"/>
       <c r="I603" s="9"/>
       <c r="J603" s="11"/>
-      <c r="K603" s="20"/>
+      <c r="K603" s="49">
+        <v>45261</v>
+      </c>
     </row>
     <row r="604" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A604" s="40">
-        <v>45352</v>
-      </c>
-      <c r="B604" s="20"/>
+      <c r="A604" s="40"/>
+      <c r="B604" s="20" t="s">
+        <v>485</v>
+      </c>
       <c r="C604" s="13"/>
-      <c r="D604" s="39"/>
+      <c r="D604" s="39">
+        <v>0.115</v>
+      </c>
       <c r="E604" s="9"/>
       <c r="F604" s="20"/>
       <c r="G604" s="13" t="str">
@@ -15966,11 +16009,11 @@
       <c r="H604" s="39"/>
       <c r="I604" s="9"/>
       <c r="J604" s="11"/>
-      <c r="K604" s="20"/>
+      <c r="K604" s="49"/>
     </row>
     <row r="605" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A605" s="40">
-        <v>45383</v>
+      <c r="A605" s="48" t="s">
+        <v>484</v>
       </c>
       <c r="B605" s="20"/>
       <c r="C605" s="13"/>
@@ -15984,11 +16027,11 @@
       <c r="H605" s="39"/>
       <c r="I605" s="9"/>
       <c r="J605" s="11"/>
-      <c r="K605" s="20"/>
+      <c r="K605" s="49"/>
     </row>
     <row r="606" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A606" s="40">
-        <v>45413</v>
+        <v>45292</v>
       </c>
       <c r="B606" s="20"/>
       <c r="C606" s="13"/>
@@ -16006,7 +16049,7 @@
     </row>
     <row r="607" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A607" s="40">
-        <v>45444</v>
+        <v>45323</v>
       </c>
       <c r="B607" s="20"/>
       <c r="C607" s="13"/>
@@ -16024,7 +16067,7 @@
     </row>
     <row r="608" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A608" s="40">
-        <v>45474</v>
+        <v>45352</v>
       </c>
       <c r="B608" s="20"/>
       <c r="C608" s="13"/>
@@ -16042,7 +16085,7 @@
     </row>
     <row r="609" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A609" s="40">
-        <v>45505</v>
+        <v>45383</v>
       </c>
       <c r="B609" s="20"/>
       <c r="C609" s="13"/>
@@ -16060,7 +16103,7 @@
     </row>
     <row r="610" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A610" s="40">
-        <v>45536</v>
+        <v>45413</v>
       </c>
       <c r="B610" s="20"/>
       <c r="C610" s="13"/>
@@ -16078,7 +16121,7 @@
     </row>
     <row r="611" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A611" s="40">
-        <v>45566</v>
+        <v>45444</v>
       </c>
       <c r="B611" s="20"/>
       <c r="C611" s="13"/>
@@ -16096,7 +16139,7 @@
     </row>
     <row r="612" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A612" s="40">
-        <v>45597</v>
+        <v>45474</v>
       </c>
       <c r="B612" s="20"/>
       <c r="C612" s="13"/>
@@ -16114,7 +16157,7 @@
     </row>
     <row r="613" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A613" s="40">
-        <v>45627</v>
+        <v>45505</v>
       </c>
       <c r="B613" s="20"/>
       <c r="C613" s="13"/>
@@ -16132,7 +16175,7 @@
     </row>
     <row r="614" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A614" s="40">
-        <v>45658</v>
+        <v>45536</v>
       </c>
       <c r="B614" s="20"/>
       <c r="C614" s="13"/>
@@ -16150,7 +16193,7 @@
     </row>
     <row r="615" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A615" s="40">
-        <v>45689</v>
+        <v>45566</v>
       </c>
       <c r="B615" s="20"/>
       <c r="C615" s="13"/>
@@ -16168,7 +16211,7 @@
     </row>
     <row r="616" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A616" s="40">
-        <v>45717</v>
+        <v>45597</v>
       </c>
       <c r="B616" s="20"/>
       <c r="C616" s="13"/>
@@ -16186,7 +16229,7 @@
     </row>
     <row r="617" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A617" s="40">
-        <v>45748</v>
+        <v>45627</v>
       </c>
       <c r="B617" s="20"/>
       <c r="C617" s="13"/>
@@ -16204,7 +16247,7 @@
     </row>
     <row r="618" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A618" s="40">
-        <v>45778</v>
+        <v>45658</v>
       </c>
       <c r="B618" s="20"/>
       <c r="C618" s="13"/>
@@ -16222,7 +16265,7 @@
     </row>
     <row r="619" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A619" s="40">
-        <v>45809</v>
+        <v>45689</v>
       </c>
       <c r="B619" s="20"/>
       <c r="C619" s="13"/>
@@ -16240,7 +16283,7 @@
     </row>
     <row r="620" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A620" s="40">
-        <v>45839</v>
+        <v>45717</v>
       </c>
       <c r="B620" s="20"/>
       <c r="C620" s="13"/>
@@ -16258,7 +16301,7 @@
     </row>
     <row r="621" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A621" s="40">
-        <v>45870</v>
+        <v>45748</v>
       </c>
       <c r="B621" s="20"/>
       <c r="C621" s="13"/>
@@ -16276,7 +16319,7 @@
     </row>
     <row r="622" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A622" s="40">
-        <v>45901</v>
+        <v>45778</v>
       </c>
       <c r="B622" s="20"/>
       <c r="C622" s="13"/>
@@ -16294,7 +16337,7 @@
     </row>
     <row r="623" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A623" s="40">
-        <v>45931</v>
+        <v>45809</v>
       </c>
       <c r="B623" s="20"/>
       <c r="C623" s="13"/>
@@ -16312,7 +16355,7 @@
     </row>
     <row r="624" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A624" s="40">
-        <v>45962</v>
+        <v>45839</v>
       </c>
       <c r="B624" s="20"/>
       <c r="C624" s="13"/>
@@ -16330,7 +16373,7 @@
     </row>
     <row r="625" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A625" s="40">
-        <v>45992</v>
+        <v>45870</v>
       </c>
       <c r="B625" s="20"/>
       <c r="C625" s="13"/>
@@ -16347,7 +16390,9 @@
       <c r="K625" s="20"/>
     </row>
     <row r="626" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A626" s="40"/>
+      <c r="A626" s="40">
+        <v>45901</v>
+      </c>
       <c r="B626" s="20"/>
       <c r="C626" s="13"/>
       <c r="D626" s="39"/>
@@ -16363,7 +16408,9 @@
       <c r="K626" s="20"/>
     </row>
     <row r="627" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A627" s="40"/>
+      <c r="A627" s="40">
+        <v>45931</v>
+      </c>
       <c r="B627" s="20"/>
       <c r="C627" s="13"/>
       <c r="D627" s="39"/>
@@ -16379,7 +16426,9 @@
       <c r="K627" s="20"/>
     </row>
     <row r="628" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A628" s="40"/>
+      <c r="A628" s="40">
+        <v>45962</v>
+      </c>
       <c r="B628" s="20"/>
       <c r="C628" s="13"/>
       <c r="D628" s="39"/>
@@ -16395,20 +16444,86 @@
       <c r="K628" s="20"/>
     </row>
     <row r="629" spans="1:11" x14ac:dyDescent="0.25">
-      <c r="A629" s="41"/>
-      <c r="B629" s="15"/>
-      <c r="C629" s="42"/>
-      <c r="D629" s="43"/>
+      <c r="A629" s="40">
+        <v>45992</v>
+      </c>
+      <c r="B629" s="20"/>
+      <c r="C629" s="13"/>
+      <c r="D629" s="39"/>
       <c r="E629" s="9"/>
-      <c r="F629" s="15"/>
-      <c r="G629" s="42" t="str">
-        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
-        <v/>
-      </c>
-      <c r="H629" s="43"/>
+      <c r="F629" s="20"/>
+      <c r="G629" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H629" s="39"/>
       <c r="I629" s="9"/>
-      <c r="J629" s="12"/>
-      <c r="K629" s="15"/>
+      <c r="J629" s="11"/>
+      <c r="K629" s="20"/>
+    </row>
+    <row r="630" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A630" s="40"/>
+      <c r="B630" s="20"/>
+      <c r="C630" s="13"/>
+      <c r="D630" s="39"/>
+      <c r="E630" s="9"/>
+      <c r="F630" s="20"/>
+      <c r="G630" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H630" s="39"/>
+      <c r="I630" s="9"/>
+      <c r="J630" s="11"/>
+      <c r="K630" s="20"/>
+    </row>
+    <row r="631" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A631" s="40"/>
+      <c r="B631" s="20"/>
+      <c r="C631" s="13"/>
+      <c r="D631" s="39"/>
+      <c r="E631" s="9"/>
+      <c r="F631" s="20"/>
+      <c r="G631" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H631" s="39"/>
+      <c r="I631" s="9"/>
+      <c r="J631" s="11"/>
+      <c r="K631" s="20"/>
+    </row>
+    <row r="632" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A632" s="40"/>
+      <c r="B632" s="20"/>
+      <c r="C632" s="13"/>
+      <c r="D632" s="39"/>
+      <c r="E632" s="9"/>
+      <c r="F632" s="20"/>
+      <c r="G632" s="13" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H632" s="39"/>
+      <c r="I632" s="9"/>
+      <c r="J632" s="11"/>
+      <c r="K632" s="20"/>
+    </row>
+    <row r="633" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A633" s="41"/>
+      <c r="B633" s="15"/>
+      <c r="C633" s="42"/>
+      <c r="D633" s="43"/>
+      <c r="E633" s="9"/>
+      <c r="F633" s="15"/>
+      <c r="G633" s="42" t="str">
+        <f>IF(ISBLANK(Table1[[#This Row],[EARNED]]),"",Table1[[#This Row],[EARNED]])</f>
+        <v/>
+      </c>
+      <c r="H633" s="43"/>
+      <c r="I633" s="9"/>
+      <c r="J633" s="12"/>
+      <c r="K633" s="15"/>
     </row>
   </sheetData>
   <mergeCells count="11">
@@ -16456,7 +16571,7 @@
   <dimension ref="A1:L67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A40" sqref="A40"/>
+      <selection activeCell="G3" sqref="G3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -16527,11 +16642,11 @@
       </c>
       <c r="E3" s="11"/>
       <c r="F3" s="11">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="G3" s="45">
         <f>SUMIFS(F7:F14,E7:E14,E3)+SUMIFS(D7:D66,C7:C66,F3)+D3</f>
-        <v>6.7000000000000004E-2</v>
+        <v>9.6000000000000002E-2</v>
       </c>
       <c r="J3" s="47">
         <v>28</v>
@@ -16582,7 +16697,7 @@
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" s="11">
         <f>SUM(Sheet1!E9,Sheet1!I9)</f>
-        <v>326.541</v>
+        <v>322.96599999999995</v>
       </c>
       <c r="C7" s="37">
         <v>1</v>
